--- a/Data/flow/NO3-N Loss.xlsx
+++ b/Data/flow/NO3-N Loss.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gio\Documents\GitHub\CSCAP\Sustainable_Corn_Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gio\Documents\GitHub\CSCAP\Sustainable_Corn_Paper\Data\flow\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,14 +19,14 @@
     <sheet name="rotations" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$G$248</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">rotations!$A$1:$H$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SERF!$A$16:$E$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sites!$A$2:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="34" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="231">
   <si>
     <t>Key</t>
   </si>
@@ -685,12 +685,57 @@
   </si>
   <si>
     <t>BW</t>
+  </si>
+  <si>
+    <t>OLD VALUES</t>
+  </si>
+  <si>
+    <t>NEW VALUES</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>plot1</t>
+  </si>
+  <si>
+    <t>plot2</t>
+  </si>
+  <si>
+    <t>plot3</t>
+  </si>
+  <si>
+    <t>plot4</t>
+  </si>
+  <si>
+    <t>plot5</t>
+  </si>
+  <si>
+    <t>plot6</t>
+  </si>
+  <si>
+    <t>Origianl</t>
+  </si>
+  <si>
+    <t>Interpolated NO3 Loss</t>
+  </si>
+  <si>
+    <t>Calculated NO3 Loss with Interpolated Flow and NO3 Conc</t>
+  </si>
+  <si>
+    <t>Shallow drainage</t>
+  </si>
+  <si>
+    <t>Controlled drainage</t>
+  </si>
+  <si>
+    <t>Free drainage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -948,7 +993,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1065,9 +1110,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1084,6 +1126,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1099,6 +1145,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1371,7 +1421,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="O1:R8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -2031,11 +2081,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G248"/>
+  <dimension ref="A1:S248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,9 +2097,10 @@
     <col min="5" max="5" width="14.85546875" style="49" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
@@ -2062,7 +2113,7 @@
       <c r="D1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="51" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="14" t="s">
@@ -2071,8 +2122,30 @@
       <c r="G1" s="14" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="J1"/>
+      <c r="L1" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="M1" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
@@ -2086,7 +2159,7 @@
         <v>2011</v>
       </c>
       <c r="E2" s="49">
-        <v>23.452043861243041</v>
+        <v>29.855460999999998</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2094,8 +2167,36 @@
       <c r="G2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="57">
+        <v>23.452043861243041</v>
+      </c>
+      <c r="I2" s="12">
+        <v>29.855460999999998</v>
+      </c>
+      <c r="L2" t="s">
+        <v>219</v>
+      </c>
+      <c r="M2" s="17">
+        <v>2011</v>
+      </c>
+      <c r="N2" s="12">
+        <v>23.452044000000001</v>
+      </c>
+      <c r="O2" s="57">
+        <v>29.855460999999998</v>
+      </c>
+      <c r="P2" s="12">
+        <v>9.1240900000000007</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>228</v>
+      </c>
+      <c r="S2" s="64">
+        <f>(P2-N2)/P2</f>
+        <v>-1.570343343829357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -2109,7 +2210,7 @@
         <v>2011</v>
       </c>
       <c r="E3" s="49">
-        <v>30.246969564684228</v>
+        <v>42.465522999999997</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -2117,8 +2218,36 @@
       <c r="G3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="57">
+        <v>30.246969564684228</v>
+      </c>
+      <c r="I3" s="12">
+        <v>42.465522999999997</v>
+      </c>
+      <c r="L3" t="s">
+        <v>219</v>
+      </c>
+      <c r="M3" s="17">
+        <v>2012</v>
+      </c>
+      <c r="N3" s="12">
+        <v>11.148345000000001</v>
+      </c>
+      <c r="O3" s="12">
+        <v>11.148345000000001</v>
+      </c>
+      <c r="P3" s="12">
+        <v>14.43534</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>228</v>
+      </c>
+      <c r="S3" s="64">
+        <f t="shared" ref="S3:S31" si="0">(P3-N3)/P3</f>
+        <v>0.22770471634197734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
@@ -2132,7 +2261,7 @@
         <v>2011</v>
       </c>
       <c r="E4" s="49">
-        <v>9.7031163052810268</v>
+        <v>11.357567</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -2140,8 +2269,36 @@
       <c r="G4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="57">
+        <v>9.7031163052810268</v>
+      </c>
+      <c r="I4" s="12">
+        <v>11.357567</v>
+      </c>
+      <c r="L4" t="s">
+        <v>219</v>
+      </c>
+      <c r="M4" s="17">
+        <v>2013</v>
+      </c>
+      <c r="N4" s="12">
+        <v>20.605733000000001</v>
+      </c>
+      <c r="O4" s="12">
+        <v>20.605730000000001</v>
+      </c>
+      <c r="P4" s="12">
+        <v>23.84834</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>228</v>
+      </c>
+      <c r="S4" s="64">
+        <f t="shared" si="0"/>
+        <v>0.13596782836876695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -2155,7 +2312,7 @@
         <v>2011</v>
       </c>
       <c r="E5" s="49">
-        <v>9.5670089828788978</v>
+        <v>10.164596</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -2163,8 +2320,36 @@
       <c r="G5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="57">
+        <v>9.5670089828788978</v>
+      </c>
+      <c r="I5" s="12">
+        <v>10.164596</v>
+      </c>
+      <c r="L5" t="s">
+        <v>219</v>
+      </c>
+      <c r="M5" s="17">
+        <v>2014</v>
+      </c>
+      <c r="N5" s="12">
+        <v>21.997187</v>
+      </c>
+      <c r="O5" s="12">
+        <v>21.997187</v>
+      </c>
+      <c r="P5" s="12">
+        <v>37.060639999999999</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>228</v>
+      </c>
+      <c r="S5" s="64">
+        <f t="shared" si="0"/>
+        <v>0.40645420586368719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
@@ -2178,7 +2363,7 @@
         <v>2011</v>
       </c>
       <c r="E6" s="49">
-        <v>19.042553013539081</v>
+        <v>24.493995999999999</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2186,8 +2371,36 @@
       <c r="G6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="57">
+        <v>19.042553013539081</v>
+      </c>
+      <c r="I6" s="12">
+        <v>24.493995999999999</v>
+      </c>
+      <c r="L6" t="s">
+        <v>219</v>
+      </c>
+      <c r="M6" s="17">
+        <v>2015</v>
+      </c>
+      <c r="N6" s="12">
+        <v>6.4732370000000001</v>
+      </c>
+      <c r="O6" s="12">
+        <v>6.4732370000000001</v>
+      </c>
+      <c r="P6" s="12">
+        <v>10.604950000000001</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>228</v>
+      </c>
+      <c r="S6" s="64">
+        <f t="shared" si="0"/>
+        <v>0.38960230835600357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
@@ -2201,7 +2414,7 @@
         <v>2011</v>
       </c>
       <c r="E7" s="49">
-        <v>5.5691700278829366</v>
+        <v>5.7327260000000004</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -2209,8 +2422,36 @@
       <c r="G7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="57">
+        <v>5.5691700278829366</v>
+      </c>
+      <c r="I7" s="12">
+        <v>5.7327260000000004</v>
+      </c>
+      <c r="L7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M7" s="17">
+        <v>2011</v>
+      </c>
+      <c r="N7" s="12">
+        <v>30.218699000000001</v>
+      </c>
+      <c r="O7" s="57">
+        <v>42.465522999999997</v>
+      </c>
+      <c r="P7" s="12">
+        <v>30.164850000000001</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>230</v>
+      </c>
+      <c r="S7" s="64">
+        <f t="shared" si="0"/>
+        <v>-1.7851572277004391E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -2223,11 +2464,33 @@
       <c r="D8">
         <v>2012</v>
       </c>
-      <c r="E8" s="49">
-        <v>11.148345111979213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="56">
+        <v>11.148345000000001</v>
+      </c>
+      <c r="L8" t="s">
+        <v>220</v>
+      </c>
+      <c r="M8" s="17">
+        <v>2012</v>
+      </c>
+      <c r="N8" s="12">
+        <v>12.322573999999999</v>
+      </c>
+      <c r="O8" s="12">
+        <v>12.322573999999999</v>
+      </c>
+      <c r="P8" s="12">
+        <v>12.300599999999999</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>230</v>
+      </c>
+      <c r="S8" s="64">
+        <f t="shared" si="0"/>
+        <v>-1.7864169227517488E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
@@ -2240,11 +2503,33 @@
       <c r="D9">
         <v>2012</v>
       </c>
-      <c r="E9" s="49">
-        <v>12.322574278492283</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="56">
+        <v>12.322573999999999</v>
+      </c>
+      <c r="L9" t="s">
+        <v>220</v>
+      </c>
+      <c r="M9" s="17">
+        <v>2013</v>
+      </c>
+      <c r="N9" s="12">
+        <v>32.226103000000002</v>
+      </c>
+      <c r="O9" s="12">
+        <v>32.226100000000002</v>
+      </c>
+      <c r="P9" s="12">
+        <v>32.168640000000003</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>230</v>
+      </c>
+      <c r="S9" s="64">
+        <f t="shared" si="0"/>
+        <v>-1.7863049230554503E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>4</v>
       </c>
@@ -2257,11 +2542,33 @@
       <c r="D10">
         <v>2012</v>
       </c>
-      <c r="E10" s="49">
-        <v>4.2925414474434866</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="56">
+        <v>4.2925409999999999</v>
+      </c>
+      <c r="L10" t="s">
+        <v>220</v>
+      </c>
+      <c r="M10" s="17">
+        <v>2014</v>
+      </c>
+      <c r="N10" s="12">
+        <v>59.143658000000002</v>
+      </c>
+      <c r="O10" s="12">
+        <v>59.143658000000002</v>
+      </c>
+      <c r="P10" s="12">
+        <v>59.038209999999999</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>230</v>
+      </c>
+      <c r="S10" s="64">
+        <f t="shared" si="0"/>
+        <v>-1.7860975121028E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>4</v>
       </c>
@@ -2274,11 +2581,33 @@
       <c r="D11">
         <v>2012</v>
       </c>
-      <c r="E11" s="49">
-        <v>5.9977010626825571</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="56">
+        <v>5.9977010000000002</v>
+      </c>
+      <c r="L11" t="s">
+        <v>220</v>
+      </c>
+      <c r="M11" s="17">
+        <v>2015</v>
+      </c>
+      <c r="N11" s="12">
+        <v>14.899464999999999</v>
+      </c>
+      <c r="O11" s="12">
+        <v>14.899558000000001</v>
+      </c>
+      <c r="P11" s="12">
+        <v>14.8729</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>230</v>
+      </c>
+      <c r="S11" s="64">
+        <f t="shared" si="0"/>
+        <v>-1.7861345131077145E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>4</v>
       </c>
@@ -2291,11 +2620,33 @@
       <c r="D12">
         <v>2012</v>
       </c>
-      <c r="E12" s="49">
-        <v>7.7289411623128679</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="56">
+        <v>7.7289409999999998</v>
+      </c>
+      <c r="L12" t="s">
+        <v>221</v>
+      </c>
+      <c r="M12" s="17">
+        <v>2011</v>
+      </c>
+      <c r="N12" s="12">
+        <v>9.6991209999999999</v>
+      </c>
+      <c r="O12" s="57">
+        <v>11.357567</v>
+      </c>
+      <c r="P12" s="12">
+        <v>9.6818270000000002</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>229</v>
+      </c>
+      <c r="S12" s="64">
+        <f t="shared" si="0"/>
+        <v>-1.7862331148862398E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>4</v>
       </c>
@@ -2308,11 +2659,33 @@
       <c r="D13">
         <v>2012</v>
       </c>
-      <c r="E13" s="49">
-        <v>3.6994482564836635</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="56">
+        <v>3.6994479999999998</v>
+      </c>
+      <c r="L13" t="s">
+        <v>221</v>
+      </c>
+      <c r="M13" s="17">
+        <v>2012</v>
+      </c>
+      <c r="N13" s="12">
+        <v>4.2925409999999999</v>
+      </c>
+      <c r="O13" s="12">
+        <v>4.2925409999999999</v>
+      </c>
+      <c r="P13" s="12">
+        <v>4.2848879999999996</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>229</v>
+      </c>
+      <c r="S13" s="64">
+        <f t="shared" si="0"/>
+        <v>-1.7860443493506375E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>4</v>
       </c>
@@ -2325,11 +2698,33 @@
       <c r="D14">
         <v>2013</v>
       </c>
-      <c r="E14" s="49">
-        <v>20.605732597297074</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="56">
+        <v>20.605730000000001</v>
+      </c>
+      <c r="L14" t="s">
+        <v>221</v>
+      </c>
+      <c r="M14" s="17">
+        <v>2013</v>
+      </c>
+      <c r="N14" s="12">
+        <v>19.107282999999999</v>
+      </c>
+      <c r="O14" s="12">
+        <v>19.107279999999999</v>
+      </c>
+      <c r="P14" s="12">
+        <v>19.07321</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>229</v>
+      </c>
+      <c r="S14" s="64">
+        <f t="shared" si="0"/>
+        <v>-1.7864323834320156E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>4</v>
       </c>
@@ -2342,11 +2737,33 @@
       <c r="D15">
         <v>2013</v>
       </c>
-      <c r="E15" s="49">
-        <v>32.226103252712221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="56">
+        <v>32.226100000000002</v>
+      </c>
+      <c r="L15" t="s">
+        <v>221</v>
+      </c>
+      <c r="M15" s="17">
+        <v>2014</v>
+      </c>
+      <c r="N15" s="12">
+        <v>6.4460639999999998</v>
+      </c>
+      <c r="O15" s="12">
+        <v>6.4460639999999998</v>
+      </c>
+      <c r="P15" s="12">
+        <v>6.434571</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>229</v>
+      </c>
+      <c r="S15" s="64">
+        <f t="shared" si="0"/>
+        <v>-1.7861330615513845E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>4</v>
       </c>
@@ -2359,11 +2776,33 @@
       <c r="D16">
         <v>2013</v>
       </c>
-      <c r="E16" s="49">
-        <v>19.10728323177532</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="56">
+        <v>19.107279999999999</v>
+      </c>
+      <c r="L16" t="s">
+        <v>221</v>
+      </c>
+      <c r="M16" s="17">
+        <v>2015</v>
+      </c>
+      <c r="N16" s="12">
+        <v>10.609299</v>
+      </c>
+      <c r="O16" s="12">
+        <v>10.612791</v>
+      </c>
+      <c r="P16" s="12">
+        <v>10.59038</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>229</v>
+      </c>
+      <c r="S16" s="64">
+        <f t="shared" si="0"/>
+        <v>-1.7864325925982215E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>4</v>
       </c>
@@ -2376,11 +2815,33 @@
       <c r="D17">
         <v>2013</v>
       </c>
-      <c r="E17" s="49">
-        <v>20.814663293615897</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="56">
+        <v>20.81466</v>
+      </c>
+      <c r="L17" t="s">
+        <v>222</v>
+      </c>
+      <c r="M17" s="17">
+        <v>2011</v>
+      </c>
+      <c r="N17" s="12">
+        <v>9.5850329999999992</v>
+      </c>
+      <c r="O17" s="57">
+        <v>10.164596</v>
+      </c>
+      <c r="P17" s="12">
+        <v>9.5679420000000004</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>229</v>
+      </c>
+      <c r="S17" s="64">
+        <f t="shared" si="0"/>
+        <v>-1.7862775505954004E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>4</v>
       </c>
@@ -2393,11 +2854,33 @@
       <c r="D18">
         <v>2013</v>
       </c>
-      <c r="E18" s="49">
-        <v>36.214896617535196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="56">
+        <v>36.2149</v>
+      </c>
+      <c r="L18" t="s">
+        <v>222</v>
+      </c>
+      <c r="M18" s="17">
+        <v>2012</v>
+      </c>
+      <c r="N18" s="12">
+        <v>5.9977010000000002</v>
+      </c>
+      <c r="O18" s="12">
+        <v>5.9977010000000002</v>
+      </c>
+      <c r="P18" s="12">
+        <v>5.9870070000000002</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>229</v>
+      </c>
+      <c r="S18" s="64">
+        <f t="shared" si="0"/>
+        <v>-1.7862013523618698E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>4</v>
       </c>
@@ -2410,11 +2893,33 @@
       <c r="D19">
         <v>2013</v>
       </c>
-      <c r="E19" s="49">
-        <v>16.269771518398983</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="56">
+        <v>16.269770000000001</v>
+      </c>
+      <c r="L19" t="s">
+        <v>222</v>
+      </c>
+      <c r="M19" s="17">
+        <v>2013</v>
+      </c>
+      <c r="N19" s="12">
+        <v>20.814662999999999</v>
+      </c>
+      <c r="O19" s="12">
+        <v>20.81466</v>
+      </c>
+      <c r="P19" s="12">
+        <v>20.777550000000002</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>229</v>
+      </c>
+      <c r="S19" s="64">
+        <f t="shared" si="0"/>
+        <v>-1.7862067471861674E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>4</v>
       </c>
@@ -2427,11 +2932,33 @@
       <c r="D20">
         <v>2014</v>
       </c>
-      <c r="E20" s="49">
-        <v>21.997187461853823</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="56">
+        <v>21.997187</v>
+      </c>
+      <c r="L20" t="s">
+        <v>222</v>
+      </c>
+      <c r="M20" s="17">
+        <v>2014</v>
+      </c>
+      <c r="N20" s="12">
+        <v>15.617248999999999</v>
+      </c>
+      <c r="O20" s="12">
+        <v>15.617248999999999</v>
+      </c>
+      <c r="P20" s="12">
+        <v>15.589399999999999</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>229</v>
+      </c>
+      <c r="S20" s="64">
+        <f t="shared" si="0"/>
+        <v>-1.7864061477670592E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>4</v>
       </c>
@@ -2444,11 +2971,33 @@
       <c r="D21">
         <v>2014</v>
       </c>
-      <c r="E21" s="49">
-        <v>59.143658115801664</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="56">
+        <v>59.143658000000002</v>
+      </c>
+      <c r="L21" t="s">
+        <v>222</v>
+      </c>
+      <c r="M21" s="17">
+        <v>2015</v>
+      </c>
+      <c r="N21" s="12">
+        <v>9.9696359999999995</v>
+      </c>
+      <c r="O21" s="12">
+        <v>9.9698910000000005</v>
+      </c>
+      <c r="P21" s="12">
+        <v>9.9518599999999999</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>229</v>
+      </c>
+      <c r="S21" s="64">
+        <f t="shared" si="0"/>
+        <v>-1.7861987608346148E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>4</v>
       </c>
@@ -2461,11 +3010,33 @@
       <c r="D22">
         <v>2014</v>
       </c>
-      <c r="E22" s="49">
-        <v>6.4460640319366291</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="56">
+        <v>6.4460639999999998</v>
+      </c>
+      <c r="L22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M22" s="17">
+        <v>2011</v>
+      </c>
+      <c r="N22" s="12">
+        <v>19.045133</v>
+      </c>
+      <c r="O22" s="57">
+        <v>24.493995999999999</v>
+      </c>
+      <c r="P22" s="12">
+        <v>19.01118</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>230</v>
+      </c>
+      <c r="S22" s="64">
+        <f t="shared" si="0"/>
+        <v>-1.7859491099447981E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>4</v>
       </c>
@@ -2478,11 +3049,30 @@
       <c r="D23">
         <v>2014</v>
       </c>
-      <c r="E23" s="49">
-        <v>15.617248728120618</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="56">
+        <v>15.617248999999999</v>
+      </c>
+      <c r="L23" t="s">
+        <v>223</v>
+      </c>
+      <c r="M23" s="17">
+        <v>2012</v>
+      </c>
+      <c r="N23" s="12">
+        <v>7.7289409999999998</v>
+      </c>
+      <c r="O23" s="12">
+        <v>7.7289409999999998</v>
+      </c>
+      <c r="P23" s="12">
+        <v>5.0621119999999997E-5</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>230</v>
+      </c>
+      <c r="S23" s="64"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>4</v>
       </c>
@@ -2495,11 +3085,33 @@
       <c r="D24">
         <v>2014</v>
       </c>
-      <c r="E24" s="49">
-        <v>55.974492961519047</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="56">
+        <v>55.974493000000002</v>
+      </c>
+      <c r="L24" t="s">
+        <v>223</v>
+      </c>
+      <c r="M24" s="17">
+        <v>2013</v>
+      </c>
+      <c r="N24" s="12">
+        <v>36.214897000000001</v>
+      </c>
+      <c r="O24" s="12">
+        <v>36.2149</v>
+      </c>
+      <c r="P24" s="12">
+        <v>36.150329999999997</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>230</v>
+      </c>
+      <c r="S24" s="64">
+        <f t="shared" si="0"/>
+        <v>-1.7860694494352838E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>4</v>
       </c>
@@ -2512,11 +3124,33 @@
       <c r="D25">
         <v>2014</v>
       </c>
-      <c r="E25" s="49">
-        <v>13.206844518128886</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="56">
+        <v>13.206845</v>
+      </c>
+      <c r="L25" t="s">
+        <v>223</v>
+      </c>
+      <c r="M25" s="17">
+        <v>2014</v>
+      </c>
+      <c r="N25" s="12">
+        <v>55.974493000000002</v>
+      </c>
+      <c r="O25" s="12">
+        <v>55.974493000000002</v>
+      </c>
+      <c r="P25" s="12">
+        <v>55.874690000000001</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>230</v>
+      </c>
+      <c r="S25" s="64">
+        <f t="shared" si="0"/>
+        <v>-1.7861933551667386E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>4</v>
       </c>
@@ -2529,11 +3163,33 @@
       <c r="D26" s="2">
         <v>2015</v>
       </c>
-      <c r="E26" s="50">
-        <v>6.4732370062486293</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="56">
+        <v>6.4732370000000001</v>
+      </c>
+      <c r="L26" t="s">
+        <v>223</v>
+      </c>
+      <c r="M26" s="17">
+        <v>2015</v>
+      </c>
+      <c r="N26" s="12">
+        <v>51.153748</v>
+      </c>
+      <c r="O26" s="12">
+        <v>51.153748</v>
+      </c>
+      <c r="P26" s="12">
+        <v>51.062539999999998</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>230</v>
+      </c>
+      <c r="S26" s="64">
+        <f t="shared" si="0"/>
+        <v>-1.78620178314674E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>4</v>
       </c>
@@ -2546,11 +3202,33 @@
       <c r="D27" s="2">
         <v>2015</v>
       </c>
-      <c r="E27" s="50">
-        <v>14.899464757295986</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="56">
+        <v>14.899558000000001</v>
+      </c>
+      <c r="L27" t="s">
+        <v>224</v>
+      </c>
+      <c r="M27" s="17">
+        <v>2011</v>
+      </c>
+      <c r="N27" s="12">
+        <v>5.5771870000000003</v>
+      </c>
+      <c r="O27" s="57">
+        <v>5.7327260000000004</v>
+      </c>
+      <c r="P27" s="12">
+        <v>5.5672420000000002</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>228</v>
+      </c>
+      <c r="S27" s="64">
+        <f t="shared" si="0"/>
+        <v>-1.7863423217456852E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>4</v>
       </c>
@@ -2563,11 +3241,33 @@
       <c r="D28" s="2">
         <v>2015</v>
       </c>
-      <c r="E28" s="50">
-        <v>10.609299296662067</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E28" s="56">
+        <v>10.612791</v>
+      </c>
+      <c r="L28" t="s">
+        <v>224</v>
+      </c>
+      <c r="M28" s="17">
+        <v>2012</v>
+      </c>
+      <c r="N28" s="12">
+        <v>3.6994479999999998</v>
+      </c>
+      <c r="O28" s="12">
+        <v>3.6994479999999998</v>
+      </c>
+      <c r="P28" s="12">
+        <v>3.6928519999999998</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>228</v>
+      </c>
+      <c r="S28" s="64">
+        <f t="shared" si="0"/>
+        <v>-1.7861533578925034E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>4</v>
       </c>
@@ -2580,11 +3280,33 @@
       <c r="D29" s="2">
         <v>2015</v>
       </c>
-      <c r="E29" s="50">
-        <v>9.9700000000000006</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="56">
+        <v>9.9698910000000005</v>
+      </c>
+      <c r="L29" t="s">
+        <v>224</v>
+      </c>
+      <c r="M29" s="17">
+        <v>2013</v>
+      </c>
+      <c r="N29" s="12">
+        <v>16.269772</v>
+      </c>
+      <c r="O29" s="12">
+        <v>16.269770000000001</v>
+      </c>
+      <c r="P29" s="12">
+        <v>16.240760000000002</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>228</v>
+      </c>
+      <c r="S29" s="64">
+        <f t="shared" si="0"/>
+        <v>-1.7863696033928237E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>4</v>
       </c>
@@ -2597,11 +3319,33 @@
       <c r="D30" s="2">
         <v>2015</v>
       </c>
-      <c r="E30" s="50">
-        <v>51.15374766070407</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30" s="56">
+        <v>51.153748</v>
+      </c>
+      <c r="L30" t="s">
+        <v>224</v>
+      </c>
+      <c r="M30" s="17">
+        <v>2014</v>
+      </c>
+      <c r="N30" s="12">
+        <v>13.206845</v>
+      </c>
+      <c r="O30" s="12">
+        <v>13.206845</v>
+      </c>
+      <c r="P30" s="12">
+        <v>13.183299999999999</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>228</v>
+      </c>
+      <c r="S30" s="64">
+        <f t="shared" si="0"/>
+        <v>-1.7859716459460357E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>4</v>
       </c>
@@ -2614,11 +3358,33 @@
       <c r="D31" s="2">
         <v>2015</v>
       </c>
-      <c r="E31" s="50">
-        <v>23.588162023184807</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31" s="56">
+        <v>23.588162000000001</v>
+      </c>
+      <c r="L31" t="s">
+        <v>224</v>
+      </c>
+      <c r="M31" s="17">
+        <v>2015</v>
+      </c>
+      <c r="N31" s="12">
+        <v>23.588162000000001</v>
+      </c>
+      <c r="O31" s="12">
+        <v>23.588162000000001</v>
+      </c>
+      <c r="P31" s="12">
+        <v>23.546099999999999</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>228</v>
+      </c>
+      <c r="S31" s="64">
+        <f t="shared" si="0"/>
+        <v>-1.7863680184829495E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>7</v>
       </c>
@@ -5727,7 +6493,7 @@
       <c r="D200" s="2">
         <v>2014</v>
       </c>
-      <c r="E200" s="51">
+      <c r="E200" s="50">
         <v>0.4702921739999999</v>
       </c>
     </row>
@@ -5744,7 +6510,7 @@
       <c r="D201" s="2">
         <v>2014</v>
       </c>
-      <c r="E201" s="51">
+      <c r="E201" s="50">
         <v>0.73397339399999995</v>
       </c>
     </row>
@@ -5761,7 +6527,7 @@
       <c r="D202" s="2">
         <v>2014</v>
       </c>
-      <c r="E202" s="51">
+      <c r="E202" s="50">
         <v>0.24717726000000001</v>
       </c>
     </row>
@@ -5778,7 +6544,7 @@
       <c r="D203" s="2">
         <v>2014</v>
       </c>
-      <c r="E203" s="51">
+      <c r="E203" s="50">
         <v>0.17434296000000002</v>
       </c>
     </row>
@@ -5795,7 +6561,7 @@
       <c r="D204" s="2">
         <v>2014</v>
       </c>
-      <c r="E204" s="51">
+      <c r="E204" s="50">
         <v>0.11686617800000001</v>
       </c>
     </row>
@@ -6548,9 +7314,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1">
-    <sortState ref="A2:G79">
-      <sortCondition descending="1" ref="A1"/>
+  <autoFilter ref="A1:G248">
+    <sortState ref="A2:G31">
+      <sortCondition ref="D1:D248"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7171,17 +7937,17 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
       <c r="I16" s="1">
         <v>3</v>
       </c>
@@ -7200,8 +7966,8 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="44" t="s">
         <v>51</v>
       </c>
@@ -7236,7 +8002,7 @@
       <c r="C18" s="39">
         <v>3.7678100933982313</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="54">
         <v>23.452043861243041</v>
       </c>
       <c r="E18" s="41">
@@ -7267,10 +8033,10 @@
       <c r="B19" s="1">
         <v>2011</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="53">
         <v>30.246969564684228</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="52">
         <v>4.5788637788655961</v>
       </c>
       <c r="E19" s="41">
@@ -7301,10 +8067,10 @@
       <c r="B20" s="1">
         <v>2011</v>
       </c>
-      <c r="C20" s="54">
+      <c r="C20" s="53">
         <v>9.7031163052810268</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="52">
         <v>1.5885113287342694</v>
       </c>
       <c r="E20" s="41">
@@ -7338,10 +8104,10 @@
       <c r="B21" s="1">
         <v>2011</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21" s="53">
         <v>9.5670089828788978</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="52">
         <v>1.8823994563804169</v>
       </c>
       <c r="E21" s="41">
@@ -7372,10 +8138,10 @@
       <c r="B22" s="1">
         <v>2011</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="53">
         <v>19.042553013539081</v>
       </c>
-      <c r="D22" s="53">
+      <c r="D22" s="52">
         <v>12.486065787224014</v>
       </c>
       <c r="E22" s="41">
@@ -7404,10 +8170,10 @@
       <c r="B23" s="1">
         <v>2011</v>
       </c>
-      <c r="C23" s="54">
+      <c r="C23" s="53">
         <v>5.5691700278829366</v>
       </c>
-      <c r="D23" s="53">
+      <c r="D23" s="52">
         <v>0.6482647808533899</v>
       </c>
       <c r="E23" s="41">
@@ -7951,14 +8717,14 @@
         <v>2015</v>
       </c>
       <c r="C45" s="43"/>
-      <c r="D45" s="53">
+      <c r="D45" s="52">
         <v>64.995703601698239</v>
       </c>
       <c r="E45" s="41">
         <f t="shared" si="1"/>
         <v>64.995703601698239</v>
       </c>
-      <c r="F45" s="56">
+      <c r="F45" s="55">
         <v>9.9700000000000006</v>
       </c>
     </row>

--- a/Data/flow/NO3-N Loss.xlsx
+++ b/Data/flow/NO3-N Loss.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gio\Documents\GitHub\CSCAP\Sustainable_Corn_Paper\Data\flow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gio\Documents\GitHub\CSCAP\Sustainable_Corn_Paper\Data\flow\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sites" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$G$248</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">rotations!$A$1:$H$63</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SERF!$A$16:$E$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SERF!$S$16:$W$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sites!$A$2:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="34" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -735,13 +735,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -868,8 +868,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -897,6 +935,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,7 +1037,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1145,10 +1189,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1171,7 +1238,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Chighladze, Giorgi" refreshedDate="42748.437253819444" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="30">
   <cacheSource type="worksheet">
-    <worksheetSource ref="I2:M32" sheet="SERF"/>
+    <worksheetSource ref="AA2:AE32" sheet="SERF"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="plot id" numFmtId="0">
@@ -1421,8 +1488,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O1:R8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AG1:AJ8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
       <items count="7">
@@ -2081,11 +2148,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S248"/>
+  <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W6" sqref="W6"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,7 +2167,7 @@
     <col min="14" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
@@ -2129,23 +2196,8 @@
         <v>217</v>
       </c>
       <c r="J1"/>
-      <c r="L1" s="63" t="s">
-        <v>218</v>
-      </c>
-      <c r="M1" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="63" t="s">
-        <v>225</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
@@ -2173,30 +2225,8 @@
       <c r="I2" s="12">
         <v>29.855460999999998</v>
       </c>
-      <c r="L2" t="s">
-        <v>219</v>
-      </c>
-      <c r="M2" s="17">
-        <v>2011</v>
-      </c>
-      <c r="N2" s="12">
-        <v>23.452044000000001</v>
-      </c>
-      <c r="O2" s="57">
-        <v>29.855460999999998</v>
-      </c>
-      <c r="P2" s="12">
-        <v>9.1240900000000007</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>228</v>
-      </c>
-      <c r="S2" s="64">
-        <f>(P2-N2)/P2</f>
-        <v>-1.570343343829357</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -2224,30 +2254,8 @@
       <c r="I3" s="12">
         <v>42.465522999999997</v>
       </c>
-      <c r="L3" t="s">
-        <v>219</v>
-      </c>
-      <c r="M3" s="17">
-        <v>2012</v>
-      </c>
-      <c r="N3" s="12">
-        <v>11.148345000000001</v>
-      </c>
-      <c r="O3" s="12">
-        <v>11.148345000000001</v>
-      </c>
-      <c r="P3" s="12">
-        <v>14.43534</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>228</v>
-      </c>
-      <c r="S3" s="64">
-        <f t="shared" ref="S3:S31" si="0">(P3-N3)/P3</f>
-        <v>0.22770471634197734</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
@@ -2275,30 +2283,8 @@
       <c r="I4" s="12">
         <v>11.357567</v>
       </c>
-      <c r="L4" t="s">
-        <v>219</v>
-      </c>
-      <c r="M4" s="17">
-        <v>2013</v>
-      </c>
-      <c r="N4" s="12">
-        <v>20.605733000000001</v>
-      </c>
-      <c r="O4" s="12">
-        <v>20.605730000000001</v>
-      </c>
-      <c r="P4" s="12">
-        <v>23.84834</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>228</v>
-      </c>
-      <c r="S4" s="64">
-        <f t="shared" si="0"/>
-        <v>0.13596782836876695</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -2326,30 +2312,8 @@
       <c r="I5" s="12">
         <v>10.164596</v>
       </c>
-      <c r="L5" t="s">
-        <v>219</v>
-      </c>
-      <c r="M5" s="17">
-        <v>2014</v>
-      </c>
-      <c r="N5" s="12">
-        <v>21.997187</v>
-      </c>
-      <c r="O5" s="12">
-        <v>21.997187</v>
-      </c>
-      <c r="P5" s="12">
-        <v>37.060639999999999</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>228</v>
-      </c>
-      <c r="S5" s="64">
-        <f t="shared" si="0"/>
-        <v>0.40645420586368719</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
@@ -2377,30 +2341,8 @@
       <c r="I6" s="12">
         <v>24.493995999999999</v>
       </c>
-      <c r="L6" t="s">
-        <v>219</v>
-      </c>
-      <c r="M6" s="17">
-        <v>2015</v>
-      </c>
-      <c r="N6" s="12">
-        <v>6.4732370000000001</v>
-      </c>
-      <c r="O6" s="12">
-        <v>6.4732370000000001</v>
-      </c>
-      <c r="P6" s="12">
-        <v>10.604950000000001</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>228</v>
-      </c>
-      <c r="S6" s="64">
-        <f t="shared" si="0"/>
-        <v>0.38960230835600357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
@@ -2428,30 +2370,8 @@
       <c r="I7" s="12">
         <v>5.7327260000000004</v>
       </c>
-      <c r="L7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M7" s="17">
-        <v>2011</v>
-      </c>
-      <c r="N7" s="12">
-        <v>30.218699000000001</v>
-      </c>
-      <c r="O7" s="57">
-        <v>42.465522999999997</v>
-      </c>
-      <c r="P7" s="12">
-        <v>30.164850000000001</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>230</v>
-      </c>
-      <c r="S7" s="64">
-        <f t="shared" si="0"/>
-        <v>-1.7851572277004391E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -2467,30 +2387,8 @@
       <c r="E8" s="56">
         <v>11.148345000000001</v>
       </c>
-      <c r="L8" t="s">
-        <v>220</v>
-      </c>
-      <c r="M8" s="17">
-        <v>2012</v>
-      </c>
-      <c r="N8" s="12">
-        <v>12.322573999999999</v>
-      </c>
-      <c r="O8" s="12">
-        <v>12.322573999999999</v>
-      </c>
-      <c r="P8" s="12">
-        <v>12.300599999999999</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>230</v>
-      </c>
-      <c r="S8" s="64">
-        <f t="shared" si="0"/>
-        <v>-1.7864169227517488E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
@@ -2506,30 +2404,8 @@
       <c r="E9" s="56">
         <v>12.322573999999999</v>
       </c>
-      <c r="L9" t="s">
-        <v>220</v>
-      </c>
-      <c r="M9" s="17">
-        <v>2013</v>
-      </c>
-      <c r="N9" s="12">
-        <v>32.226103000000002</v>
-      </c>
-      <c r="O9" s="12">
-        <v>32.226100000000002</v>
-      </c>
-      <c r="P9" s="12">
-        <v>32.168640000000003</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>230</v>
-      </c>
-      <c r="S9" s="64">
-        <f t="shared" si="0"/>
-        <v>-1.7863049230554503E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>4</v>
       </c>
@@ -2545,30 +2421,8 @@
       <c r="E10" s="56">
         <v>4.2925409999999999</v>
       </c>
-      <c r="L10" t="s">
-        <v>220</v>
-      </c>
-      <c r="M10" s="17">
-        <v>2014</v>
-      </c>
-      <c r="N10" s="12">
-        <v>59.143658000000002</v>
-      </c>
-      <c r="O10" s="12">
-        <v>59.143658000000002</v>
-      </c>
-      <c r="P10" s="12">
-        <v>59.038209999999999</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>230</v>
-      </c>
-      <c r="S10" s="64">
-        <f t="shared" si="0"/>
-        <v>-1.7860975121028E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>4</v>
       </c>
@@ -2584,30 +2438,8 @@
       <c r="E11" s="56">
         <v>5.9977010000000002</v>
       </c>
-      <c r="L11" t="s">
-        <v>220</v>
-      </c>
-      <c r="M11" s="17">
-        <v>2015</v>
-      </c>
-      <c r="N11" s="12">
-        <v>14.899464999999999</v>
-      </c>
-      <c r="O11" s="12">
-        <v>14.899558000000001</v>
-      </c>
-      <c r="P11" s="12">
-        <v>14.8729</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>230</v>
-      </c>
-      <c r="S11" s="64">
-        <f t="shared" si="0"/>
-        <v>-1.7861345131077145E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>4</v>
       </c>
@@ -2623,30 +2455,8 @@
       <c r="E12" s="56">
         <v>7.7289409999999998</v>
       </c>
-      <c r="L12" t="s">
-        <v>221</v>
-      </c>
-      <c r="M12" s="17">
-        <v>2011</v>
-      </c>
-      <c r="N12" s="12">
-        <v>9.6991209999999999</v>
-      </c>
-      <c r="O12" s="57">
-        <v>11.357567</v>
-      </c>
-      <c r="P12" s="12">
-        <v>9.6818270000000002</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>229</v>
-      </c>
-      <c r="S12" s="64">
-        <f t="shared" si="0"/>
-        <v>-1.7862331148862398E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>4</v>
       </c>
@@ -2662,30 +2472,8 @@
       <c r="E13" s="56">
         <v>3.6994479999999998</v>
       </c>
-      <c r="L13" t="s">
-        <v>221</v>
-      </c>
-      <c r="M13" s="17">
-        <v>2012</v>
-      </c>
-      <c r="N13" s="12">
-        <v>4.2925409999999999</v>
-      </c>
-      <c r="O13" s="12">
-        <v>4.2925409999999999</v>
-      </c>
-      <c r="P13" s="12">
-        <v>4.2848879999999996</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>229</v>
-      </c>
-      <c r="S13" s="64">
-        <f t="shared" si="0"/>
-        <v>-1.7860443493506375E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>4</v>
       </c>
@@ -2701,30 +2489,8 @@
       <c r="E14" s="56">
         <v>20.605730000000001</v>
       </c>
-      <c r="L14" t="s">
-        <v>221</v>
-      </c>
-      <c r="M14" s="17">
-        <v>2013</v>
-      </c>
-      <c r="N14" s="12">
-        <v>19.107282999999999</v>
-      </c>
-      <c r="O14" s="12">
-        <v>19.107279999999999</v>
-      </c>
-      <c r="P14" s="12">
-        <v>19.07321</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>229</v>
-      </c>
-      <c r="S14" s="64">
-        <f t="shared" si="0"/>
-        <v>-1.7864323834320156E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>4</v>
       </c>
@@ -2740,30 +2506,8 @@
       <c r="E15" s="56">
         <v>32.226100000000002</v>
       </c>
-      <c r="L15" t="s">
-        <v>221</v>
-      </c>
-      <c r="M15" s="17">
-        <v>2014</v>
-      </c>
-      <c r="N15" s="12">
-        <v>6.4460639999999998</v>
-      </c>
-      <c r="O15" s="12">
-        <v>6.4460639999999998</v>
-      </c>
-      <c r="P15" s="12">
-        <v>6.434571</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>229</v>
-      </c>
-      <c r="S15" s="64">
-        <f t="shared" si="0"/>
-        <v>-1.7861330615513845E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>4</v>
       </c>
@@ -2779,30 +2523,8 @@
       <c r="E16" s="56">
         <v>19.107279999999999</v>
       </c>
-      <c r="L16" t="s">
-        <v>221</v>
-      </c>
-      <c r="M16" s="17">
-        <v>2015</v>
-      </c>
-      <c r="N16" s="12">
-        <v>10.609299</v>
-      </c>
-      <c r="O16" s="12">
-        <v>10.612791</v>
-      </c>
-      <c r="P16" s="12">
-        <v>10.59038</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>229</v>
-      </c>
-      <c r="S16" s="64">
-        <f t="shared" si="0"/>
-        <v>-1.7864325925982215E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>4</v>
       </c>
@@ -2818,30 +2540,8 @@
       <c r="E17" s="56">
         <v>20.81466</v>
       </c>
-      <c r="L17" t="s">
-        <v>222</v>
-      </c>
-      <c r="M17" s="17">
-        <v>2011</v>
-      </c>
-      <c r="N17" s="12">
-        <v>9.5850329999999992</v>
-      </c>
-      <c r="O17" s="57">
-        <v>10.164596</v>
-      </c>
-      <c r="P17" s="12">
-        <v>9.5679420000000004</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>229</v>
-      </c>
-      <c r="S17" s="64">
-        <f t="shared" si="0"/>
-        <v>-1.7862775505954004E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>4</v>
       </c>
@@ -2857,30 +2557,8 @@
       <c r="E18" s="56">
         <v>36.2149</v>
       </c>
-      <c r="L18" t="s">
-        <v>222</v>
-      </c>
-      <c r="M18" s="17">
-        <v>2012</v>
-      </c>
-      <c r="N18" s="12">
-        <v>5.9977010000000002</v>
-      </c>
-      <c r="O18" s="12">
-        <v>5.9977010000000002</v>
-      </c>
-      <c r="P18" s="12">
-        <v>5.9870070000000002</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>229</v>
-      </c>
-      <c r="S18" s="64">
-        <f t="shared" si="0"/>
-        <v>-1.7862013523618698E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>4</v>
       </c>
@@ -2896,30 +2574,8 @@
       <c r="E19" s="56">
         <v>16.269770000000001</v>
       </c>
-      <c r="L19" t="s">
-        <v>222</v>
-      </c>
-      <c r="M19" s="17">
-        <v>2013</v>
-      </c>
-      <c r="N19" s="12">
-        <v>20.814662999999999</v>
-      </c>
-      <c r="O19" s="12">
-        <v>20.81466</v>
-      </c>
-      <c r="P19" s="12">
-        <v>20.777550000000002</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>229</v>
-      </c>
-      <c r="S19" s="64">
-        <f t="shared" si="0"/>
-        <v>-1.7862067471861674E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>4</v>
       </c>
@@ -2935,30 +2591,8 @@
       <c r="E20" s="56">
         <v>21.997187</v>
       </c>
-      <c r="L20" t="s">
-        <v>222</v>
-      </c>
-      <c r="M20" s="17">
-        <v>2014</v>
-      </c>
-      <c r="N20" s="12">
-        <v>15.617248999999999</v>
-      </c>
-      <c r="O20" s="12">
-        <v>15.617248999999999</v>
-      </c>
-      <c r="P20" s="12">
-        <v>15.589399999999999</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>229</v>
-      </c>
-      <c r="S20" s="64">
-        <f t="shared" si="0"/>
-        <v>-1.7864061477670592E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>4</v>
       </c>
@@ -2974,30 +2608,8 @@
       <c r="E21" s="56">
         <v>59.143658000000002</v>
       </c>
-      <c r="L21" t="s">
-        <v>222</v>
-      </c>
-      <c r="M21" s="17">
-        <v>2015</v>
-      </c>
-      <c r="N21" s="12">
-        <v>9.9696359999999995</v>
-      </c>
-      <c r="O21" s="12">
-        <v>9.9698910000000005</v>
-      </c>
-      <c r="P21" s="12">
-        <v>9.9518599999999999</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>229</v>
-      </c>
-      <c r="S21" s="64">
-        <f t="shared" si="0"/>
-        <v>-1.7861987608346148E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>4</v>
       </c>
@@ -3013,30 +2625,8 @@
       <c r="E22" s="56">
         <v>6.4460639999999998</v>
       </c>
-      <c r="L22" t="s">
-        <v>223</v>
-      </c>
-      <c r="M22" s="17">
-        <v>2011</v>
-      </c>
-      <c r="N22" s="12">
-        <v>19.045133</v>
-      </c>
-      <c r="O22" s="57">
-        <v>24.493995999999999</v>
-      </c>
-      <c r="P22" s="12">
-        <v>19.01118</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>230</v>
-      </c>
-      <c r="S22" s="64">
-        <f t="shared" si="0"/>
-        <v>-1.7859491099447981E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>4</v>
       </c>
@@ -3052,27 +2642,8 @@
       <c r="E23" s="56">
         <v>15.617248999999999</v>
       </c>
-      <c r="L23" t="s">
-        <v>223</v>
-      </c>
-      <c r="M23" s="17">
-        <v>2012</v>
-      </c>
-      <c r="N23" s="12">
-        <v>7.7289409999999998</v>
-      </c>
-      <c r="O23" s="12">
-        <v>7.7289409999999998</v>
-      </c>
-      <c r="P23" s="12">
-        <v>5.0621119999999997E-5</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>230</v>
-      </c>
-      <c r="S23" s="64"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>4</v>
       </c>
@@ -3088,30 +2659,8 @@
       <c r="E24" s="56">
         <v>55.974493000000002</v>
       </c>
-      <c r="L24" t="s">
-        <v>223</v>
-      </c>
-      <c r="M24" s="17">
-        <v>2013</v>
-      </c>
-      <c r="N24" s="12">
-        <v>36.214897000000001</v>
-      </c>
-      <c r="O24" s="12">
-        <v>36.2149</v>
-      </c>
-      <c r="P24" s="12">
-        <v>36.150329999999997</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>230</v>
-      </c>
-      <c r="S24" s="64">
-        <f t="shared" si="0"/>
-        <v>-1.7860694494352838E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>4</v>
       </c>
@@ -3127,30 +2676,8 @@
       <c r="E25" s="56">
         <v>13.206845</v>
       </c>
-      <c r="L25" t="s">
-        <v>223</v>
-      </c>
-      <c r="M25" s="17">
-        <v>2014</v>
-      </c>
-      <c r="N25" s="12">
-        <v>55.974493000000002</v>
-      </c>
-      <c r="O25" s="12">
-        <v>55.974493000000002</v>
-      </c>
-      <c r="P25" s="12">
-        <v>55.874690000000001</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>230</v>
-      </c>
-      <c r="S25" s="64">
-        <f t="shared" si="0"/>
-        <v>-1.7861933551667386E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>4</v>
       </c>
@@ -3166,30 +2693,8 @@
       <c r="E26" s="56">
         <v>6.4732370000000001</v>
       </c>
-      <c r="L26" t="s">
-        <v>223</v>
-      </c>
-      <c r="M26" s="17">
-        <v>2015</v>
-      </c>
-      <c r="N26" s="12">
-        <v>51.153748</v>
-      </c>
-      <c r="O26" s="12">
-        <v>51.153748</v>
-      </c>
-      <c r="P26" s="12">
-        <v>51.062539999999998</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>230</v>
-      </c>
-      <c r="S26" s="64">
-        <f t="shared" si="0"/>
-        <v>-1.78620178314674E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>4</v>
       </c>
@@ -3205,30 +2710,8 @@
       <c r="E27" s="56">
         <v>14.899558000000001</v>
       </c>
-      <c r="L27" t="s">
-        <v>224</v>
-      </c>
-      <c r="M27" s="17">
-        <v>2011</v>
-      </c>
-      <c r="N27" s="12">
-        <v>5.5771870000000003</v>
-      </c>
-      <c r="O27" s="57">
-        <v>5.7327260000000004</v>
-      </c>
-      <c r="P27" s="12">
-        <v>5.5672420000000002</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>228</v>
-      </c>
-      <c r="S27" s="64">
-        <f t="shared" si="0"/>
-        <v>-1.7863423217456852E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>4</v>
       </c>
@@ -3244,30 +2727,8 @@
       <c r="E28" s="56">
         <v>10.612791</v>
       </c>
-      <c r="L28" t="s">
-        <v>224</v>
-      </c>
-      <c r="M28" s="17">
-        <v>2012</v>
-      </c>
-      <c r="N28" s="12">
-        <v>3.6994479999999998</v>
-      </c>
-      <c r="O28" s="12">
-        <v>3.6994479999999998</v>
-      </c>
-      <c r="P28" s="12">
-        <v>3.6928519999999998</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>228</v>
-      </c>
-      <c r="S28" s="64">
-        <f t="shared" si="0"/>
-        <v>-1.7861533578925034E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>4</v>
       </c>
@@ -3283,30 +2744,8 @@
       <c r="E29" s="56">
         <v>9.9698910000000005</v>
       </c>
-      <c r="L29" t="s">
-        <v>224</v>
-      </c>
-      <c r="M29" s="17">
-        <v>2013</v>
-      </c>
-      <c r="N29" s="12">
-        <v>16.269772</v>
-      </c>
-      <c r="O29" s="12">
-        <v>16.269770000000001</v>
-      </c>
-      <c r="P29" s="12">
-        <v>16.240760000000002</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>228</v>
-      </c>
-      <c r="S29" s="64">
-        <f t="shared" si="0"/>
-        <v>-1.7863696033928237E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>4</v>
       </c>
@@ -3322,30 +2761,8 @@
       <c r="E30" s="56">
         <v>51.153748</v>
       </c>
-      <c r="L30" t="s">
-        <v>224</v>
-      </c>
-      <c r="M30" s="17">
-        <v>2014</v>
-      </c>
-      <c r="N30" s="12">
-        <v>13.206845</v>
-      </c>
-      <c r="O30" s="12">
-        <v>13.206845</v>
-      </c>
-      <c r="P30" s="12">
-        <v>13.183299999999999</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>228</v>
-      </c>
-      <c r="S30" s="64">
-        <f t="shared" si="0"/>
-        <v>-1.7859716459460357E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>4</v>
       </c>
@@ -3361,30 +2778,8 @@
       <c r="E31" s="56">
         <v>23.588162000000001</v>
       </c>
-      <c r="L31" t="s">
-        <v>224</v>
-      </c>
-      <c r="M31" s="17">
-        <v>2015</v>
-      </c>
-      <c r="N31" s="12">
-        <v>23.588162000000001</v>
-      </c>
-      <c r="O31" s="12">
-        <v>23.588162000000001</v>
-      </c>
-      <c r="P31" s="12">
-        <v>23.546099999999999</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>228</v>
-      </c>
-      <c r="S31" s="64">
-        <f t="shared" si="0"/>
-        <v>-1.7863680184829495E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>7</v>
       </c>
@@ -7326,1451 +6721,2167 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:AJ47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22.85546875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="15" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="65"/>
+    <col min="8" max="8" width="14.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.42578125" customWidth="1"/>
+    <col min="36" max="36" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1">
+    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="T1">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="U1">
         <v>2</v>
       </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
+      <c r="V1">
+        <v>3</v>
+      </c>
+      <c r="W1">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="X1">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="Y1">
         <v>6</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="48"/>
-      <c r="O1" s="18" t="s">
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="48"/>
+      <c r="AG1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AH1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AI1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AJ1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="67">
         <v>2011</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="72">
+        <v>23.452044000000001</v>
+      </c>
+      <c r="D2" s="75">
+        <v>29.855460999999998</v>
+      </c>
+      <c r="E2" s="75">
+        <v>9.1240900000000007</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="68"/>
+      <c r="H2" s="70">
+        <f>(E2-C2)/E2</f>
+        <v>-1.570343343829357</v>
+      </c>
+      <c r="S2">
+        <v>2011</v>
+      </c>
+      <c r="T2">
         <v>23.452043861243041</v>
       </c>
-      <c r="C2">
+      <c r="U2">
         <v>4.5788637788655961</v>
       </c>
-      <c r="D2">
+      <c r="V2">
         <v>1.5885113287342694</v>
       </c>
-      <c r="E2">
+      <c r="W2">
         <v>1.8823994563804169</v>
       </c>
-      <c r="F2">
+      <c r="X2">
         <v>12.486065787224014</v>
       </c>
-      <c r="G2">
+      <c r="Y2">
         <v>0.6482647808533899</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="AA2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="AB2" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="AC2" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="AD2" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="AE2" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="19">
+      <c r="AG2" s="19">
         <v>1</v>
       </c>
-      <c r="P2" s="17">
+      <c r="AH2" s="17">
         <v>83.67654603862178</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="AI2" s="17">
         <v>72.507093987073105</v>
       </c>
-      <c r="R2" s="17">
+      <c r="AJ2" s="17">
         <v>11.581627299951531</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="67">
         <v>2012</v>
       </c>
-      <c r="B3">
+      <c r="C3" s="72">
+        <v>11.148345000000001</v>
+      </c>
+      <c r="D3" s="74">
+        <v>11.148345000000001</v>
+      </c>
+      <c r="E3" s="75">
+        <v>14.43534</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="G3" s="68"/>
+      <c r="H3" s="70">
+        <f>(E3-C3)/E3</f>
+        <v>0.22770471634197734</v>
+      </c>
+      <c r="S3">
+        <v>2012</v>
+      </c>
+      <c r="T3">
         <v>11.148345111979213</v>
       </c>
-      <c r="C3">
+      <c r="U3">
         <v>12.322574278492283</v>
       </c>
-      <c r="D3">
+      <c r="V3">
         <v>4.2925414474434866</v>
       </c>
-      <c r="E3">
+      <c r="W3">
         <v>5.9977010626825571</v>
       </c>
-      <c r="F3">
+      <c r="X3">
         <v>7.7289411623128679</v>
       </c>
-      <c r="G3">
+      <c r="Y3">
         <v>3.6994482564836635</v>
       </c>
-      <c r="I3" s="1">
+      <c r="AA3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="1">
+      <c r="AB3" s="1">
         <v>2011</v>
       </c>
-      <c r="K3" s="39">
+      <c r="AC3" s="39">
         <v>3.7678100933982313</v>
       </c>
-      <c r="L3" s="40">
+      <c r="AD3" s="40">
         <v>23.452043861243041</v>
       </c>
-      <c r="M3" s="41">
-        <f t="shared" ref="M3:M32" si="0">L3-K3</f>
+      <c r="AE3" s="41">
+        <f t="shared" ref="AE3:AE32" si="0">AD3-AC3</f>
         <v>19.684233767844809</v>
       </c>
-      <c r="O3" s="19">
+      <c r="AG3" s="19">
         <v>2</v>
       </c>
-      <c r="P3" s="17">
+      <c r="AH3" s="17">
         <v>123.17066418316776</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="AI3" s="17">
         <v>143.74592102263361</v>
       </c>
-      <c r="R3" s="17">
+      <c r="AJ3" s="17">
         <v>14.295345860773452</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="67">
         <v>2013</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="72">
+        <v>20.605733000000001</v>
+      </c>
+      <c r="D4" s="74">
+        <v>20.605730000000001</v>
+      </c>
+      <c r="E4" s="75">
+        <v>23.84834</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" s="68"/>
+      <c r="H4" s="70">
+        <f>(E4-C4)/E4</f>
+        <v>0.13596782836876695</v>
+      </c>
+      <c r="S4">
+        <v>2013</v>
+      </c>
+      <c r="T4">
         <v>20.605732597297074</v>
       </c>
-      <c r="C4">
+      <c r="U4">
         <v>32.226103252712221</v>
       </c>
-      <c r="D4">
+      <c r="V4">
         <v>19.10728323177532</v>
       </c>
-      <c r="E4">
+      <c r="W4">
         <v>20.814663293615897</v>
       </c>
-      <c r="F4">
+      <c r="X4">
         <v>36.214896617535196</v>
       </c>
-      <c r="G4">
+      <c r="Y4">
         <v>16.269771518398983</v>
       </c>
-      <c r="I4" s="1">
+      <c r="AA4" s="1">
         <v>1</v>
       </c>
-      <c r="J4" s="1">
+      <c r="AB4" s="1">
         <v>2012</v>
       </c>
-      <c r="K4" s="39">
+      <c r="AC4" s="39">
         <v>14.430646157550678</v>
       </c>
-      <c r="L4" s="40">
+      <c r="AD4" s="40">
         <v>11.148345111979213</v>
       </c>
-      <c r="M4" s="41">
+      <c r="AE4" s="41">
         <f t="shared" si="0"/>
         <v>-3.2823010455714652</v>
       </c>
-      <c r="O4" s="19">
-        <v>3</v>
-      </c>
-      <c r="P4" s="17">
+      <c r="AG4" s="19">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="17">
         <v>42.043699336551775</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="AI4" s="17">
         <v>49.639974327155869</v>
       </c>
-      <c r="R4" s="17">
+      <c r="AJ4" s="17">
         <v>6.7616306969909976</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="67">
         <v>2014</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="72">
+        <v>21.997187</v>
+      </c>
+      <c r="D5" s="74">
+        <v>21.997187</v>
+      </c>
+      <c r="E5" s="75">
+        <v>37.060639999999999</v>
+      </c>
+      <c r="F5" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="G5" s="68"/>
+      <c r="H5" s="70">
+        <f>(E5-C5)/E5</f>
+        <v>0.40645420586368719</v>
+      </c>
+      <c r="S5">
+        <v>2014</v>
+      </c>
+      <c r="T5">
         <v>21.997187461853823</v>
       </c>
-      <c r="C5">
+      <c r="U5">
         <v>59.143658115801664</v>
       </c>
-      <c r="D5">
+      <c r="V5">
         <v>6.4460640319366291</v>
       </c>
-      <c r="E5">
+      <c r="W5">
         <v>15.617248728120618</v>
       </c>
-      <c r="F5">
+      <c r="X5">
         <v>55.974492961519047</v>
       </c>
-      <c r="G5">
+      <c r="Y5">
         <v>13.206844518128886</v>
       </c>
-      <c r="I5" s="1">
+      <c r="AA5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" s="1">
+      <c r="AB5" s="1">
         <v>2013</v>
       </c>
-      <c r="K5" s="39">
+      <c r="AC5" s="39">
         <v>24.026385480314023</v>
       </c>
-      <c r="L5" s="40">
+      <c r="AD5" s="40">
         <v>20.605732597297074</v>
       </c>
-      <c r="M5" s="41">
+      <c r="AE5" s="41">
         <f t="shared" si="0"/>
         <v>-3.4206528830169489</v>
       </c>
-      <c r="O5" s="19">
+      <c r="AG5" s="19">
         <v>4</v>
       </c>
-      <c r="P5" s="17">
+      <c r="AH5" s="17">
         <v>109.30771614249772</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="AI5" s="17">
         <v>51.240479278924411</v>
       </c>
-      <c r="R5" s="17">
+      <c r="AJ5" s="17">
         <v>6.2715178235496234</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="67">
         <v>2015</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="72">
+        <v>6.4732370000000001</v>
+      </c>
+      <c r="D6" s="74">
+        <v>6.4732370000000001</v>
+      </c>
+      <c r="E6" s="75">
+        <v>10.604950000000001</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="G6" s="68"/>
+      <c r="H6" s="70">
+        <f>(E6-C6)/E6</f>
+        <v>0.38960230835600357</v>
+      </c>
+      <c r="S6">
+        <v>2015</v>
+      </c>
+      <c r="T6">
         <v>6.4732370062486293</v>
       </c>
-      <c r="C6">
+      <c r="U6">
         <v>14.899464757295986</v>
       </c>
-      <c r="D6">
+      <c r="V6">
         <v>10.609299296662067</v>
       </c>
-      <c r="E6">
+      <c r="W6">
         <v>64.995703601698239</v>
       </c>
-      <c r="F6">
+      <c r="X6">
         <v>51.15374766070407</v>
       </c>
-      <c r="G6">
+      <c r="Y6">
         <v>23.588162023184807</v>
       </c>
-      <c r="I6" s="1">
+      <c r="AA6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="1">
+      <c r="AB6" s="1">
         <v>2014</v>
       </c>
-      <c r="K6" s="39">
+      <c r="AC6" s="39">
         <v>30.282252255810182</v>
       </c>
-      <c r="L6" s="40">
+      <c r="AD6" s="40">
         <v>21.997187461853823</v>
       </c>
-      <c r="M6" s="41">
+      <c r="AE6" s="41">
         <f t="shared" si="0"/>
         <v>-8.2850647939563586</v>
       </c>
-      <c r="O6" s="19">
+      <c r="AG6" s="19">
         <v>5</v>
       </c>
-      <c r="P6" s="17">
+      <c r="AH6" s="17">
         <v>163.55814418929521</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="AI6" s="17">
         <v>118.01627490523558</v>
       </c>
-      <c r="R6" s="17">
+      <c r="AJ6" s="17">
         <v>20.9251900340021</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I7" s="42">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="67">
+        <v>2011</v>
+      </c>
+      <c r="C7" s="72">
+        <v>30.218699000000001</v>
+      </c>
+      <c r="D7" s="75">
+        <v>42.465522999999997</v>
+      </c>
+      <c r="E7" s="74">
+        <v>30.164850000000001</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="G7" s="68"/>
+      <c r="H7" s="69">
+        <f>(E7-C7)/E7</f>
+        <v>-1.7851572277004391E-3</v>
+      </c>
+      <c r="AA7" s="42">
         <v>1</v>
       </c>
-      <c r="J7" s="42">
+      <c r="AB7" s="42">
         <v>2015</v>
       </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="40">
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="40">
         <v>6.4732370062486293</v>
       </c>
-      <c r="M7" s="41">
+      <c r="AE7" s="41">
         <f t="shared" si="0"/>
         <v>6.4732370062486293</v>
       </c>
-      <c r="O7" s="19">
+      <c r="AG7" s="19">
         <v>6</v>
       </c>
-      <c r="P7" s="17">
+      <c r="AH7" s="17">
         <v>57.412491097049724</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="AI7" s="17">
         <v>36.940560256917017</v>
       </c>
-      <c r="R7" s="17">
+      <c r="AJ7" s="17">
         <v>5.6451720657715097</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="67">
+        <v>2012</v>
+      </c>
+      <c r="C8" s="72">
+        <v>12.322573999999999</v>
+      </c>
+      <c r="D8" s="74">
+        <v>12.322573999999999</v>
+      </c>
+      <c r="E8" s="74">
+        <v>12.300599999999999</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" s="68"/>
+      <c r="H8" s="69">
+        <f>(E8-C8)/E8</f>
+        <v>-1.7864169227517488E-3</v>
+      </c>
+      <c r="T8">
         <v>2011</v>
       </c>
-      <c r="C8">
+      <c r="U8">
         <v>2012</v>
       </c>
-      <c r="D8">
+      <c r="V8">
         <v>2013</v>
       </c>
-      <c r="E8">
+      <c r="W8">
         <v>2014</v>
       </c>
-      <c r="F8">
+      <c r="X8">
         <v>2015</v>
       </c>
-      <c r="I8" s="1">
+      <c r="AA8" s="1">
         <v>2</v>
       </c>
-      <c r="J8" s="1">
+      <c r="AB8" s="1">
         <v>2011</v>
       </c>
-      <c r="K8" s="39">
+      <c r="AC8" s="39">
         <v>30.246969564684228</v>
       </c>
-      <c r="L8" s="40">
+      <c r="AD8" s="40">
         <v>4.5788637788655961</v>
       </c>
-      <c r="M8" s="41">
+      <c r="AE8" s="41">
         <f t="shared" si="0"/>
         <v>-25.668105785818632</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="AG8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="P8" s="17">
+      <c r="AH8" s="17">
         <v>579.16926098718409</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="AI8" s="17">
         <v>472.0903037779396</v>
       </c>
-      <c r="R8" s="17">
+      <c r="AJ8" s="17">
         <v>14.698691968952467</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="67">
+        <v>2013</v>
+      </c>
+      <c r="C9" s="72">
+        <v>32.226103000000002</v>
+      </c>
+      <c r="D9" s="74">
+        <v>32.226100000000002</v>
+      </c>
+      <c r="E9" s="74">
+        <v>32.168640000000003</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="G9" s="68"/>
+      <c r="H9" s="69">
+        <f>(E9-C9)/E9</f>
+        <v>-1.7863049230554503E-3</v>
+      </c>
+      <c r="S9">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="T9">
         <v>23.452043861243041</v>
       </c>
-      <c r="C9">
+      <c r="U9">
         <v>11.148345111979213</v>
       </c>
-      <c r="D9">
+      <c r="V9">
         <v>20.605732597297074</v>
       </c>
-      <c r="E9">
+      <c r="W9">
         <v>21.997187461853823</v>
       </c>
-      <c r="F9">
+      <c r="X9">
         <v>6.4732370062486293</v>
       </c>
-      <c r="I9" s="1">
+      <c r="AA9" s="1">
         <v>2</v>
       </c>
-      <c r="J9" s="1">
+      <c r="AB9" s="1">
         <v>2012</v>
       </c>
-      <c r="K9" s="39">
+      <c r="AC9" s="39">
         <v>24.597632137224569</v>
       </c>
-      <c r="L9" s="40">
+      <c r="AD9" s="40">
         <v>12.322574278492283</v>
       </c>
-      <c r="M9" s="41">
+      <c r="AE9" s="41">
         <f t="shared" si="0"/>
         <v>-12.275057858732286</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="67">
+        <v>2014</v>
+      </c>
+      <c r="C10" s="72">
+        <v>59.143658000000002</v>
+      </c>
+      <c r="D10" s="74">
+        <v>59.143658000000002</v>
+      </c>
+      <c r="E10" s="74">
+        <v>59.038209999999999</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69">
+        <f>(E10-C10)/E10</f>
+        <v>-1.7860975121028E-3</v>
+      </c>
+      <c r="S10">
         <v>2</v>
       </c>
-      <c r="B10">
+      <c r="T10">
         <v>4.5788637788655961</v>
       </c>
-      <c r="C10">
+      <c r="U10">
         <v>12.322574278492283</v>
       </c>
-      <c r="D10">
+      <c r="V10">
         <v>32.226103252712221</v>
       </c>
-      <c r="E10">
+      <c r="W10">
         <v>59.143658115801664</v>
       </c>
-      <c r="F10">
+      <c r="X10">
         <v>14.899464757295986</v>
       </c>
-      <c r="I10" s="1">
+      <c r="AA10" s="1">
         <v>2</v>
       </c>
-      <c r="J10" s="1">
+      <c r="AB10" s="1">
         <v>2013</v>
       </c>
-      <c r="K10" s="39">
+      <c r="AC10" s="39">
         <v>32.058157301863403</v>
       </c>
-      <c r="L10" s="40">
+      <c r="AD10" s="40">
         <v>32.226103252712221</v>
       </c>
-      <c r="M10" s="41">
+      <c r="AE10" s="41">
         <f t="shared" si="0"/>
         <v>0.16794595084881792</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="67">
+        <v>2015</v>
+      </c>
+      <c r="C11" s="72">
+        <v>14.899464999999999</v>
+      </c>
+      <c r="D11" s="74">
+        <v>14.899558000000001</v>
+      </c>
+      <c r="E11" s="74">
+        <v>14.8729</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="G11" s="68"/>
+      <c r="H11" s="69">
+        <f>(E11-C11)/E11</f>
+        <v>-1.7861345131077145E-3</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
         <v>1.5885113287342694</v>
       </c>
-      <c r="C11">
+      <c r="U11">
         <v>4.2925414474434866</v>
       </c>
-      <c r="D11">
+      <c r="V11">
         <v>19.10728323177532</v>
       </c>
-      <c r="E11">
+      <c r="W11">
         <v>6.4460640319366291</v>
       </c>
-      <c r="F11">
+      <c r="X11">
         <v>10.609299296662067</v>
       </c>
-      <c r="I11" s="1">
+      <c r="AA11" s="1">
         <v>2</v>
       </c>
-      <c r="J11" s="1">
+      <c r="AB11" s="1">
         <v>2014</v>
       </c>
-      <c r="K11" s="39">
+      <c r="AC11" s="39">
         <v>56.843162018861399</v>
       </c>
-      <c r="L11" s="40">
+      <c r="AD11" s="40">
         <v>59.143658115801664</v>
       </c>
-      <c r="M11" s="41">
+      <c r="AE11" s="41">
         <f t="shared" si="0"/>
         <v>2.3004960969402646</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" s="67">
+        <v>2011</v>
+      </c>
+      <c r="C12" s="72">
+        <v>9.6991209999999999</v>
+      </c>
+      <c r="D12" s="75">
+        <v>11.357567</v>
+      </c>
+      <c r="E12" s="74">
+        <v>9.6818270000000002</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69">
+        <f>(E12-C12)/E12</f>
+        <v>-1.7862331148862398E-3</v>
+      </c>
+      <c r="S12">
         <v>4</v>
       </c>
-      <c r="B12">
+      <c r="T12">
         <v>1.8823994563804169</v>
       </c>
-      <c r="C12">
+      <c r="U12">
         <v>5.9977010626825571</v>
       </c>
-      <c r="D12">
+      <c r="V12">
         <v>20.814663293615897</v>
       </c>
-      <c r="E12">
+      <c r="W12">
         <v>15.617248728120618</v>
       </c>
-      <c r="F12">
+      <c r="X12">
         <v>64.995703601698239</v>
       </c>
-      <c r="I12" s="1">
+      <c r="AA12" s="1">
         <v>2</v>
       </c>
-      <c r="J12" s="42">
+      <c r="AB12" s="42">
         <v>2015</v>
       </c>
-      <c r="K12" s="43"/>
-      <c r="L12" s="40">
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="40">
         <v>14.899464757295986</v>
       </c>
-      <c r="M12" s="41">
+      <c r="AE12" s="41">
         <f t="shared" si="0"/>
         <v>14.899464757295986</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="67">
+        <v>2012</v>
+      </c>
+      <c r="C13" s="72">
+        <v>4.2925409999999999</v>
+      </c>
+      <c r="D13" s="74">
+        <v>4.2925409999999999</v>
+      </c>
+      <c r="E13" s="74">
+        <v>4.2848879999999996</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="G13" s="68"/>
+      <c r="H13" s="69">
+        <f>(E13-C13)/E13</f>
+        <v>-1.7860443493506375E-3</v>
+      </c>
+      <c r="S13">
         <v>5</v>
       </c>
-      <c r="B13">
+      <c r="T13">
         <v>12.486065787224014</v>
       </c>
-      <c r="C13">
+      <c r="U13">
         <v>7.7289411623128679</v>
       </c>
-      <c r="D13">
+      <c r="V13">
         <v>36.214896617535196</v>
       </c>
-      <c r="E13">
+      <c r="W13">
         <v>55.974492961519047</v>
       </c>
-      <c r="F13">
+      <c r="X13">
         <v>51.15374766070407</v>
       </c>
-      <c r="I13" s="1">
-        <v>3</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="AA13" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="1">
         <v>2011</v>
       </c>
-      <c r="K13" s="39">
+      <c r="AC13" s="39">
         <v>9.7031163052810268</v>
       </c>
-      <c r="L13" s="40">
+      <c r="AD13" s="40">
         <v>1.5885113287342694</v>
       </c>
-      <c r="M13" s="41">
+      <c r="AE13" s="41">
         <f t="shared" si="0"/>
         <v>-8.1146049765467581</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="67">
+        <v>2013</v>
+      </c>
+      <c r="C14" s="72">
+        <v>19.107282999999999</v>
+      </c>
+      <c r="D14" s="74">
+        <v>19.107279999999999</v>
+      </c>
+      <c r="E14" s="74">
+        <v>19.07321</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14" s="68"/>
+      <c r="H14" s="69">
+        <f>(E14-C14)/E14</f>
+        <v>-1.7864323834320156E-3</v>
+      </c>
+      <c r="S14">
         <v>6</v>
       </c>
-      <c r="B14">
+      <c r="T14">
         <v>0.6482647808533899</v>
       </c>
-      <c r="C14">
+      <c r="U14">
         <v>3.6994482564836635</v>
       </c>
-      <c r="D14">
+      <c r="V14">
         <v>16.269771518398983</v>
       </c>
-      <c r="E14">
+      <c r="W14">
         <v>13.206844518128886</v>
       </c>
-      <c r="F14">
+      <c r="X14">
         <v>23.588162023184807</v>
       </c>
-      <c r="I14" s="1">
-        <v>3</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="AA14" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="1">
         <v>2012</v>
       </c>
-      <c r="K14" s="39">
+      <c r="AC14" s="39">
         <v>4.2278309234767981</v>
       </c>
-      <c r="L14" s="40">
+      <c r="AD14" s="40">
         <v>4.2925414474434866</v>
       </c>
-      <c r="M14" s="41">
+      <c r="AE14" s="41">
         <f t="shared" si="0"/>
         <v>6.4710523966688527E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I15" s="1">
-        <v>3</v>
-      </c>
-      <c r="J15" s="1">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="67">
+        <v>2014</v>
+      </c>
+      <c r="C15" s="72">
+        <v>6.4460639999999998</v>
+      </c>
+      <c r="D15" s="74">
+        <v>6.4460639999999998</v>
+      </c>
+      <c r="E15" s="74">
+        <v>6.434571</v>
+      </c>
+      <c r="F15" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69">
+        <f>(E15-C15)/E15</f>
+        <v>-1.7861330615513845E-3</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="1">
         <v>2013</v>
       </c>
-      <c r="K15" s="39">
+      <c r="AC15" s="39">
         <v>19.195853054929469</v>
       </c>
-      <c r="L15" s="40">
+      <c r="AD15" s="40">
         <v>19.10728323177532</v>
       </c>
-      <c r="M15" s="41">
+      <c r="AE15" s="41">
         <f t="shared" si="0"/>
         <v>-8.8569823154148963E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" s="67">
+        <v>2015</v>
+      </c>
+      <c r="C16" s="72">
+        <v>10.609299</v>
+      </c>
+      <c r="D16" s="74">
+        <v>10.612791</v>
+      </c>
+      <c r="E16" s="74">
+        <v>10.59038</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" s="68"/>
+      <c r="H16" s="69">
+        <f>(E16-C16)/E16</f>
+        <v>-1.7864325925982215E-3</v>
+      </c>
+      <c r="S16" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="T16" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="U16" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="I16" s="1">
-        <v>3</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="V16" s="59"/>
+      <c r="W16" s="60"/>
+      <c r="AA16" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB16" s="1">
         <v>2014</v>
       </c>
-      <c r="K16" s="39">
+      <c r="AC16" s="39">
         <v>16.51317404346857</v>
       </c>
-      <c r="L16" s="40">
+      <c r="AD16" s="40">
         <v>6.4460640319366291</v>
       </c>
-      <c r="M16" s="41">
+      <c r="AE16" s="41">
         <f t="shared" si="0"/>
         <v>-10.067110011531941</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="44" t="s">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="67">
+        <v>2011</v>
+      </c>
+      <c r="C17" s="72">
+        <v>9.5850329999999992</v>
+      </c>
+      <c r="D17" s="75">
+        <v>10.164596</v>
+      </c>
+      <c r="E17" s="74">
+        <v>9.5679420000000004</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="G17" s="68"/>
+      <c r="H17" s="69">
+        <f>(E17-C17)/E17</f>
+        <v>-1.7862775505954004E-3</v>
+      </c>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="V17" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="W17" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="1">
-        <v>3</v>
-      </c>
-      <c r="J17" s="42">
+      <c r="AA17" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="42">
         <v>2015</v>
       </c>
-      <c r="K17" s="43"/>
-      <c r="L17" s="40">
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="40">
         <v>10.609299296662067</v>
       </c>
-      <c r="M17" s="41">
+      <c r="AE17" s="41">
         <f t="shared" si="0"/>
         <v>10.609299296662067</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="67">
+        <v>2012</v>
+      </c>
+      <c r="C18" s="72">
+        <v>5.9977010000000002</v>
+      </c>
+      <c r="D18" s="74">
+        <v>5.9977010000000002</v>
+      </c>
+      <c r="E18" s="74">
+        <v>5.9870070000000002</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="G18" s="68"/>
+      <c r="H18" s="69">
+        <f>(E18-C18)/E18</f>
+        <v>-1.7862013523618698E-3</v>
+      </c>
+      <c r="S18" s="1">
         <v>1</v>
       </c>
-      <c r="B18" s="1">
+      <c r="T18" s="1">
         <v>2011</v>
       </c>
-      <c r="C18" s="39">
+      <c r="U18" s="39">
         <v>3.7678100933982313</v>
       </c>
-      <c r="D18" s="54">
+      <c r="V18" s="54">
         <v>23.452043861243041</v>
       </c>
-      <c r="E18" s="41">
-        <f>D18-C18</f>
+      <c r="W18" s="41">
+        <f>V18-U18</f>
         <v>19.684233767844809</v>
       </c>
-      <c r="I18" s="1">
+      <c r="AA18" s="1">
         <v>4</v>
       </c>
-      <c r="J18" s="1">
+      <c r="AB18" s="1">
         <v>2011</v>
       </c>
-      <c r="K18" s="39">
+      <c r="AC18" s="39">
         <v>9.5670089828788978</v>
       </c>
-      <c r="L18" s="40">
+      <c r="AD18" s="40">
         <v>1.8823994563804169</v>
       </c>
-      <c r="M18" s="41">
+      <c r="AE18" s="41">
         <f t="shared" si="0"/>
         <v>-7.6846095264984804</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" s="67">
+        <v>2013</v>
+      </c>
+      <c r="C19" s="72">
+        <v>20.814662999999999</v>
+      </c>
+      <c r="D19" s="74">
+        <v>20.81466</v>
+      </c>
+      <c r="E19" s="74">
+        <v>20.777550000000002</v>
+      </c>
+      <c r="F19" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="G19" s="68"/>
+      <c r="H19" s="69">
+        <f>(E19-C19)/E19</f>
+        <v>-1.7862067471861674E-3</v>
+      </c>
+      <c r="S19" s="1">
         <v>2</v>
       </c>
-      <c r="B19" s="1">
+      <c r="T19" s="1">
         <v>2011</v>
       </c>
-      <c r="C19" s="53">
+      <c r="U19" s="53">
         <v>30.246969564684228</v>
       </c>
-      <c r="D19" s="52">
+      <c r="V19" s="52">
         <v>4.5788637788655961</v>
       </c>
-      <c r="E19" s="41">
-        <f t="shared" ref="E19:E47" si="1">D19-C19</f>
+      <c r="W19" s="41">
+        <f t="shared" ref="W19:W47" si="1">V19-U19</f>
         <v>-25.668105785818632</v>
       </c>
-      <c r="I19" s="1">
+      <c r="AA19" s="1">
         <v>4</v>
       </c>
-      <c r="J19" s="1">
+      <c r="AB19" s="1">
         <v>2012</v>
       </c>
-      <c r="K19" s="39">
+      <c r="AC19" s="39">
         <v>5.9905108913495493</v>
       </c>
-      <c r="L19" s="40">
+      <c r="AD19" s="40">
         <v>5.9977010626825571</v>
       </c>
-      <c r="M19" s="41">
+      <c r="AE19" s="41">
         <f t="shared" si="0"/>
         <v>7.190171333007811E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>3</v>
-      </c>
-      <c r="B20" s="1">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="67">
+        <v>2014</v>
+      </c>
+      <c r="C20" s="72">
+        <v>15.617248999999999</v>
+      </c>
+      <c r="D20" s="74">
+        <v>15.617248999999999</v>
+      </c>
+      <c r="E20" s="74">
+        <v>15.589399999999999</v>
+      </c>
+      <c r="F20" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="G20" s="68"/>
+      <c r="H20" s="69">
+        <f>(E20-C20)/E20</f>
+        <v>-1.7864061477670592E-3</v>
+      </c>
+      <c r="S20" s="1">
+        <v>3</v>
+      </c>
+      <c r="T20" s="1">
         <v>2011</v>
       </c>
-      <c r="C20" s="53">
+      <c r="U20" s="53">
         <v>9.7031163052810268</v>
       </c>
-      <c r="D20" s="52">
+      <c r="V20" s="52">
         <v>1.5885113287342694</v>
       </c>
-      <c r="E20" s="41">
+      <c r="W20" s="41">
         <f t="shared" si="1"/>
         <v>-8.1146049765467581</v>
       </c>
-      <c r="G20" t="s">
+      <c r="Y20" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="1">
+      <c r="AA20" s="1">
         <v>4</v>
       </c>
-      <c r="J20" s="1">
+      <c r="AB20" s="1">
         <v>2013</v>
       </c>
-      <c r="K20" s="39">
+      <c r="AC20" s="39">
         <v>20.115441999783801</v>
       </c>
-      <c r="L20" s="40">
+      <c r="AD20" s="40">
         <v>20.814663293615897</v>
       </c>
-      <c r="M20" s="41">
+      <c r="AE20" s="41">
         <f t="shared" si="0"/>
         <v>0.69922129383209608</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="67">
+        <v>2015</v>
+      </c>
+      <c r="C21" s="72">
+        <v>9.9696359999999995</v>
+      </c>
+      <c r="D21" s="74">
+        <v>9.9698910000000005</v>
+      </c>
+      <c r="E21" s="74">
+        <v>9.9518599999999999</v>
+      </c>
+      <c r="F21" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="G21" s="68"/>
+      <c r="H21" s="69">
+        <f>(E21-C21)/E21</f>
+        <v>-1.7861987608346148E-3</v>
+      </c>
+      <c r="S21" s="1">
         <v>4</v>
       </c>
-      <c r="B21" s="1">
+      <c r="T21" s="1">
         <v>2011</v>
       </c>
-      <c r="C21" s="53">
+      <c r="U21" s="53">
         <v>9.5670089828788978</v>
       </c>
-      <c r="D21" s="52">
+      <c r="V21" s="52">
         <v>1.8823994563804169</v>
       </c>
-      <c r="E21" s="41">
+      <c r="W21" s="41">
         <f t="shared" si="1"/>
         <v>-7.6846095264984804</v>
       </c>
-      <c r="I21" s="1">
+      <c r="AA21" s="1">
         <v>4</v>
       </c>
-      <c r="J21" s="1">
+      <c r="AB21" s="1">
         <v>2014</v>
       </c>
-      <c r="K21" s="39">
+      <c r="AC21" s="39">
         <v>15.567517404912163</v>
       </c>
-      <c r="L21" s="40">
+      <c r="AD21" s="40">
         <v>15.617248728120618</v>
       </c>
-      <c r="M21" s="41">
+      <c r="AE21" s="41">
         <f t="shared" si="0"/>
         <v>4.973132320845508E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22" s="67">
+        <v>2011</v>
+      </c>
+      <c r="C22" s="72">
+        <v>19.045133</v>
+      </c>
+      <c r="D22" s="75">
+        <v>24.493995999999999</v>
+      </c>
+      <c r="E22" s="74">
+        <v>19.01118</v>
+      </c>
+      <c r="F22" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="G22" s="68"/>
+      <c r="H22" s="69">
+        <f>(E22-C22)/E22</f>
+        <v>-1.7859491099447981E-3</v>
+      </c>
+      <c r="S22" s="1">
         <v>5</v>
       </c>
-      <c r="B22" s="1">
+      <c r="T22" s="1">
         <v>2011</v>
       </c>
-      <c r="C22" s="53">
+      <c r="U22" s="53">
         <v>19.042553013539081</v>
       </c>
-      <c r="D22" s="52">
+      <c r="V22" s="52">
         <v>12.486065787224014</v>
       </c>
-      <c r="E22" s="41">
+      <c r="W22" s="41">
         <f t="shared" si="1"/>
         <v>-6.5564872263150669</v>
       </c>
-      <c r="I22" s="1">
+      <c r="AA22" s="1">
         <v>4</v>
       </c>
-      <c r="J22" s="42">
+      <c r="AB22" s="42">
         <v>2015</v>
       </c>
-      <c r="K22" s="43"/>
-      <c r="L22" s="40">
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="40">
         <v>64.995703601698239</v>
       </c>
-      <c r="M22" s="41">
+      <c r="AE22" s="41">
         <f t="shared" si="0"/>
         <v>64.995703601698239</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="B23" s="67">
+        <v>2012</v>
+      </c>
+      <c r="C23" s="72">
+        <v>7.7289409999999998</v>
+      </c>
+      <c r="D23" s="74">
+        <v>7.7289409999999998</v>
+      </c>
+      <c r="E23" s="75">
+        <v>5.0621119999999997E-5</v>
+      </c>
+      <c r="F23" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" s="68"/>
+      <c r="H23" s="70">
+        <f>(E23-C23)/E23</f>
+        <v>-152681.14136708158</v>
+      </c>
+      <c r="S23" s="1">
         <v>6</v>
       </c>
-      <c r="B23" s="1">
+      <c r="T23" s="1">
         <v>2011</v>
       </c>
-      <c r="C23" s="53">
+      <c r="U23" s="53">
         <v>5.5691700278829366</v>
       </c>
-      <c r="D23" s="52">
+      <c r="V23" s="52">
         <v>0.6482647808533899</v>
       </c>
-      <c r="E23" s="41">
+      <c r="W23" s="41">
         <f t="shared" si="1"/>
         <v>-4.9209052470295465</v>
       </c>
-      <c r="I23" s="1">
+      <c r="AA23" s="1">
         <v>5</v>
       </c>
-      <c r="J23" s="1">
+      <c r="AB23" s="1">
         <v>2011</v>
       </c>
-      <c r="K23" s="39">
+      <c r="AC23" s="39">
         <v>19.042553013539081</v>
       </c>
-      <c r="L23" s="40">
+      <c r="AD23" s="40">
         <v>12.486065787224014</v>
       </c>
-      <c r="M23" s="41">
+      <c r="AE23" s="41">
         <f t="shared" si="0"/>
         <v>-6.5564872263150669</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" s="67">
+        <v>2013</v>
+      </c>
+      <c r="C24" s="72">
+        <v>36.214897000000001</v>
+      </c>
+      <c r="D24" s="74">
+        <v>36.2149</v>
+      </c>
+      <c r="E24" s="74">
+        <v>36.150329999999997</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" s="68"/>
+      <c r="H24" s="69">
+        <f>(E24-C24)/E24</f>
+        <v>-1.7860694494352838E-3</v>
+      </c>
+      <c r="S24" s="1">
         <v>1</v>
       </c>
-      <c r="B24" s="1">
+      <c r="T24" s="1">
         <v>2012</v>
       </c>
-      <c r="C24" s="39">
+      <c r="U24" s="39">
         <v>14.430646157550678</v>
       </c>
-      <c r="D24" s="40">
+      <c r="V24" s="40">
         <v>11.148345111979213</v>
       </c>
-      <c r="E24" s="41">
+      <c r="W24" s="41">
         <f t="shared" si="1"/>
         <v>-3.2823010455714652</v>
       </c>
-      <c r="I24" s="1">
+      <c r="AA24" s="1">
         <v>5</v>
       </c>
-      <c r="J24" s="1">
+      <c r="AB24" s="1">
         <v>2012</v>
       </c>
-      <c r="K24" s="39">
+      <c r="AC24" s="39">
         <v>7.7123289901518772</v>
       </c>
-      <c r="L24" s="40">
+      <c r="AD24" s="40">
         <v>7.7289411623128679</v>
       </c>
-      <c r="M24" s="41">
+      <c r="AE24" s="41">
         <f t="shared" si="0"/>
         <v>1.6612172160990646E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25" s="67">
+        <v>2014</v>
+      </c>
+      <c r="C25" s="72">
+        <v>55.974493000000002</v>
+      </c>
+      <c r="D25" s="74">
+        <v>55.974493000000002</v>
+      </c>
+      <c r="E25" s="74">
+        <v>55.874690000000001</v>
+      </c>
+      <c r="F25" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" s="68"/>
+      <c r="H25" s="69">
+        <f>(E25-C25)/E25</f>
+        <v>-1.7861933551667386E-3</v>
+      </c>
+      <c r="S25" s="1">
         <v>2</v>
       </c>
-      <c r="B25" s="1">
+      <c r="T25" s="1">
         <v>2012</v>
       </c>
-      <c r="C25" s="39">
+      <c r="U25" s="39">
         <v>24.597632137224569</v>
       </c>
-      <c r="D25" s="40">
+      <c r="V25" s="40">
         <v>12.322574278492283</v>
       </c>
-      <c r="E25" s="41">
+      <c r="W25" s="41">
         <f t="shared" si="1"/>
         <v>-12.275057858732286</v>
       </c>
-      <c r="I25" s="1">
+      <c r="AA25" s="1">
         <v>5</v>
       </c>
-      <c r="J25" s="1">
+      <c r="AB25" s="1">
         <v>2013</v>
       </c>
-      <c r="K25" s="39">
+      <c r="AC25" s="39">
         <v>35.404962770162811</v>
       </c>
-      <c r="L25" s="40">
+      <c r="AD25" s="40">
         <v>36.214896617535196</v>
       </c>
-      <c r="M25" s="41">
+      <c r="AE25" s="41">
         <f t="shared" si="0"/>
         <v>0.80993384737238472</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>3</v>
-      </c>
-      <c r="B26" s="1">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" s="67">
+        <v>2015</v>
+      </c>
+      <c r="C26" s="72">
+        <v>51.153748</v>
+      </c>
+      <c r="D26" s="74">
+        <v>51.153748</v>
+      </c>
+      <c r="E26" s="74">
+        <v>51.062539999999998</v>
+      </c>
+      <c r="F26" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" s="68"/>
+      <c r="H26" s="69">
+        <f>(E26-C26)/E26</f>
+        <v>-1.78620178314674E-3</v>
+      </c>
+      <c r="S26" s="1">
+        <v>3</v>
+      </c>
+      <c r="T26" s="1">
         <v>2012</v>
       </c>
-      <c r="C26" s="39">
+      <c r="U26" s="39">
         <v>4.2278309234767981</v>
       </c>
-      <c r="D26" s="40">
+      <c r="V26" s="40">
         <v>4.2925414474434866</v>
       </c>
-      <c r="E26" s="41">
+      <c r="W26" s="41">
         <f t="shared" si="1"/>
         <v>6.4710523966688527E-2</v>
       </c>
-      <c r="I26" s="1">
+      <c r="AA26" s="1">
         <v>5</v>
       </c>
-      <c r="J26" s="1">
+      <c r="AB26" s="1">
         <v>2014</v>
       </c>
-      <c r="K26" s="39">
+      <c r="AC26" s="39">
         <v>55.856430131381813</v>
       </c>
-      <c r="L26" s="40">
+      <c r="AD26" s="40">
         <v>55.974492961519047</v>
       </c>
-      <c r="M26" s="41">
+      <c r="AE26" s="41">
         <f t="shared" si="0"/>
         <v>0.11806283013723373</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27" s="67">
+        <v>2011</v>
+      </c>
+      <c r="C27" s="72">
+        <v>5.5771870000000003</v>
+      </c>
+      <c r="D27" s="75">
+        <v>5.7327260000000004</v>
+      </c>
+      <c r="E27" s="74">
+        <v>5.5672420000000002</v>
+      </c>
+      <c r="F27" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="G27" s="68"/>
+      <c r="H27" s="69">
+        <f>(E27-C27)/E27</f>
+        <v>-1.7863423217456852E-3</v>
+      </c>
+      <c r="S27" s="1">
         <v>4</v>
       </c>
-      <c r="B27" s="1">
+      <c r="T27" s="1">
         <v>2012</v>
       </c>
-      <c r="C27" s="39">
+      <c r="U27" s="39">
         <v>5.9905108913495493</v>
       </c>
-      <c r="D27" s="40">
+      <c r="V27" s="40">
         <v>5.9977010626825571</v>
       </c>
-      <c r="E27" s="41">
+      <c r="W27" s="41">
         <f t="shared" si="1"/>
         <v>7.190171333007811E-3</v>
       </c>
-      <c r="I27" s="1">
+      <c r="AA27" s="1">
         <v>5</v>
       </c>
-      <c r="J27" s="42">
+      <c r="AB27" s="42">
         <v>2015</v>
       </c>
-      <c r="K27" s="43"/>
-      <c r="L27" s="40">
+      <c r="AC27" s="43"/>
+      <c r="AD27" s="40">
         <v>51.15374766070407</v>
       </c>
-      <c r="M27" s="41">
+      <c r="AE27" s="41">
         <f t="shared" si="0"/>
         <v>51.15374766070407</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" s="67">
+        <v>2012</v>
+      </c>
+      <c r="C28" s="72">
+        <v>3.6994479999999998</v>
+      </c>
+      <c r="D28" s="74">
+        <v>3.6994479999999998</v>
+      </c>
+      <c r="E28" s="74">
+        <v>3.6928519999999998</v>
+      </c>
+      <c r="F28" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="G28" s="68"/>
+      <c r="H28" s="69">
+        <f>(E28-C28)/E28</f>
+        <v>-1.7861533578925034E-3</v>
+      </c>
+      <c r="S28" s="1">
         <v>5</v>
       </c>
-      <c r="B28" s="1">
+      <c r="T28" s="1">
         <v>2012</v>
       </c>
-      <c r="C28" s="39">
+      <c r="U28" s="39">
         <v>7.7123289901518772</v>
       </c>
-      <c r="D28" s="40">
+      <c r="V28" s="40">
         <v>7.7289411623128679</v>
       </c>
-      <c r="E28" s="41">
+      <c r="W28" s="41">
         <f t="shared" si="1"/>
         <v>1.6612172160990646E-2</v>
       </c>
-      <c r="I28" s="1">
+      <c r="AA28" s="1">
         <v>6</v>
       </c>
-      <c r="J28" s="1">
+      <c r="AB28" s="1">
         <v>2011</v>
       </c>
-      <c r="K28" s="39">
+      <c r="AC28" s="39">
         <v>5.5691700278829366</v>
       </c>
-      <c r="L28" s="40">
+      <c r="AD28" s="40">
         <v>0.6482647808533899</v>
       </c>
-      <c r="M28" s="41">
+      <c r="AE28" s="41">
         <f t="shared" si="0"/>
         <v>-4.9209052470295465</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="67">
+        <v>2013</v>
+      </c>
+      <c r="C29" s="72">
+        <v>16.269772</v>
+      </c>
+      <c r="D29" s="74">
+        <v>16.269770000000001</v>
+      </c>
+      <c r="E29" s="74">
+        <v>16.240760000000002</v>
+      </c>
+      <c r="F29" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="G29" s="68"/>
+      <c r="H29" s="69">
+        <f>(E29-C29)/E29</f>
+        <v>-1.7863696033928237E-3</v>
+      </c>
+      <c r="S29" s="1">
         <v>6</v>
       </c>
-      <c r="B29" s="1">
+      <c r="T29" s="1">
         <v>2012</v>
       </c>
-      <c r="C29" s="39">
+      <c r="U29" s="39">
         <v>3.6804328118880743</v>
       </c>
-      <c r="D29" s="40">
+      <c r="V29" s="40">
         <v>3.6994482564836635</v>
       </c>
-      <c r="E29" s="41">
+      <c r="W29" s="41">
         <f t="shared" si="1"/>
         <v>1.9015444595589237E-2</v>
       </c>
-      <c r="I29" s="1">
+      <c r="AA29" s="1">
         <v>6</v>
       </c>
-      <c r="J29" s="1">
+      <c r="AB29" s="1">
         <v>2012</v>
       </c>
-      <c r="K29" s="39">
+      <c r="AC29" s="39">
         <v>3.6804328118880743</v>
       </c>
-      <c r="L29" s="40">
+      <c r="AD29" s="40">
         <v>3.6994482564836635</v>
       </c>
-      <c r="M29" s="41">
+      <c r="AE29" s="41">
         <f t="shared" si="0"/>
         <v>1.9015444595589237E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" s="67">
+        <v>2014</v>
+      </c>
+      <c r="C30" s="72">
+        <v>13.206845</v>
+      </c>
+      <c r="D30" s="74">
+        <v>13.206845</v>
+      </c>
+      <c r="E30" s="74">
+        <v>13.183299999999999</v>
+      </c>
+      <c r="F30" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" s="68"/>
+      <c r="H30" s="69">
+        <f>(E30-C30)/E30</f>
+        <v>-1.7859716459460357E-3</v>
+      </c>
+      <c r="S30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="1">
+      <c r="T30" s="1">
         <v>2013</v>
       </c>
-      <c r="C30" s="39">
+      <c r="U30" s="39">
         <v>24.026385480314023</v>
       </c>
-      <c r="D30" s="40">
+      <c r="V30" s="40">
         <v>20.605732597297074</v>
       </c>
-      <c r="E30" s="41">
+      <c r="W30" s="41">
         <f t="shared" si="1"/>
         <v>-3.4206528830169489</v>
       </c>
-      <c r="I30" s="1">
+      <c r="AA30" s="1">
         <v>6</v>
       </c>
-      <c r="J30" s="1">
+      <c r="AB30" s="1">
         <v>2013</v>
       </c>
-      <c r="K30" s="39">
+      <c r="AC30" s="39">
         <v>15.943018834391994</v>
       </c>
-      <c r="L30" s="40">
+      <c r="AD30" s="40">
         <v>16.269771518398983</v>
       </c>
-      <c r="M30" s="41">
+      <c r="AE30" s="41">
         <f t="shared" si="0"/>
         <v>0.32675268400698876</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" s="67">
+        <v>2015</v>
+      </c>
+      <c r="C31" s="72">
+        <v>23.588162000000001</v>
+      </c>
+      <c r="D31" s="74">
+        <v>23.588162000000001</v>
+      </c>
+      <c r="E31" s="74">
+        <v>23.546099999999999</v>
+      </c>
+      <c r="F31" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="G31" s="68"/>
+      <c r="H31" s="69">
+        <f>(E31-C31)/E31</f>
+        <v>-1.7863680184829495E-3</v>
+      </c>
+      <c r="S31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="1">
+      <c r="T31" s="1">
         <v>2013</v>
       </c>
-      <c r="C31" s="39">
+      <c r="U31" s="39">
         <v>32.058157301863403</v>
       </c>
-      <c r="D31" s="40">
+      <c r="V31" s="40">
         <v>32.226103252712221</v>
       </c>
-      <c r="E31" s="41">
+      <c r="W31" s="41">
         <f t="shared" si="1"/>
         <v>0.16794595084881792</v>
       </c>
-      <c r="I31" s="1">
+      <c r="AA31" s="1">
         <v>6</v>
       </c>
-      <c r="J31" s="1">
+      <c r="AB31" s="1">
         <v>2014</v>
       </c>
-      <c r="K31" s="39">
+      <c r="AC31" s="39">
         <v>11.747938582754008</v>
       </c>
-      <c r="L31" s="40">
+      <c r="AD31" s="40">
         <v>13.206844518128886</v>
       </c>
-      <c r="M31" s="41">
+      <c r="AE31" s="41">
         <f t="shared" si="0"/>
         <v>1.4589059353748777</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>3</v>
-      </c>
-      <c r="B32" s="1">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="S32" s="1">
+        <v>3</v>
+      </c>
+      <c r="T32" s="1">
         <v>2013</v>
       </c>
-      <c r="C32" s="39">
+      <c r="U32" s="39">
         <v>19.195853054929469</v>
       </c>
-      <c r="D32" s="40">
+      <c r="V32" s="40">
         <v>19.10728323177532</v>
       </c>
-      <c r="E32" s="41">
+      <c r="W32" s="41">
         <f t="shared" si="1"/>
         <v>-8.8569823154148963E-2</v>
       </c>
-      <c r="I32" s="42">
+      <c r="AA32" s="42">
         <v>6</v>
       </c>
-      <c r="J32" s="42">
+      <c r="AB32" s="42">
         <v>2015</v>
       </c>
-      <c r="K32" s="43"/>
-      <c r="L32" s="40">
+      <c r="AC32" s="43"/>
+      <c r="AD32" s="40">
         <v>23.588162023184807</v>
       </c>
-      <c r="M32" s="41">
+      <c r="AE32" s="41">
         <f t="shared" si="0"/>
         <v>23.588162023184807</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S33" s="1">
         <v>4</v>
       </c>
-      <c r="B33" s="1">
+      <c r="T33" s="1">
         <v>2013</v>
       </c>
-      <c r="C33" s="39">
+      <c r="U33" s="39">
         <v>20.115441999783801</v>
       </c>
-      <c r="D33" s="40">
+      <c r="V33" s="40">
         <v>20.814663293615897</v>
       </c>
-      <c r="E33" s="41">
+      <c r="W33" s="41">
         <f t="shared" si="1"/>
         <v>0.69922129383209608</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S34" s="1">
         <v>5</v>
       </c>
-      <c r="B34" s="1">
+      <c r="T34" s="1">
         <v>2013</v>
       </c>
-      <c r="C34" s="39">
+      <c r="U34" s="39">
         <v>35.404962770162811</v>
       </c>
-      <c r="D34" s="40">
+      <c r="V34" s="40">
         <v>36.214896617535196</v>
       </c>
-      <c r="E34" s="41">
+      <c r="W34" s="41">
         <f t="shared" si="1"/>
         <v>0.80993384737238472</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" s="1">
+      <c r="T35" s="1">
         <v>2013</v>
       </c>
-      <c r="C35" s="39">
+      <c r="U35" s="39">
         <v>15.943018834391994</v>
       </c>
-      <c r="D35" s="40">
+      <c r="V35" s="40">
         <v>16.269771518398983</v>
       </c>
-      <c r="E35" s="41">
+      <c r="W35" s="41">
         <f t="shared" si="1"/>
         <v>0.32675268400698876</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S36" s="1">
         <v>1</v>
       </c>
-      <c r="B36" s="1">
+      <c r="T36" s="1">
         <v>2014</v>
       </c>
-      <c r="C36" s="39">
+      <c r="U36" s="39">
         <v>30.282252255810182</v>
       </c>
-      <c r="D36" s="40">
+      <c r="V36" s="40">
         <v>21.997187461853823</v>
       </c>
-      <c r="E36" s="41">
+      <c r="W36" s="41">
         <f t="shared" si="1"/>
         <v>-8.2850647939563586</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="37" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S37" s="1">
         <v>2</v>
       </c>
-      <c r="B37" s="1">
+      <c r="T37" s="1">
         <v>2014</v>
       </c>
-      <c r="C37" s="39">
+      <c r="U37" s="39">
         <v>56.843162018861399</v>
       </c>
-      <c r="D37" s="40">
+      <c r="V37" s="40">
         <v>59.143658115801664</v>
       </c>
-      <c r="E37" s="41">
+      <c r="W37" s="41">
         <f t="shared" si="1"/>
         <v>2.3004960969402646</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>3</v>
-      </c>
-      <c r="B38" s="1">
+    <row r="38" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S38" s="1">
+        <v>3</v>
+      </c>
+      <c r="T38" s="1">
         <v>2014</v>
       </c>
-      <c r="C38" s="39">
+      <c r="U38" s="39">
         <v>16.51317404346857</v>
       </c>
-      <c r="D38" s="40">
+      <c r="V38" s="40">
         <v>6.4460640319366291</v>
       </c>
-      <c r="E38" s="41">
+      <c r="W38" s="41">
         <f t="shared" si="1"/>
         <v>-10.067110011531941</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S39" s="1">
         <v>4</v>
       </c>
-      <c r="B39" s="1">
+      <c r="T39" s="1">
         <v>2014</v>
       </c>
-      <c r="C39" s="39">
+      <c r="U39" s="39">
         <v>15.567517404912163</v>
       </c>
-      <c r="D39" s="40">
+      <c r="V39" s="40">
         <v>15.617248728120618</v>
       </c>
-      <c r="E39" s="41">
+      <c r="W39" s="41">
         <f t="shared" si="1"/>
         <v>4.973132320845508E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S40" s="1">
         <v>5</v>
       </c>
-      <c r="B40" s="1">
+      <c r="T40" s="1">
         <v>2014</v>
       </c>
-      <c r="C40" s="39">
+      <c r="U40" s="39">
         <v>55.856430131381813</v>
       </c>
-      <c r="D40" s="40">
+      <c r="V40" s="40">
         <v>55.974492961519047</v>
       </c>
-      <c r="E40" s="41">
+      <c r="W40" s="41">
         <f t="shared" si="1"/>
         <v>0.11806283013723373</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+    <row r="41" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S41" s="1">
         <v>6</v>
       </c>
-      <c r="B41" s="1">
+      <c r="T41" s="1">
         <v>2014</v>
       </c>
-      <c r="C41" s="39">
+      <c r="U41" s="39">
         <v>11.747938582754008</v>
       </c>
-      <c r="D41" s="40">
+      <c r="V41" s="40">
         <v>13.206844518128886</v>
       </c>
-      <c r="E41" s="41">
+      <c r="W41" s="41">
         <f t="shared" si="1"/>
         <v>1.4589059353748777</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="42">
+    <row r="42" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S42" s="42">
         <v>1</v>
       </c>
-      <c r="B42" s="42">
+      <c r="T42" s="42">
         <v>2015</v>
       </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="40">
+      <c r="U42" s="43"/>
+      <c r="V42" s="40">
         <v>6.4732370062486293</v>
       </c>
-      <c r="E42" s="41">
+      <c r="W42" s="41">
         <f t="shared" si="1"/>
         <v>6.4732370062486293</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    <row r="43" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S43" s="1">
         <v>2</v>
       </c>
-      <c r="B43" s="42">
+      <c r="T43" s="42">
         <v>2015</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="40">
+      <c r="U43" s="43"/>
+      <c r="V43" s="40">
         <v>14.899464757295986</v>
       </c>
-      <c r="E43" s="41">
+      <c r="W43" s="41">
         <f t="shared" si="1"/>
         <v>14.899464757295986</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>3</v>
-      </c>
-      <c r="B44" s="42">
+    <row r="44" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S44" s="1">
+        <v>3</v>
+      </c>
+      <c r="T44" s="42">
         <v>2015</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="40">
+      <c r="U44" s="43"/>
+      <c r="V44" s="40">
         <v>10.609299296662067</v>
       </c>
-      <c r="E44" s="41">
+      <c r="W44" s="41">
         <f t="shared" si="1"/>
         <v>10.609299296662067</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+    <row r="45" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S45" s="1">
         <v>4</v>
       </c>
-      <c r="B45" s="42">
+      <c r="T45" s="42">
         <v>2015</v>
       </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="52">
+      <c r="U45" s="43"/>
+      <c r="V45" s="52">
         <v>64.995703601698239</v>
       </c>
-      <c r="E45" s="41">
+      <c r="W45" s="41">
         <f t="shared" si="1"/>
         <v>64.995703601698239</v>
       </c>
-      <c r="F45" s="55">
+      <c r="X45" s="55">
         <v>9.9700000000000006</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+    <row r="46" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S46" s="1">
         <v>5</v>
       </c>
-      <c r="B46" s="42">
+      <c r="T46" s="42">
         <v>2015</v>
       </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="40">
+      <c r="U46" s="43"/>
+      <c r="V46" s="40">
         <v>51.15374766070407</v>
       </c>
-      <c r="E46" s="41">
+      <c r="W46" s="41">
         <f t="shared" si="1"/>
         <v>51.15374766070407</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="42">
+    <row r="47" spans="19:24" x14ac:dyDescent="0.25">
+      <c r="S47" s="42">
         <v>6</v>
       </c>
-      <c r="B47" s="42">
+      <c r="T47" s="42">
         <v>2015</v>
       </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="40">
+      <c r="U47" s="43"/>
+      <c r="V47" s="40">
         <v>23.588162023184807</v>
       </c>
-      <c r="E47" s="41">
+      <c r="W47" s="41">
         <f t="shared" si="1"/>
         <v>23.588162023184807</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A16:E47">
+  <autoFilter ref="S16:W47">
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
   </autoFilter>
   <mergeCells count="3">
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Data/flow/NO3-N Loss.xlsx
+++ b/Data/flow/NO3-N Loss.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
@@ -1854,7 +1854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K223" sqref="K223"/>
     </sheetView>
@@ -8650,8 +8650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K248"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B250" sqref="B250"/>
     </sheetView>
   </sheetViews>

--- a/Data/flow/NO3-N Loss.xlsx
+++ b/Data/flow/NO3-N Loss.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gio\Documents\GitHub\CSCAP\Sustainable_Corn_Paper\Data\flow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gio\Documents\GitHub\CSCAP\Sustainable_Corn_Paper\Data\flow\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SERF!$S$16:$W$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sites!$A$2:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="237">
   <si>
     <t>Key</t>
   </si>
@@ -754,13 +754,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1854,12 +1854,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K223" sqref="K223"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="7.140625" style="15" customWidth="1"/>
@@ -1868,7 +1868,7 @@
     <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="71" customFormat="1" ht="14.25">
       <c r="A1" s="71" t="str">
         <f>Data!A1</f>
         <v>STATE</v>
@@ -1894,7 +1894,7 @@
         <v>NO3-N Loss (kg/ha)</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="str">
         <f>Data!A2</f>
         <v>IA</v>
@@ -1920,7 +1920,7 @@
         <v>29.855460999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="str">
         <f>Data!A3</f>
         <v>IA</v>
@@ -1946,7 +1946,7 @@
         <v>42.465522999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="str">
         <f>Data!A4</f>
         <v>IA</v>
@@ -1972,7 +1972,7 @@
         <v>11.357567</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="str">
         <f>Data!A5</f>
         <v>IA</v>
@@ -1998,7 +1998,7 @@
         <v>10.164596</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="str">
         <f>Data!A6</f>
         <v>IA</v>
@@ -2024,7 +2024,7 @@
         <v>24.493995999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="str">
         <f>Data!A7</f>
         <v>IA</v>
@@ -2050,7 +2050,7 @@
         <v>5.7327260000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="str">
         <f>Data!A8</f>
         <v>IA</v>
@@ -2076,7 +2076,7 @@
         <v>11.148345000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="str">
         <f>Data!A9</f>
         <v>IA</v>
@@ -2102,7 +2102,7 @@
         <v>12.322573999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="str">
         <f>Data!A10</f>
         <v>IA</v>
@@ -2128,7 +2128,7 @@
         <v>4.2925409999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="str">
         <f>Data!A11</f>
         <v>IA</v>
@@ -2154,7 +2154,7 @@
         <v>5.9977010000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="str">
         <f>Data!A12</f>
         <v>IA</v>
@@ -2180,7 +2180,7 @@
         <v>7.7289409999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="str">
         <f>Data!A13</f>
         <v>IA</v>
@@ -2206,7 +2206,7 @@
         <v>3.6994479999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="str">
         <f>Data!A14</f>
         <v>IA</v>
@@ -2232,7 +2232,7 @@
         <v>20.605730000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="str">
         <f>Data!A15</f>
         <v>IA</v>
@@ -2258,7 +2258,7 @@
         <v>32.226100000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="str">
         <f>Data!A16</f>
         <v>IA</v>
@@ -2284,7 +2284,7 @@
         <v>19.107279999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="str">
         <f>Data!A17</f>
         <v>IA</v>
@@ -2310,7 +2310,7 @@
         <v>20.81466</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="str">
         <f>Data!A18</f>
         <v>IA</v>
@@ -2336,7 +2336,7 @@
         <v>36.2149</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="str">
         <f>Data!A19</f>
         <v>IA</v>
@@ -2362,7 +2362,7 @@
         <v>16.269770000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="str">
         <f>Data!A20</f>
         <v>IA</v>
@@ -2388,7 +2388,7 @@
         <v>21.997187</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="str">
         <f>Data!A21</f>
         <v>IA</v>
@@ -2414,7 +2414,7 @@
         <v>59.143658000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="str">
         <f>Data!A22</f>
         <v>IA</v>
@@ -2440,7 +2440,7 @@
         <v>6.4460639999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="str">
         <f>Data!A23</f>
         <v>IA</v>
@@ -2466,7 +2466,7 @@
         <v>15.617248999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="str">
         <f>Data!A24</f>
         <v>IA</v>
@@ -2492,7 +2492,7 @@
         <v>55.974493000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="str">
         <f>Data!A25</f>
         <v>IA</v>
@@ -2518,7 +2518,7 @@
         <v>13.206845</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="str">
         <f>Data!A26</f>
         <v>IA</v>
@@ -2544,7 +2544,7 @@
         <v>6.4732370000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="str">
         <f>Data!A27</f>
         <v>IA</v>
@@ -2570,7 +2570,7 @@
         <v>14.899558000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="str">
         <f>Data!A28</f>
         <v>IA</v>
@@ -2596,7 +2596,7 @@
         <v>10.612791</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="str">
         <f>Data!A29</f>
         <v>IA</v>
@@ -2622,7 +2622,7 @@
         <v>9.9698910000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="str">
         <f>Data!A30</f>
         <v>IA</v>
@@ -2648,7 +2648,7 @@
         <v>51.153748</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="str">
         <f>Data!A31</f>
         <v>IA</v>
@@ -2674,7 +2674,7 @@
         <v>23.588162000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="str">
         <f>Data!A32</f>
         <v>MO</v>
@@ -2700,7 +2700,7 @@
         <v>1.6840000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="str">
         <f>Data!A33</f>
         <v>MO</v>
@@ -2726,7 +2726,7 @@
         <v>1.9790000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="str">
         <f>Data!A34</f>
         <v>MO</v>
@@ -2752,7 +2752,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="str">
         <f>Data!A35</f>
         <v>MO</v>
@@ -2778,7 +2778,7 @@
         <v>1.1919999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="str">
         <f>Data!A36</f>
         <v>MO</v>
@@ -2804,7 +2804,7 @@
         <v>2.4430000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="str">
         <f>Data!A37</f>
         <v>MO</v>
@@ -2830,7 +2830,7 @@
         <v>3.633</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="str">
         <f>Data!A38</f>
         <v>MO</v>
@@ -2856,7 +2856,7 @@
         <v>3.355</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="str">
         <f>Data!A39</f>
         <v>MO</v>
@@ -2882,7 +2882,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" t="str">
         <f>Data!A40</f>
         <v>MO</v>
@@ -2908,7 +2908,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="str">
         <f>Data!A41</f>
         <v>MO</v>
@@ -2934,7 +2934,7 @@
         <v>0.90800000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="str">
         <f>Data!A42</f>
         <v>MO</v>
@@ -2960,7 +2960,7 @@
         <v>2.0390000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" t="str">
         <f>Data!A43</f>
         <v>MO</v>
@@ -2986,7 +2986,7 @@
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" t="str">
         <f>Data!A44</f>
         <v>MO</v>
@@ -3012,7 +3012,7 @@
         <v>1.4079999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" t="str">
         <f>Data!A45</f>
         <v>MO</v>
@@ -3038,7 +3038,7 @@
         <v>1.5510000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" t="str">
         <f>Data!A46</f>
         <v>MO</v>
@@ -3064,7 +3064,7 @@
         <v>1.464</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" t="str">
         <f>Data!A47</f>
         <v>MO</v>
@@ -3090,7 +3090,7 @@
         <v>1.218</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" t="str">
         <f>Data!A48</f>
         <v>MO</v>
@@ -3116,7 +3116,7 @@
         <v>0.38100000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" t="str">
         <f>Data!A49</f>
         <v>MO</v>
@@ -3142,7 +3142,7 @@
         <v>0.69899999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" t="str">
         <f>Data!A50</f>
         <v>MO</v>
@@ -3168,7 +3168,7 @@
         <v>0.32100000000000006</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" t="str">
         <f>Data!A51</f>
         <v>MO</v>
@@ -3194,7 +3194,7 @@
         <v>1.6479999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" t="str">
         <f>Data!A52</f>
         <v>MO</v>
@@ -3220,7 +3220,7 @@
         <v>2.0649999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" t="str">
         <f>Data!A53</f>
         <v>MO</v>
@@ -3246,7 +3246,7 @@
         <v>1.8380000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" t="str">
         <f>Data!A54</f>
         <v>MO</v>
@@ -3272,7 +3272,7 @@
         <v>3.2809999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" t="str">
         <f>Data!A55</f>
         <v>MO</v>
@@ -3298,7 +3298,7 @@
         <v>1.075</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" t="str">
         <f>Data!A56</f>
         <v>MO</v>
@@ -3324,7 +3324,7 @@
         <v>0.503</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" t="str">
         <f>Data!A57</f>
         <v>MO</v>
@@ -3350,7 +3350,7 @@
         <v>0.87700000000000011</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" t="str">
         <f>Data!A58</f>
         <v>MO</v>
@@ -3376,7 +3376,7 @@
         <v>1.694</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" t="str">
         <f>Data!A59</f>
         <v>MO</v>
@@ -3402,7 +3402,7 @@
         <v>0.60500000000000009</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" t="str">
         <f>Data!A60</f>
         <v>MO</v>
@@ -3428,7 +3428,7 @@
         <v>0.89800000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" t="str">
         <f>Data!A61</f>
         <v>MO</v>
@@ -3454,7 +3454,7 @@
         <v>0.46399999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" t="str">
         <f>Data!A62</f>
         <v>MO</v>
@@ -3480,7 +3480,7 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" t="str">
         <f>Data!A63</f>
         <v>MO</v>
@@ -3506,7 +3506,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" t="str">
         <f>Data!A64</f>
         <v>MO</v>
@@ -3532,7 +3532,7 @@
         <v>1.2143780866474001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" t="str">
         <f>Data!A65</f>
         <v>MO</v>
@@ -3558,7 +3558,7 @@
         <v>4.7224169502400004</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" t="str">
         <f>Data!A66</f>
         <v>MO</v>
@@ -3584,7 +3584,7 @@
         <v>9.5907120149000005E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" t="str">
         <f>Data!A67</f>
         <v>MO</v>
@@ -3610,7 +3610,7 @@
         <v>4.8318275346999995</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" t="str">
         <f>Data!A68</f>
         <v>MO</v>
@@ -3636,7 +3636,7 @@
         <v>5.9621150415699997</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" t="str">
         <f>Data!A69</f>
         <v>MO</v>
@@ -3662,7 +3662,7 @@
         <v>1.2614033274700001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" t="str">
         <f>Data!A70</f>
         <v>MO</v>
@@ -3688,7 +3688,7 @@
         <v>13.023550168400002</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" t="str">
         <f>Data!A71</f>
         <v>MO</v>
@@ -3714,7 +3714,7 @@
         <v>0.41547906195000001</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" t="str">
         <f>Data!A72</f>
         <v>MO</v>
@@ -3740,7 +3740,7 @@
         <v>5.5914414219699999</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" t="str">
         <f>Data!A73</f>
         <v>MO</v>
@@ -3766,7 +3766,7 @@
         <v>0.79920880022000007</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" t="str">
         <f>Data!A74</f>
         <v>MO</v>
@@ -3792,7 +3792,7 @@
         <v>9.5525150741119997</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" t="str">
         <f>Data!A75</f>
         <v>MO</v>
@@ -3818,7 +3818,7 @@
         <v>0.20812192936690002</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" t="str">
         <f>Data!A76</f>
         <v>MO</v>
@@ -3844,7 +3844,7 @@
         <v>5.7489768439000004</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" t="str">
         <f>Data!A77</f>
         <v>MO</v>
@@ -3870,7 +3870,7 @@
         <v>1.5346370124473099</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" t="str">
         <f>Data!A78</f>
         <v>MO</v>
@@ -3896,7 +3896,7 @@
         <v>8.0600711037600004</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" t="str">
         <f>Data!A79</f>
         <v>MO</v>
@@ -3922,7 +3922,7 @@
         <v>0.28988878366199999</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80" t="str">
         <f>Data!A80</f>
         <v>IA</v>
@@ -3948,7 +3948,7 @@
         <v>33.893501081094996</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" t="str">
         <f>Data!A81</f>
         <v>IA</v>
@@ -3974,7 +3974,7 @@
         <v>22.255034214053001</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82" t="str">
         <f>Data!A82</f>
         <v>IA</v>
@@ -4000,7 +4000,7 @@
         <v>17.372465952020001</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" t="str">
         <f>Data!A83</f>
         <v>IA</v>
@@ -4026,7 +4026,7 @@
         <v>12.363016364251999</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84" t="str">
         <f>Data!A84</f>
         <v>IA</v>
@@ -4052,7 +4052,7 @@
         <v>24.906595380221997</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" t="str">
         <f>Data!A85</f>
         <v>IA</v>
@@ -4078,7 +4078,7 @@
         <v>18.670616249842002</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86" t="str">
         <f>Data!A86</f>
         <v>IA</v>
@@ -4104,7 +4104,7 @@
         <v>29.817801804649001</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87" t="str">
         <f>Data!A87</f>
         <v>IA</v>
@@ -4130,7 +4130,7 @@
         <v>35.702099121700002</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88" t="str">
         <f>Data!A88</f>
         <v>IA</v>
@@ -4156,7 +4156,7 @@
         <v>35.957284232900008</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89" t="str">
         <f>Data!A89</f>
         <v>IA</v>
@@ -4182,7 +4182,7 @@
         <v>33.934294000212503</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90" t="str">
         <f>Data!A90</f>
         <v>IA</v>
@@ -4208,7 +4208,7 @@
         <v>31.510608808828</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91" t="str">
         <f>Data!A91</f>
         <v>IA</v>
@@ -4234,7 +4234,7 @@
         <v>27.658282983732882</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92" t="str">
         <f>Data!A92</f>
         <v>IA</v>
@@ -4260,7 +4260,7 @@
         <v>40.625790834490203</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93" t="str">
         <f>Data!A93</f>
         <v>IA</v>
@@ -4286,7 +4286,7 @@
         <v>43.060683878403999</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94" t="str">
         <f>Data!A94</f>
         <v>IA</v>
@@ -4312,7 +4312,7 @@
         <v>18.865506750541005</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95" t="str">
         <f>Data!A95</f>
         <v>IA</v>
@@ -4338,7 +4338,7 @@
         <v>38.322138353070002</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96" t="str">
         <f>Data!A96</f>
         <v>IA</v>
@@ -4364,7 +4364,7 @@
         <v>39.411498217799</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97" t="str">
         <f>Data!A97</f>
         <v>IA</v>
@@ -4390,7 +4390,7 @@
         <v>36.003775052971498</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98" t="str">
         <f>Data!A98</f>
         <v>IA</v>
@@ -4416,7 +4416,7 @@
         <v>53.283005938629991</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99" t="str">
         <f>Data!A99</f>
         <v>IA</v>
@@ -4442,7 +4442,7 @@
         <v>21.703487865370999</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100" t="str">
         <f>Data!A100</f>
         <v>IA</v>
@@ -4468,7 +4468,7 @@
         <v>39.305943372854003</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101" t="str">
         <f>Data!A101</f>
         <v>IA</v>
@@ -4494,7 +4494,7 @@
         <v>15.384113428699999</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102" t="str">
         <f>Data!A102</f>
         <v>IA</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103" t="str">
         <f>Data!A103</f>
         <v>IA</v>
@@ -4546,7 +4546,7 @@
         <v>8.8215706606489999</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104" t="str">
         <f>Data!A104</f>
         <v>IA</v>
@@ -4572,7 +4572,7 @@
         <v>1.6355215090500002</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105" t="str">
         <f>Data!A105</f>
         <v>IA</v>
@@ -4598,7 +4598,7 @@
         <v>2.7056183333900002E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106" t="str">
         <f>Data!A106</f>
         <v>IA</v>
@@ -4624,7 +4624,7 @@
         <v>0.27000266447510002</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107" t="str">
         <f>Data!A107</f>
         <v>IA</v>
@@ -4650,7 +4650,7 @@
         <v>2.31032965154</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108" t="str">
         <f>Data!A108</f>
         <v>IA</v>
@@ -4676,7 +4676,7 @@
         <v>3.7990072917099997</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109" t="str">
         <f>Data!A109</f>
         <v>IA</v>
@@ -4702,7 +4702,7 @@
         <v>3.7031151970381</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110" t="str">
         <f>Data!A110</f>
         <v>IA</v>
@@ -4728,7 +4728,7 @@
         <v>6.7826216129332302</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111" t="str">
         <f>Data!A111</f>
         <v>IA</v>
@@ -4754,7 +4754,7 @@
         <v>8.6818759156900001</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112" t="str">
         <f>Data!A112</f>
         <v>IA</v>
@@ -4780,7 +4780,7 @@
         <v>5.7496622547400005</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113" t="str">
         <f>Data!A113</f>
         <v>IA</v>
@@ -4806,7 +4806,7 @@
         <v>5.7023067871999995</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="A114" t="str">
         <f>Data!A114</f>
         <v>IA</v>
@@ -4832,7 +4832,7 @@
         <v>5.261204012925</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="A115" t="str">
         <f>Data!A115</f>
         <v>IA</v>
@@ -4858,7 +4858,7 @@
         <v>1.0839969308799999</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="A116" t="str">
         <f>Data!A116</f>
         <v>IA</v>
@@ -4884,7 +4884,7 @@
         <v>1.4772052155752</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="A117" t="str">
         <f>Data!A117</f>
         <v>IA</v>
@@ -4910,7 +4910,7 @@
         <v>3.9096825836651004</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="A118" t="str">
         <f>Data!A118</f>
         <v>IA</v>
@@ -4936,7 +4936,7 @@
         <v>1.27907087</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="A119" t="str">
         <f>Data!A119</f>
         <v>IA</v>
@@ -4962,7 +4962,7 @@
         <v>3.6102770695670001</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="A120" t="str">
         <f>Data!A120</f>
         <v>IA</v>
@@ -4988,7 +4988,7 @@
         <v>6.4856333930000005</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121" t="str">
         <f>Data!A121</f>
         <v>IA</v>
@@ -5014,7 +5014,7 @@
         <v>3.6443370092089</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="A122" t="str">
         <f>Data!A122</f>
         <v>IA</v>
@@ -5040,7 +5040,7 @@
         <v>4.1863359127790005</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="A123" t="str">
         <f>Data!A123</f>
         <v>IA</v>
@@ -5066,7 +5066,7 @@
         <v>4.6097671192699998</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="A124" t="str">
         <f>Data!A124</f>
         <v>IA</v>
@@ -5092,7 +5092,7 @@
         <v>0.25569976490000002</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="A125" t="str">
         <f>Data!A125</f>
         <v>IA</v>
@@ -5118,7 +5118,7 @@
         <v>2.36528838065</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="A126" t="str">
         <f>Data!A126</f>
         <v>IA</v>
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
       <c r="A127" t="str">
         <f>Data!A127</f>
         <v>IA</v>
@@ -5170,7 +5170,7 @@
         <v>7.2856664206200001</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6">
       <c r="A128" t="str">
         <f>Data!A128</f>
         <v>IA</v>
@@ -5196,7 +5196,7 @@
         <v>23.030017356239998</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="A129" t="str">
         <f>Data!A129</f>
         <v>IA</v>
@@ -5222,7 +5222,7 @@
         <v>14.973077254420001</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="A130" t="str">
         <f>Data!A130</f>
         <v>IA</v>
@@ -5248,7 +5248,7 @@
         <v>60.801998553200001</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="A131" t="str">
         <f>Data!A131</f>
         <v>IA</v>
@@ -5274,7 +5274,7 @@
         <v>46.932697455650008</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132" t="str">
         <f>Data!A132</f>
         <v>IA</v>
@@ -5300,7 +5300,7 @@
         <v>54.404444828771993</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133" t="str">
         <f>Data!A133</f>
         <v>IA</v>
@@ -5326,7 +5326,7 @@
         <v>51.262074135190005</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134" t="str">
         <f>Data!A134</f>
         <v>IA</v>
@@ -5352,7 +5352,7 @@
         <v>37.376612272650007</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135" t="str">
         <f>Data!A135</f>
         <v>IA</v>
@@ -5378,7 +5378,7 @@
         <v>49.786557626300009</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136" t="str">
         <f>Data!A136</f>
         <v>IA</v>
@@ -5404,7 +5404,7 @@
         <v>38.4672408307</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="A137" t="str">
         <f>Data!A137</f>
         <v>IA</v>
@@ -5430,7 +5430,7 @@
         <v>44.003612284320006</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138" t="str">
         <f>Data!A138</f>
         <v>IA</v>
@@ -5456,7 +5456,7 @@
         <v>36.254588849679998</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="A139" t="str">
         <f>Data!A139</f>
         <v>IA</v>
@@ -5482,7 +5482,7 @@
         <v>11.027588606417998</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140" t="str">
         <f>Data!A140</f>
         <v>IA</v>
@@ -5508,7 +5508,7 @@
         <v>39.034110925829992</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="A141" t="str">
         <f>Data!A141</f>
         <v>IA</v>
@@ -5534,7 +5534,7 @@
         <v>64.114932411490003</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142" t="str">
         <f>Data!A142</f>
         <v>IA</v>
@@ -5560,7 +5560,7 @@
         <v>32.167840889330002</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143" t="str">
         <f>Data!A143</f>
         <v>IA</v>
@@ -5586,7 +5586,7 @@
         <v>57.890307958839998</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="A144" t="str">
         <f>Data!A144</f>
         <v>IA</v>
@@ -5612,7 +5612,7 @@
         <v>74.971670048360011</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6">
       <c r="A145" t="str">
         <f>Data!A145</f>
         <v>IA</v>
@@ -5638,7 +5638,7 @@
         <v>38.578658825380003</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="A146" t="str">
         <f>Data!A146</f>
         <v>IA</v>
@@ -5664,7 +5664,7 @@
         <v>71.821012624899993</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
       <c r="A147" t="str">
         <f>Data!A147</f>
         <v>IA</v>
@@ -5690,7 +5690,7 @@
         <v>44.126723185900005</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="A148" t="str">
         <f>Data!A148</f>
         <v>IA</v>
@@ -5716,7 +5716,7 @@
         <v>59.927197310800004</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
       <c r="A149" t="str">
         <f>Data!A149</f>
         <v>IA</v>
@@ -5742,7 +5742,7 @@
         <v>32.358976456399994</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="A150" t="str">
         <f>Data!A150</f>
         <v>IA</v>
@@ -5768,7 +5768,7 @@
         <v>3.053686511445</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6">
       <c r="A151" t="str">
         <f>Data!A151</f>
         <v>IA</v>
@@ -5794,7 +5794,7 @@
         <v>24.933073608571</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="A152" t="str">
         <f>Data!A152</f>
         <v>IA</v>
@@ -5820,7 +5820,7 @@
         <v>32.677931367820008</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6">
       <c r="A153" t="str">
         <f>Data!A153</f>
         <v>IA</v>
@@ -5846,7 +5846,7 @@
         <v>37.318842301923993</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6">
       <c r="A154" t="str">
         <f>Data!A154</f>
         <v>IA</v>
@@ -5872,7 +5872,7 @@
         <v>27.555230320541</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
       <c r="A155" t="str">
         <f>Data!A155</f>
         <v>IA</v>
@@ -5898,7 +5898,7 @@
         <v>39.245428907013007</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6">
       <c r="A156" t="str">
         <f>Data!A156</f>
         <v>IA</v>
@@ -5924,7 +5924,7 @@
         <v>25.333882296340995</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6">
       <c r="A157" t="str">
         <f>Data!A157</f>
         <v>IA</v>
@@ -5950,7 +5950,7 @@
         <v>42.035774541030001</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6">
       <c r="A158" t="str">
         <f>Data!A158</f>
         <v>IA</v>
@@ -5976,7 +5976,7 @@
         <v>35.603884416989999</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6">
       <c r="A159" t="str">
         <f>Data!A159</f>
         <v>IA</v>
@@ -6002,7 +6002,7 @@
         <v>46.882735587989998</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6">
       <c r="A160" t="str">
         <f>Data!A160</f>
         <v>IA</v>
@@ -6028,7 +6028,7 @@
         <v>28.899440588687</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6">
       <c r="A161" t="str">
         <f>Data!A161</f>
         <v>IA</v>
@@ -6054,7 +6054,7 @@
         <v>35.599814668434</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6">
       <c r="A162" t="str">
         <f>Data!A162</f>
         <v>IA</v>
@@ -6080,7 +6080,7 @@
         <v>33.900097634889995</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6">
       <c r="A163" t="str">
         <f>Data!A163</f>
         <v>IA</v>
@@ -6106,7 +6106,7 @@
         <v>20.155750633029999</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6">
       <c r="A164" t="str">
         <f>Data!A164</f>
         <v>IA</v>
@@ -6132,7 +6132,7 @@
         <v>47.088146739215006</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6">
       <c r="A165" t="str">
         <f>Data!A165</f>
         <v>IA</v>
@@ -6158,7 +6158,7 @@
         <v>68.132820075333001</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6">
       <c r="A166" t="str">
         <f>Data!A166</f>
         <v>IA</v>
@@ -6184,7 +6184,7 @@
         <v>35.739449561107989</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6">
       <c r="A167" t="str">
         <f>Data!A167</f>
         <v>IA</v>
@@ -6210,7 +6210,7 @@
         <v>29.634070121682001</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6">
       <c r="A168" t="str">
         <f>Data!A168</f>
         <v>IA</v>
@@ -6236,7 +6236,7 @@
         <v>44.165739603573002</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6">
       <c r="A169" t="str">
         <f>Data!A169</f>
         <v>IA</v>
@@ -6262,7 +6262,7 @@
         <v>36.785291605590004</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6">
       <c r="A170" t="str">
         <f>Data!A170</f>
         <v>IA</v>
@@ -6288,7 +6288,7 @@
         <v>51.05051766651399</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6">
       <c r="A171" t="str">
         <f>Data!A171</f>
         <v>IA</v>
@@ -6314,7 +6314,7 @@
         <v>48.860544971609009</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6">
       <c r="A172" t="str">
         <f>Data!A172</f>
         <v>IA</v>
@@ -6340,7 +6340,7 @@
         <v>46.639928020349991</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6">
       <c r="A173" t="str">
         <f>Data!A173</f>
         <v>IA</v>
@@ -6366,7 +6366,7 @@
         <v>34.228982242746014</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6">
       <c r="A174" t="str">
         <f>Data!A174</f>
         <v>IA</v>
@@ -6392,7 +6392,7 @@
         <v>1.622951915921</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6">
       <c r="A175" t="str">
         <f>Data!A175</f>
         <v>IA</v>
@@ -6418,7 +6418,7 @@
         <v>19.033994489188803</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6">
       <c r="A176" t="str">
         <f>Data!A176</f>
         <v>IA</v>
@@ -6444,7 +6444,7 @@
         <v>52.845979230371078</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6">
       <c r="A177" t="str">
         <f>Data!A177</f>
         <v>IA</v>
@@ -6470,7 +6470,7 @@
         <v>68.299413873214888</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6">
       <c r="A178" t="str">
         <f>Data!A178</f>
         <v>IA</v>
@@ -6496,7 +6496,7 @@
         <v>11.685010323341</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6">
       <c r="A179" t="str">
         <f>Data!A179</f>
         <v>IA</v>
@@ -6522,7 +6522,7 @@
         <v>46.00717063863501</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6">
       <c r="A180" t="str">
         <f>Data!A180</f>
         <v>IA</v>
@@ -6548,7 +6548,7 @@
         <v>48.514446411912004</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6">
       <c r="A181" t="str">
         <f>Data!A181</f>
         <v>IA</v>
@@ -6574,7 +6574,7 @@
         <v>76.502462227468001</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6">
       <c r="A182" t="str">
         <f>Data!A182</f>
         <v>IA</v>
@@ -6600,7 +6600,7 @@
         <v>57.960311309191994</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6">
       <c r="A183" t="str">
         <f>Data!A183</f>
         <v>IA</v>
@@ -6626,7 +6626,7 @@
         <v>81.617539961081604</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6">
       <c r="A184" t="str">
         <f>Data!A184</f>
         <v>IA</v>
@@ -6652,7 +6652,7 @@
         <v>46.215634211093004</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6">
       <c r="A185" t="str">
         <f>Data!A185</f>
         <v>IA</v>
@@ -6678,7 +6678,7 @@
         <v>52.683634844421</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6">
       <c r="A186" t="str">
         <f>Data!A186</f>
         <v>IA</v>
@@ -6704,7 +6704,7 @@
         <v>58.306502651487008</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6">
       <c r="A187" t="str">
         <f>Data!A187</f>
         <v>IA</v>
@@ -6730,7 +6730,7 @@
         <v>16.089184554055002</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6">
       <c r="A188" t="str">
         <f>Data!A188</f>
         <v>IA</v>
@@ -6756,7 +6756,7 @@
         <v>60.442553356537005</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6">
       <c r="A189" t="str">
         <f>Data!A189</f>
         <v>IA</v>
@@ -6782,7 +6782,7 @@
         <v>119.26618740489899</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6">
       <c r="A190" t="str">
         <f>Data!A190</f>
         <v>IA</v>
@@ -6808,7 +6808,7 @@
         <v>34.120942835661005</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6">
       <c r="A191" t="str">
         <f>Data!A191</f>
         <v>IA</v>
@@ -6834,7 +6834,7 @@
         <v>53.588829693475006</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6">
       <c r="A192" t="str">
         <f>Data!A192</f>
         <v>IA</v>
@@ -6860,7 +6860,7 @@
         <v>63.33266551556099</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6">
       <c r="A193" t="str">
         <f>Data!A193</f>
         <v>IA</v>
@@ -6886,7 +6886,7 @@
         <v>52.918512463466996</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6">
       <c r="A194" t="str">
         <f>Data!A194</f>
         <v>IA</v>
@@ -6912,7 +6912,7 @@
         <v>70.082111695509994</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6">
       <c r="A195" t="str">
         <f>Data!A195</f>
         <v>IA</v>
@@ -6938,7 +6938,7 @@
         <v>54.967475562665697</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6">
       <c r="A196" t="str">
         <f>Data!A196</f>
         <v>IA</v>
@@ -6964,7 +6964,7 @@
         <v>84.99262178374299</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6">
       <c r="A197" t="str">
         <f>Data!A197</f>
         <v>IA</v>
@@ -6990,7 +6990,7 @@
         <v>48.311555918031999</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6">
       <c r="A198" t="str">
         <f>Data!A198</f>
         <v>IA</v>
@@ -7016,7 +7016,7 @@
         <v>90.398772831222004</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6">
       <c r="A199" t="str">
         <f>Data!A199</f>
         <v>IA</v>
@@ -7042,7 +7042,7 @@
         <v>28.260761801459996</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6">
       <c r="A200" t="str">
         <f>Data!A200</f>
         <v>OH</v>
@@ -7068,7 +7068,7 @@
         <v>0.4702921739999999</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6">
       <c r="A201" t="str">
         <f>Data!A201</f>
         <v>OH</v>
@@ -7094,7 +7094,7 @@
         <v>0.73397339399999995</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6">
       <c r="A202" t="str">
         <f>Data!A202</f>
         <v>OH</v>
@@ -7120,7 +7120,7 @@
         <v>0.24717726000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6">
       <c r="A203" t="str">
         <f>Data!A203</f>
         <v>OH</v>
@@ -7146,7 +7146,7 @@
         <v>0.17434296000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6">
       <c r="A204" t="str">
         <f>Data!A204</f>
         <v>OH</v>
@@ -7172,7 +7172,7 @@
         <v>0.11686617800000001</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6">
       <c r="A205" t="str">
         <f>Data!A205</f>
         <v>OH</v>
@@ -7198,7 +7198,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6">
       <c r="A206" t="str">
         <f>Data!A206</f>
         <v>OH</v>
@@ -7224,7 +7224,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6">
       <c r="A207" t="str">
         <f>Data!A207</f>
         <v>OH</v>
@@ -7250,7 +7250,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6">
       <c r="A208" t="str">
         <f>Data!A208</f>
         <v>OH</v>
@@ -7276,7 +7276,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6">
       <c r="A209" t="str">
         <f>Data!A209</f>
         <v>OH</v>
@@ -7297,12 +7297,12 @@
         <f>Data!E209</f>
         <v>2015</v>
       </c>
-      <c r="F209">
+      <c r="F209" t="str">
         <f>Data!F209</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+        <v>na</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" t="str">
         <f>Data!A210</f>
         <v>OH</v>
@@ -7328,7 +7328,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6">
       <c r="A211" t="str">
         <f>Data!A211</f>
         <v>OH</v>
@@ -7354,7 +7354,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6">
       <c r="A212" t="str">
         <f>Data!A212</f>
         <v>OH</v>
@@ -7380,7 +7380,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6">
       <c r="A213" t="str">
         <f>Data!A213</f>
         <v>OH</v>
@@ -7406,7 +7406,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6">
       <c r="A214" t="str">
         <f>Data!A214</f>
         <v>OH</v>
@@ -7427,12 +7427,12 @@
         <f>Data!E214</f>
         <v>2015</v>
       </c>
-      <c r="F214">
+      <c r="F214" t="str">
         <f>Data!F214</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+        <v>na</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215" t="str">
         <f>Data!A215</f>
         <v>IN</v>
@@ -7458,7 +7458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6">
       <c r="A216" t="str">
         <f>Data!A216</f>
         <v>IN</v>
@@ -7484,7 +7484,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6">
       <c r="A217" t="str">
         <f>Data!A217</f>
         <v>IN</v>
@@ -7510,7 +7510,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6">
       <c r="A218" t="str">
         <f>Data!A218</f>
         <v>IN</v>
@@ -7536,7 +7536,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6">
       <c r="A219" t="str">
         <f>Data!A219</f>
         <v>IN</v>
@@ -7562,7 +7562,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6">
       <c r="A220" t="str">
         <f>Data!A220</f>
         <v>IN</v>
@@ -7588,7 +7588,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6">
       <c r="A221" t="str">
         <f>Data!A221</f>
         <v>IN</v>
@@ -7614,7 +7614,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6">
       <c r="A222" t="str">
         <f>Data!A222</f>
         <v>IN</v>
@@ -7640,7 +7640,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6">
       <c r="A223" t="str">
         <f>Data!A223</f>
         <v>IN</v>
@@ -7666,7 +7666,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6">
       <c r="A224" t="str">
         <f>Data!A224</f>
         <v>IN</v>
@@ -7692,7 +7692,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6">
       <c r="A225" t="str">
         <f>Data!A225</f>
         <v>IN</v>
@@ -7718,7 +7718,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6">
       <c r="A226" t="str">
         <f>Data!A226</f>
         <v>IN</v>
@@ -7744,7 +7744,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6">
       <c r="A227" t="str">
         <f>Data!A227</f>
         <v>IN</v>
@@ -7770,7 +7770,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6">
       <c r="A228" t="str">
         <f>Data!A228</f>
         <v>IN</v>
@@ -7796,7 +7796,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6">
       <c r="A229" t="str">
         <f>Data!A229</f>
         <v>IN</v>
@@ -7822,7 +7822,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6">
       <c r="A230" t="str">
         <f>Data!A230</f>
         <v>IN</v>
@@ -7848,7 +7848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6">
       <c r="A231" t="str">
         <f>Data!A231</f>
         <v>MN</v>
@@ -7874,7 +7874,7 @@
         <v>1.6519999999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6">
       <c r="A232" t="str">
         <f>Data!A232</f>
         <v>MN</v>
@@ -7900,7 +7900,7 @@
         <v>2.8730000000000002</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6">
       <c r="A233" t="str">
         <f>Data!A233</f>
         <v>MN</v>
@@ -7926,7 +7926,7 @@
         <v>1.1819999999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6">
       <c r="A234" t="str">
         <f>Data!A234</f>
         <v>MN</v>
@@ -7952,7 +7952,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6">
       <c r="A235" t="str">
         <f>Data!A235</f>
         <v>MN</v>
@@ -7978,7 +7978,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6">
       <c r="A236" t="str">
         <f>Data!A236</f>
         <v>MN</v>
@@ -8004,7 +8004,7 @@
         <v>na</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6">
       <c r="A237" t="str">
         <f>Data!A237</f>
         <v>MN</v>
@@ -8030,7 +8030,7 @@
         <v>na</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6">
       <c r="A238" t="str">
         <f>Data!A238</f>
         <v>MN</v>
@@ -8056,7 +8056,7 @@
         <v>6.9219999999999997</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6">
       <c r="A239" t="str">
         <f>Data!A239</f>
         <v>MN</v>
@@ -8082,7 +8082,7 @@
         <v>4.6079999999999997</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6">
       <c r="A240" t="str">
         <f>Data!A240</f>
         <v>MN</v>
@@ -8108,7 +8108,7 @@
         <v>0.56599999999999995</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6">
       <c r="A241" t="str">
         <f>Data!A241</f>
         <v>MN</v>
@@ -8134,7 +8134,7 @@
         <v>1.667</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6">
       <c r="A242" t="str">
         <f>Data!A242</f>
         <v>MN</v>
@@ -8160,7 +8160,7 @@
         <v>0.52100000000000002</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6">
       <c r="A243" t="str">
         <f>Data!A243</f>
         <v>MN</v>
@@ -8186,7 +8186,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6">
       <c r="A244" t="str">
         <f>Data!A244</f>
         <v>MN</v>
@@ -8212,7 +8212,7 @@
         <v>1.1519999999999999</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6">
       <c r="A245" t="str">
         <f>Data!A245</f>
         <v>MN</v>
@@ -8238,7 +8238,7 @@
         <v>na</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6">
       <c r="A246" t="str">
         <f>Data!A246</f>
         <v>MN</v>
@@ -8264,7 +8264,7 @@
         <v>na</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6">
       <c r="A247" t="str">
         <f>Data!A247</f>
         <v>MN</v>
@@ -8290,7 +8290,7 @@
         <v>4.2039999999999997</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6">
       <c r="A248" t="str">
         <f>Data!A248</f>
         <v>MN</v>
@@ -8330,7 +8330,7 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.42578125" style="3" customWidth="1"/>
     <col min="2" max="3" width="38.85546875" style="3" customWidth="1"/>
@@ -8338,7 +8338,7 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="18">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="18">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -8378,7 +8378,7 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -8390,7 +8390,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -8402,7 +8402,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -8414,7 +8414,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
@@ -8454,7 +8454,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
@@ -8466,7 +8466,7 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="E12"/>
       <c r="G12"/>
       <c r="H12"/>
@@ -8474,170 +8474,170 @@
       <c r="J12"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="C13" s="11"/>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13" s="12"/>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="C14" s="11"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="C15" s="11"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" s="12"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="C16" s="11"/>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16" s="12"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6">
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6">
       <c r="C18" s="11"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6">
       <c r="C19" s="11"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6">
       <c r="C20" s="11"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6">
       <c r="C21" s="11"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6">
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6">
       <c r="C23" s="11"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6">
       <c r="C24" s="11"/>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6">
       <c r="C25" s="11"/>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6">
       <c r="C26" s="11"/>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6">
       <c r="C27" s="11"/>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6">
       <c r="C28" s="11"/>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:6">
       <c r="C29" s="11"/>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:6">
       <c r="C30" s="11"/>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:6">
       <c r="C31" s="11"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:6">
       <c r="C32" s="11"/>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6">
       <c r="C33" s="11"/>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6">
       <c r="C34" s="11"/>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:6">
       <c r="C35" s="11"/>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:6">
       <c r="C36" s="11"/>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6">
       <c r="C37" s="11"/>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:6">
       <c r="C38" s="11"/>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:6">
       <c r="C39" s="11"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:6">
       <c r="C40" s="11"/>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:6">
       <c r="C41" s="11"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:6">
       <c r="C42" s="11"/>
     </row>
   </sheetData>
@@ -8650,12 +8650,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K248"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B250" sqref="B250"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F214" sqref="F214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
@@ -8667,7 +8667,7 @@
     <col min="15" max="17" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="14" customFormat="1" ht="30">
       <c r="A1" s="14" t="s">
         <v>231</v>
       </c>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="K1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>232</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>29.855460999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>232</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>42.465522999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>232</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>11.357567</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>232</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>10.164596</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>232</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>24.493995999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>232</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>5.7327260000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>232</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>11.148345000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>232</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>12.322573999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>232</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>4.2925409999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>232</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>5.9977010000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>232</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>7.7289409999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>232</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>3.6994479999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>232</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>20.605730000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>232</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>32.226100000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>232</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>19.107279999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>232</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>20.81466</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>232</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>36.2149</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>232</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>16.269770000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>232</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>21.997187</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>232</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>59.143658000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>232</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>6.4460639999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>232</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>15.617248999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>232</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>55.974493000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>232</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>13.206845</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>232</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>6.4732370000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>232</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>14.899558000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>232</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>10.612791</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>232</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>9.9698910000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>232</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>51.153748</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>232</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>23.588162000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>233</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>233</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>233</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>233</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>233</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>233</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>233</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>233</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>233</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>233</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>233</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>233</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>233</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>233</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>233</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>233</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>233</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>0.38100000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>233</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>0.69899999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>233</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>0.32100000000000006</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>233</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>1.6479999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>233</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>2.0649999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>233</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>1.8380000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>233</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>3.2809999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>233</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>1.075</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>233</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>0.503</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>233</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>0.87700000000000011</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>233</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>1.694</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>233</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>0.60500000000000009</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>233</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>0.89800000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>233</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>0.46399999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>233</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>233</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>233</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>1.2143780866474001</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>233</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>4.7224169502400004</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>233</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>9.5907120149000005E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>233</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>4.8318275346999995</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>233</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>5.9621150415699997</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>233</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>1.2614033274700001</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>233</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>13.023550168400002</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>233</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>0.41547906195000001</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>233</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>5.5914414219699999</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>233</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>0.79920880022000007</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>233</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>9.5525150741119997</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>233</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>0.20812192936690002</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>233</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>5.7489768439000004</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>233</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>1.5346370124473099</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>233</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>8.0600711037600004</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>233</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>0.28988878366199999</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>232</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>232</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>232</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>232</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>232</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>232</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>232</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>232</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>232</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>232</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>232</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>232</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>232</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>232</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>232</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>232</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>232</v>
       </c>
@@ -10870,7 +10870,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>232</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>232</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>232</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>232</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>232</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>232</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>232</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>232</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>1.6355215090500002</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>232</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>2.7056183333900002E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>232</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>0.27000266447510002</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>232</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>2.31032965154</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>232</v>
       </c>
@@ -11152,7 +11152,7 @@
         <v>3.7990072917099997</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>232</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>3.7031151970381</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>232</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>6.7826216129332302</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>232</v>
       </c>
@@ -11212,7 +11212,7 @@
         <v>8.6818759156900001</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>232</v>
       </c>
@@ -11232,7 +11232,7 @@
         <v>5.7496622547400005</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>232</v>
       </c>
@@ -11252,7 +11252,7 @@
         <v>5.7023067871999995</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>232</v>
       </c>
@@ -11272,7 +11272,7 @@
         <v>5.261204012925</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>232</v>
       </c>
@@ -11292,7 +11292,7 @@
         <v>1.0839969308799999</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>232</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>1.4772052155752</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>232</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>3.9096825836651004</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>232</v>
       </c>
@@ -11352,7 +11352,7 @@
         <v>1.27907087</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>232</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>3.6102770695670001</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>232</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>6.4856333930000005</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>232</v>
       </c>
@@ -11412,7 +11412,7 @@
         <v>3.6443370092089</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>232</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>4.1863359127790005</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>232</v>
       </c>
@@ -11452,7 +11452,7 @@
         <v>4.6097671192699998</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>232</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>0.25569976490000002</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>232</v>
       </c>
@@ -11492,7 +11492,7 @@
         <v>2.36528838065</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>232</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>232</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>7.2856664206200001</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>232</v>
       </c>
@@ -11552,7 +11552,7 @@
         <v>23.030017356239998</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>232</v>
       </c>
@@ -11572,7 +11572,7 @@
         <v>14.973077254420001</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>232</v>
       </c>
@@ -11592,7 +11592,7 @@
         <v>60.801998553200001</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>232</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>46.932697455650008</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>232</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>54.404444828771993</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>232</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>51.262074135190005</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>232</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>37.376612272650007</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>232</v>
       </c>
@@ -11692,7 +11692,7 @@
         <v>49.786557626300009</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>232</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>38.4672408307</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>232</v>
       </c>
@@ -11732,7 +11732,7 @@
         <v>44.003612284320006</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>232</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>36.254588849679998</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>232</v>
       </c>
@@ -11772,7 +11772,7 @@
         <v>11.027588606417998</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>232</v>
       </c>
@@ -11792,7 +11792,7 @@
         <v>39.034110925829992</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>232</v>
       </c>
@@ -11812,7 +11812,7 @@
         <v>64.114932411490003</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>232</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>32.167840889330002</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>232</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>57.890307958839998</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>232</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>74.971670048360011</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>232</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>38.578658825380003</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>232</v>
       </c>
@@ -11912,7 +11912,7 @@
         <v>71.821012624899993</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>232</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>44.126723185900005</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>232</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>59.927197310800004</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>232</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>32.358976456399994</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>232</v>
       </c>
@@ -11992,7 +11992,7 @@
         <v>3.053686511445</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>232</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>24.933073608571</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>232</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>32.677931367820008</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>232</v>
       </c>
@@ -12052,7 +12052,7 @@
         <v>37.318842301923993</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>232</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>27.555230320541</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>232</v>
       </c>
@@ -12092,7 +12092,7 @@
         <v>39.245428907013007</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>232</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>25.333882296340995</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>232</v>
       </c>
@@ -12132,7 +12132,7 @@
         <v>42.035774541030001</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>232</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>35.603884416989999</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>232</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>46.882735587989998</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>232</v>
       </c>
@@ -12192,7 +12192,7 @@
         <v>28.899440588687</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
         <v>232</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>35.599814668434</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
         <v>232</v>
       </c>
@@ -12232,7 +12232,7 @@
         <v>33.900097634889995</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>232</v>
       </c>
@@ -12252,7 +12252,7 @@
         <v>20.155750633029999</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
         <v>232</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>47.088146739215006</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
         <v>232</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>68.132820075333001</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
         <v>232</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>35.739449561107989</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
         <v>232</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>29.634070121682001</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
         <v>232</v>
       </c>
@@ -12352,7 +12352,7 @@
         <v>44.165739603573002</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
         <v>232</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>36.785291605590004</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
         <v>232</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>51.05051766651399</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6">
       <c r="A171" t="s">
         <v>232</v>
       </c>
@@ -12412,7 +12412,7 @@
         <v>48.860544971609009</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6">
       <c r="A172" t="s">
         <v>232</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>46.639928020349991</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
         <v>232</v>
       </c>
@@ -12452,7 +12452,7 @@
         <v>34.228982242746014</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
         <v>232</v>
       </c>
@@ -12472,7 +12472,7 @@
         <v>1.622951915921</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
         <v>232</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>19.033994489188803</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
         <v>232</v>
       </c>
@@ -12512,7 +12512,7 @@
         <v>52.845979230371078</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
         <v>232</v>
       </c>
@@ -12532,7 +12532,7 @@
         <v>68.299413873214888</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
         <v>232</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>11.685010323341</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6">
       <c r="A179" t="s">
         <v>232</v>
       </c>
@@ -12572,7 +12572,7 @@
         <v>46.00717063863501</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
         <v>232</v>
       </c>
@@ -12592,7 +12592,7 @@
         <v>48.514446411912004</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
         <v>232</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>76.502462227468001</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6">
       <c r="A182" t="s">
         <v>232</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>57.960311309191994</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6">
       <c r="A183" t="s">
         <v>232</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>81.617539961081604</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6">
       <c r="A184" t="s">
         <v>232</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>46.215634211093004</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6">
       <c r="A185" t="s">
         <v>232</v>
       </c>
@@ -12692,7 +12692,7 @@
         <v>52.683634844421</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6">
       <c r="A186" t="s">
         <v>232</v>
       </c>
@@ -12712,7 +12712,7 @@
         <v>58.306502651487008</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6">
       <c r="A187" t="s">
         <v>232</v>
       </c>
@@ -12732,7 +12732,7 @@
         <v>16.089184554055002</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6">
       <c r="A188" t="s">
         <v>232</v>
       </c>
@@ -12752,7 +12752,7 @@
         <v>60.442553356537005</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6">
       <c r="A189" t="s">
         <v>232</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>119.26618740489899</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6">
       <c r="A190" t="s">
         <v>232</v>
       </c>
@@ -12792,7 +12792,7 @@
         <v>34.120942835661005</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6">
       <c r="A191" t="s">
         <v>232</v>
       </c>
@@ -12812,7 +12812,7 @@
         <v>53.588829693475006</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6">
       <c r="A192" t="s">
         <v>232</v>
       </c>
@@ -12832,7 +12832,7 @@
         <v>63.33266551556099</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10">
       <c r="A193" t="s">
         <v>232</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>52.918512463466996</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10">
       <c r="A194" t="s">
         <v>232</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>70.082111695509994</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10">
       <c r="A195" t="s">
         <v>232</v>
       </c>
@@ -12892,7 +12892,7 @@
         <v>54.967475562665697</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10">
       <c r="A196" t="s">
         <v>232</v>
       </c>
@@ -12912,7 +12912,7 @@
         <v>84.99262178374299</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10">
       <c r="A197" t="s">
         <v>232</v>
       </c>
@@ -12932,7 +12932,7 @@
         <v>48.311555918031999</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10">
       <c r="A198" t="s">
         <v>232</v>
       </c>
@@ -12952,7 +12952,7 @@
         <v>90.398772831222004</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10">
       <c r="A199" t="s">
         <v>232</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>28.260761801459996</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10">
       <c r="A200" t="s">
         <v>234</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>0.4702921739999999</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10">
       <c r="A201" t="s">
         <v>234</v>
       </c>
@@ -13012,7 +13012,7 @@
         <v>0.73397339399999995</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10">
       <c r="A202" t="s">
         <v>234</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>0.24717726000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10">
       <c r="A203" t="s">
         <v>234</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>0.17434296000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10">
       <c r="A204" t="s">
         <v>234</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>0.11686617800000001</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10">
       <c r="A205" t="s">
         <v>234</v>
       </c>
@@ -13098,7 +13098,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10">
       <c r="A206" t="s">
         <v>234</v>
       </c>
@@ -13124,7 +13124,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10">
       <c r="A207" t="s">
         <v>234</v>
       </c>
@@ -13150,7 +13150,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10">
       <c r="A208" t="s">
         <v>234</v>
       </c>
@@ -13176,7 +13176,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10">
       <c r="A209" t="s">
         <v>234</v>
       </c>
@@ -13192,12 +13192,14 @@
       <c r="E209">
         <v>2015</v>
       </c>
-      <c r="F209"/>
+      <c r="F209" s="49" t="s">
+        <v>213</v>
+      </c>
       <c r="I209" s="12">
         <v>96.868489999999994</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10">
       <c r="A210" t="s">
         <v>234</v>
       </c>
@@ -13223,7 +13225,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10">
       <c r="A211" t="s">
         <v>234</v>
       </c>
@@ -13249,7 +13251,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10">
       <c r="A212" t="s">
         <v>234</v>
       </c>
@@ -13275,7 +13277,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10">
       <c r="A213" t="s">
         <v>234</v>
       </c>
@@ -13301,7 +13303,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10">
       <c r="A214" t="s">
         <v>234</v>
       </c>
@@ -13317,12 +13319,14 @@
       <c r="E214">
         <v>2015</v>
       </c>
-      <c r="F214"/>
+      <c r="F214" s="49" t="s">
+        <v>213</v>
+      </c>
       <c r="I214" s="12">
         <v>43.728879999999997</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10">
       <c r="A215" t="s">
         <v>235</v>
       </c>
@@ -13348,7 +13352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10">
       <c r="A216" t="s">
         <v>235</v>
       </c>
@@ -13374,7 +13378,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10">
       <c r="A217" t="s">
         <v>235</v>
       </c>
@@ -13400,7 +13404,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10">
       <c r="A218" t="s">
         <v>235</v>
       </c>
@@ -13426,7 +13430,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10">
       <c r="A219" t="s">
         <v>235</v>
       </c>
@@ -13452,7 +13456,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10">
       <c r="A220" t="s">
         <v>235</v>
       </c>
@@ -13478,7 +13482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10">
       <c r="A221" t="s">
         <v>235</v>
       </c>
@@ -13504,7 +13508,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10">
       <c r="A222" t="s">
         <v>235</v>
       </c>
@@ -13530,7 +13534,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10">
       <c r="A223" t="s">
         <v>235</v>
       </c>
@@ -13556,7 +13560,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10">
       <c r="A224" t="s">
         <v>235</v>
       </c>
@@ -13582,7 +13586,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10">
       <c r="A225" t="s">
         <v>235</v>
       </c>
@@ -13608,7 +13612,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10">
       <c r="A226" t="s">
         <v>235</v>
       </c>
@@ -13634,7 +13638,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10">
       <c r="A227" t="s">
         <v>235</v>
       </c>
@@ -13660,7 +13664,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10">
       <c r="A228" t="s">
         <v>235</v>
       </c>
@@ -13686,7 +13690,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10">
       <c r="A229" t="s">
         <v>235</v>
       </c>
@@ -13712,7 +13716,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10">
       <c r="A230" t="s">
         <v>235</v>
       </c>
@@ -13738,7 +13742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10">
       <c r="A231" t="s">
         <v>236</v>
       </c>
@@ -13758,7 +13762,7 @@
         <v>1.6519999999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10">
       <c r="A232" t="s">
         <v>236</v>
       </c>
@@ -13778,7 +13782,7 @@
         <v>2.8730000000000002</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10">
       <c r="A233" t="s">
         <v>236</v>
       </c>
@@ -13798,7 +13802,7 @@
         <v>1.1819999999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10">
       <c r="A234" t="s">
         <v>236</v>
       </c>
@@ -13818,7 +13822,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10">
       <c r="A235" t="s">
         <v>236</v>
       </c>
@@ -13838,7 +13842,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10">
       <c r="A236" t="s">
         <v>236</v>
       </c>
@@ -13858,7 +13862,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -13878,7 +13882,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10">
       <c r="A238" t="s">
         <v>236</v>
       </c>
@@ -13898,7 +13902,7 @@
         <v>6.9219999999999997</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10">
       <c r="A239" t="s">
         <v>236</v>
       </c>
@@ -13918,7 +13922,7 @@
         <v>4.6079999999999997</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10">
       <c r="A240" t="s">
         <v>236</v>
       </c>
@@ -13938,7 +13942,7 @@
         <v>0.56599999999999995</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6">
       <c r="A241" t="s">
         <v>236</v>
       </c>
@@ -13958,7 +13962,7 @@
         <v>1.667</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6">
       <c r="A242" t="s">
         <v>236</v>
       </c>
@@ -13978,7 +13982,7 @@
         <v>0.52100000000000002</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6">
       <c r="A243" t="s">
         <v>236</v>
       </c>
@@ -13998,7 +14002,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6">
       <c r="A244" t="s">
         <v>236</v>
       </c>
@@ -14018,7 +14022,7 @@
         <v>1.1519999999999999</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6">
       <c r="A245" t="s">
         <v>236</v>
       </c>
@@ -14038,7 +14042,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6">
       <c r="A246" t="s">
         <v>236</v>
       </c>
@@ -14058,7 +14062,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6">
       <c r="A247" t="s">
         <v>236</v>
       </c>
@@ -14078,7 +14082,7 @@
         <v>4.2039999999999997</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6">
       <c r="A248" t="s">
         <v>236</v>
       </c>
@@ -14114,10 +14118,10 @@
   <dimension ref="A1:AJ47"/>
   <sheetViews>
     <sheetView zoomScale="101" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="22.85546875" style="15" customWidth="1"/>
@@ -14132,7 +14136,7 @@
     <col min="36" max="36" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="45">
       <c r="A1" s="58" t="s">
         <v>218</v>
       </c>
@@ -14187,7 +14191,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36">
       <c r="A2" s="61" t="s">
         <v>219</v>
       </c>
@@ -14260,7 +14264,7 @@
         <v>11.581627299951531</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36">
       <c r="A3" s="61" t="s">
         <v>219</v>
       </c>
@@ -14334,7 +14338,7 @@
         <v>14.295345860773452</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36">
       <c r="A4" s="61" t="s">
         <v>219</v>
       </c>
@@ -14408,7 +14412,7 @@
         <v>6.7616306969909976</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36">
       <c r="A5" s="61" t="s">
         <v>219</v>
       </c>
@@ -14482,7 +14486,7 @@
         <v>6.2715178235496234</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36">
       <c r="A6" s="61" t="s">
         <v>219</v>
       </c>
@@ -14556,7 +14560,7 @@
         <v>20.9251900340021</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36">
       <c r="A7" s="61" t="s">
         <v>220</v>
       </c>
@@ -14570,7 +14574,7 @@
         <v>42.465522999999997</v>
       </c>
       <c r="E7" s="69">
-        <v>30.164850000000001</v>
+        <v>30.16</v>
       </c>
       <c r="F7" s="63" t="s">
         <v>230</v>
@@ -14578,7 +14582,7 @@
       <c r="G7" s="63"/>
       <c r="H7" s="64">
         <f t="shared" si="0"/>
-        <v>-1.7851572277004391E-3</v>
+        <v>-1.9462533156498914E-3</v>
       </c>
       <c r="AA7" s="42">
         <v>1</v>
@@ -14607,7 +14611,7 @@
         <v>5.6451720657715097</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36">
       <c r="A8" s="61" t="s">
         <v>220</v>
       </c>
@@ -14621,7 +14625,7 @@
         <v>12.322573999999999</v>
       </c>
       <c r="E8" s="69">
-        <v>12.300599999999999</v>
+        <v>12.3</v>
       </c>
       <c r="F8" s="63" t="s">
         <v>230</v>
@@ -14629,7 +14633,7 @@
       <c r="G8" s="63"/>
       <c r="H8" s="64">
         <f t="shared" si="0"/>
-        <v>-1.7864169227517488E-3</v>
+        <v>-1.8352845528454276E-3</v>
       </c>
       <c r="T8">
         <v>2011</v>
@@ -14675,7 +14679,7 @@
         <v>14.698691968952467</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36">
       <c r="A9" s="61" t="s">
         <v>220</v>
       </c>
@@ -14689,7 +14693,7 @@
         <v>32.226100000000002</v>
       </c>
       <c r="E9" s="69">
-        <v>32.168640000000003</v>
+        <v>32.17</v>
       </c>
       <c r="F9" s="63" t="s">
         <v>230</v>
@@ -14697,7 +14701,7 @@
       <c r="G9" s="63"/>
       <c r="H9" s="64">
         <f t="shared" si="0"/>
-        <v>-1.7863049230554503E-3</v>
+        <v>-1.7439539944047321E-3</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -14734,7 +14738,7 @@
         <v>-12.275057858732286</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36">
       <c r="A10" s="61" t="s">
         <v>220</v>
       </c>
@@ -14748,7 +14752,7 @@
         <v>59.143658000000002</v>
       </c>
       <c r="E10" s="69">
-        <v>59.038209999999999</v>
+        <v>59.04</v>
       </c>
       <c r="F10" s="63" t="s">
         <v>230</v>
@@ -14756,7 +14760,7 @@
       <c r="G10" s="63"/>
       <c r="H10" s="64">
         <f t="shared" si="0"/>
-        <v>-1.7860975121028E-3</v>
+        <v>-1.7557249322493718E-3</v>
       </c>
       <c r="S10">
         <v>2</v>
@@ -14793,7 +14797,7 @@
         <v>0.16794595084881792</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36">
       <c r="A11" s="61" t="s">
         <v>220</v>
       </c>
@@ -14807,7 +14811,7 @@
         <v>14.899558000000001</v>
       </c>
       <c r="E11" s="69">
-        <v>14.8729</v>
+        <v>14.87</v>
       </c>
       <c r="F11" s="63" t="s">
         <v>230</v>
@@ -14815,7 +14819,7 @@
       <c r="G11" s="63"/>
       <c r="H11" s="64">
         <f t="shared" si="0"/>
-        <v>-1.7861345131077145E-3</v>
+        <v>-1.9815063887020897E-3</v>
       </c>
       <c r="S11">
         <v>3</v>
@@ -14852,7 +14856,7 @@
         <v>2.3004960969402646</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36">
       <c r="A12" s="61" t="s">
         <v>221</v>
       </c>
@@ -14866,7 +14870,7 @@
         <v>11.357567</v>
       </c>
       <c r="E12" s="69">
-        <v>9.6818270000000002</v>
+        <v>9.68</v>
       </c>
       <c r="F12" s="63" t="s">
         <v>229</v>
@@ -14874,7 +14878,7 @@
       <c r="G12" s="63"/>
       <c r="H12" s="64">
         <f t="shared" si="0"/>
-        <v>-1.7862331148862398E-3</v>
+        <v>-1.9753099173553889E-3</v>
       </c>
       <c r="S12">
         <v>4</v>
@@ -14909,7 +14913,7 @@
         <v>14.899464757295986</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36">
       <c r="A13" s="61" t="s">
         <v>221</v>
       </c>
@@ -14923,7 +14927,7 @@
         <v>4.2925409999999999</v>
       </c>
       <c r="E13" s="69">
-        <v>4.2848879999999996</v>
+        <v>4.28</v>
       </c>
       <c r="F13" s="63" t="s">
         <v>229</v>
@@ -14931,7 +14935,7 @@
       <c r="G13" s="63"/>
       <c r="H13" s="64">
         <f t="shared" si="0"/>
-        <v>-1.7860443493506375E-3</v>
+        <v>-2.9301401869158156E-3</v>
       </c>
       <c r="S13">
         <v>5</v>
@@ -14968,7 +14972,7 @@
         <v>-8.1146049765467581</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36">
       <c r="A14" s="61" t="s">
         <v>221</v>
       </c>
@@ -14982,7 +14986,7 @@
         <v>19.107279999999999</v>
       </c>
       <c r="E14" s="69">
-        <v>19.07321</v>
+        <v>19.07</v>
       </c>
       <c r="F14" s="63" t="s">
         <v>229</v>
@@ -14990,7 +14994,7 @@
       <c r="G14" s="63"/>
       <c r="H14" s="64">
         <f t="shared" si="0"/>
-        <v>-1.7864323834320156E-3</v>
+        <v>-1.9550603041425603E-3</v>
       </c>
       <c r="S14">
         <v>6</v>
@@ -15027,7 +15031,7 @@
         <v>6.4710523966688527E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36">
       <c r="A15" s="61" t="s">
         <v>221</v>
       </c>
@@ -15041,7 +15045,7 @@
         <v>6.4460639999999998</v>
       </c>
       <c r="E15" s="69">
-        <v>6.434571</v>
+        <v>6.43</v>
       </c>
       <c r="F15" s="63" t="s">
         <v>229</v>
@@ -15049,7 +15053,7 @@
       <c r="G15" s="63"/>
       <c r="H15" s="64">
         <f t="shared" si="0"/>
-        <v>-1.7861330615513845E-3</v>
+        <v>-2.4982892690513341E-3</v>
       </c>
       <c r="AA15" s="1">
         <v>3</v>
@@ -15068,7 +15072,7 @@
         <v>-8.8569823154148963E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36">
       <c r="A16" s="61" t="s">
         <v>221</v>
       </c>
@@ -15082,7 +15086,7 @@
         <v>10.612791</v>
       </c>
       <c r="E16" s="69">
-        <v>10.59038</v>
+        <v>10.59</v>
       </c>
       <c r="F16" s="63" t="s">
         <v>229</v>
@@ -15090,7 +15094,7 @@
       <c r="G16" s="63"/>
       <c r="H16" s="64">
         <f t="shared" si="0"/>
-        <v>-1.7864325925982215E-3</v>
+        <v>-1.8223796033994503E-3</v>
       </c>
       <c r="S16" s="76" t="s">
         <v>49</v>
@@ -15120,7 +15124,7 @@
         <v>-10.067110011531941</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31">
       <c r="A17" s="61" t="s">
         <v>222</v>
       </c>
@@ -15134,7 +15138,7 @@
         <v>10.164596</v>
       </c>
       <c r="E17" s="69">
-        <v>9.5679420000000004</v>
+        <v>9.57</v>
       </c>
       <c r="F17" s="63" t="s">
         <v>229</v>
@@ -15142,7 +15146,7 @@
       <c r="G17" s="63"/>
       <c r="H17" s="64">
         <f t="shared" si="0"/>
-        <v>-1.7862775505954004E-3</v>
+        <v>-1.5708463949842177E-3</v>
       </c>
       <c r="S17" s="77"/>
       <c r="T17" s="77"/>
@@ -15170,7 +15174,7 @@
         <v>10.609299296662067</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31">
       <c r="A18" s="61" t="s">
         <v>222</v>
       </c>
@@ -15184,7 +15188,7 @@
         <v>5.9977010000000002</v>
       </c>
       <c r="E18" s="69">
-        <v>5.9870070000000002</v>
+        <v>5.99</v>
       </c>
       <c r="F18" s="63" t="s">
         <v>229</v>
@@ -15192,7 +15196,7 @@
       <c r="G18" s="63"/>
       <c r="H18" s="64">
         <f t="shared" si="0"/>
-        <v>-1.7862013523618698E-3</v>
+        <v>-1.285642737896487E-3</v>
       </c>
       <c r="S18" s="1">
         <v>1</v>
@@ -15227,7 +15231,7 @@
         <v>-7.6846095264984804</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31">
       <c r="A19" s="61" t="s">
         <v>222</v>
       </c>
@@ -15241,7 +15245,7 @@
         <v>20.81466</v>
       </c>
       <c r="E19" s="69">
-        <v>20.777550000000002</v>
+        <v>20.78</v>
       </c>
       <c r="F19" s="63" t="s">
         <v>229</v>
@@ -15249,7 +15253,7 @@
       <c r="G19" s="63"/>
       <c r="H19" s="64">
         <f t="shared" si="0"/>
-        <v>-1.7862067471861674E-3</v>
+        <v>-1.668094321462865E-3</v>
       </c>
       <c r="S19" s="1">
         <v>2</v>
@@ -15284,7 +15288,7 @@
         <v>7.190171333007811E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31">
       <c r="A20" s="61" t="s">
         <v>222</v>
       </c>
@@ -15298,7 +15302,7 @@
         <v>15.617248999999999</v>
       </c>
       <c r="E20" s="69">
-        <v>15.589399999999999</v>
+        <v>15.59</v>
       </c>
       <c r="F20" s="63" t="s">
         <v>229</v>
@@ -15306,7 +15310,7 @@
       <c r="G20" s="63"/>
       <c r="H20" s="64">
         <f t="shared" si="0"/>
-        <v>-1.7864061477670592E-3</v>
+        <v>-1.7478511866580765E-3</v>
       </c>
       <c r="S20" s="1">
         <v>3</v>
@@ -15344,7 +15348,7 @@
         <v>0.69922129383209608</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31">
       <c r="A21" s="61" t="s">
         <v>222</v>
       </c>
@@ -15358,7 +15362,7 @@
         <v>9.9698910000000005</v>
       </c>
       <c r="E21" s="69">
-        <v>9.9518599999999999</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="F21" s="63" t="s">
         <v>229</v>
@@ -15366,7 +15370,7 @@
       <c r="G21" s="63"/>
       <c r="H21" s="64">
         <f t="shared" si="0"/>
-        <v>-1.7861987608346148E-3</v>
+        <v>-1.9734673366834381E-3</v>
       </c>
       <c r="S21" s="1">
         <v>4</v>
@@ -15401,7 +15405,7 @@
         <v>4.973132320845508E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31">
       <c r="A22" s="61" t="s">
         <v>223</v>
       </c>
@@ -15415,7 +15419,7 @@
         <v>24.493995999999999</v>
       </c>
       <c r="E22" s="69">
-        <v>19.01118</v>
+        <v>19.010000000000002</v>
       </c>
       <c r="F22" s="63" t="s">
         <v>230</v>
@@ -15423,7 +15427,7 @@
       <c r="G22" s="63"/>
       <c r="H22" s="64">
         <f t="shared" si="0"/>
-        <v>-1.7859491099447981E-3</v>
+        <v>-1.8481325618094845E-3</v>
       </c>
       <c r="S22" s="1">
         <v>5</v>
@@ -15456,7 +15460,7 @@
         <v>64.995703601698239</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31">
       <c r="A23" s="61" t="s">
         <v>223</v>
       </c>
@@ -15470,7 +15474,7 @@
         <v>7.7289409999999998</v>
       </c>
       <c r="E23" s="70">
-        <v>5.0621119999999997E-5</v>
+        <v>7.72</v>
       </c>
       <c r="F23" s="63" t="s">
         <v>230</v>
@@ -15478,7 +15482,7 @@
       <c r="G23" s="63"/>
       <c r="H23" s="65">
         <f t="shared" si="0"/>
-        <v>-152681.14136708158</v>
+        <v>-1.1581606217616694E-3</v>
       </c>
       <c r="S23" s="1">
         <v>6</v>
@@ -15513,7 +15517,7 @@
         <v>-6.5564872263150669</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31">
       <c r="A24" s="61" t="s">
         <v>223</v>
       </c>
@@ -15527,7 +15531,7 @@
         <v>36.2149</v>
       </c>
       <c r="E24" s="69">
-        <v>36.150329999999997</v>
+        <v>36.15</v>
       </c>
       <c r="F24" s="63" t="s">
         <v>230</v>
@@ -15535,7 +15539,7 @@
       <c r="G24" s="63"/>
       <c r="H24" s="64">
         <f t="shared" si="0"/>
-        <v>-1.7860694494352838E-3</v>
+        <v>-1.7952143845090451E-3</v>
       </c>
       <c r="S24" s="1">
         <v>1</v>
@@ -15570,7 +15574,7 @@
         <v>1.6612172160990646E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31">
       <c r="A25" s="61" t="s">
         <v>223</v>
       </c>
@@ -15584,7 +15588,7 @@
         <v>55.974493000000002</v>
       </c>
       <c r="E25" s="69">
-        <v>55.874690000000001</v>
+        <v>55.87</v>
       </c>
       <c r="F25" s="63" t="s">
         <v>230</v>
@@ -15592,7 +15596,7 @@
       <c r="G25" s="63"/>
       <c r="H25" s="64">
         <f t="shared" si="0"/>
-        <v>-1.7861933551667386E-3</v>
+        <v>-1.8702881689637563E-3</v>
       </c>
       <c r="S25" s="1">
         <v>2</v>
@@ -15627,7 +15631,7 @@
         <v>0.80993384737238472</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31">
       <c r="A26" s="61" t="s">
         <v>223</v>
       </c>
@@ -15641,7 +15645,7 @@
         <v>51.153748</v>
       </c>
       <c r="E26" s="69">
-        <v>51.062539999999998</v>
+        <v>51.06</v>
       </c>
       <c r="F26" s="63" t="s">
         <v>230</v>
@@ -15649,7 +15653,7 @@
       <c r="G26" s="63"/>
       <c r="H26" s="64">
         <f t="shared" si="0"/>
-        <v>-1.78620178314674E-3</v>
+        <v>-1.8360360360359957E-3</v>
       </c>
       <c r="S26" s="1">
         <v>3</v>
@@ -15684,7 +15688,7 @@
         <v>0.11806283013723373</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31">
       <c r="A27" s="61" t="s">
         <v>224</v>
       </c>
@@ -15698,7 +15702,7 @@
         <v>5.7327260000000004</v>
       </c>
       <c r="E27" s="69">
-        <v>5.5672420000000002</v>
+        <v>5.57</v>
       </c>
       <c r="F27" s="63" t="s">
         <v>228</v>
@@ -15706,7 +15710,7 @@
       <c r="G27" s="63"/>
       <c r="H27" s="64">
         <f t="shared" si="0"/>
-        <v>-1.7863423217456852E-3</v>
+        <v>-1.2903052064632053E-3</v>
       </c>
       <c r="S27" s="1">
         <v>4</v>
@@ -15739,7 +15743,7 @@
         <v>51.15374766070407</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31">
       <c r="A28" s="61" t="s">
         <v>224</v>
       </c>
@@ -15753,7 +15757,7 @@
         <v>3.6994479999999998</v>
       </c>
       <c r="E28" s="69">
-        <v>3.6928519999999998</v>
+        <v>3.69</v>
       </c>
       <c r="F28" s="63" t="s">
         <v>228</v>
@@ -15761,7 +15765,7 @@
       <c r="G28" s="63"/>
       <c r="H28" s="64">
         <f t="shared" si="0"/>
-        <v>-1.7861533578925034E-3</v>
+        <v>-2.5604336043360165E-3</v>
       </c>
       <c r="S28" s="1">
         <v>5</v>
@@ -15796,7 +15800,7 @@
         <v>-4.9209052470295465</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31">
       <c r="A29" s="61" t="s">
         <v>224</v>
       </c>
@@ -15810,7 +15814,7 @@
         <v>16.269770000000001</v>
       </c>
       <c r="E29" s="69">
-        <v>16.240760000000002</v>
+        <v>16.239999999999998</v>
       </c>
       <c r="F29" s="63" t="s">
         <v>228</v>
@@ -15818,7 +15822,7 @@
       <c r="G29" s="63"/>
       <c r="H29" s="64">
         <f t="shared" si="0"/>
-        <v>-1.7863696033928237E-3</v>
+        <v>-1.8332512315271702E-3</v>
       </c>
       <c r="S29" s="1">
         <v>6</v>
@@ -15853,7 +15857,7 @@
         <v>1.9015444595589237E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31">
       <c r="A30" s="61" t="s">
         <v>224</v>
       </c>
@@ -15867,7 +15871,7 @@
         <v>13.206845</v>
       </c>
       <c r="E30" s="69">
-        <v>13.183299999999999</v>
+        <v>13.18</v>
       </c>
       <c r="F30" s="63" t="s">
         <v>228</v>
@@ -15875,7 +15879,7 @@
       <c r="G30" s="63"/>
       <c r="H30" s="64">
         <f t="shared" si="0"/>
-        <v>-1.7859716459460357E-3</v>
+        <v>-2.0367981790591645E-3</v>
       </c>
       <c r="S30" s="1">
         <v>1</v>
@@ -15910,7 +15914,7 @@
         <v>0.32675268400698876</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31">
       <c r="A31" s="61" t="s">
         <v>224</v>
       </c>
@@ -15924,7 +15928,7 @@
         <v>23.588162000000001</v>
       </c>
       <c r="E31" s="69">
-        <v>23.546099999999999</v>
+        <v>23.55</v>
       </c>
       <c r="F31" s="63" t="s">
         <v>228</v>
@@ -15932,7 +15936,7 @@
       <c r="G31" s="63"/>
       <c r="H31" s="64">
         <f t="shared" si="0"/>
-        <v>-1.7863680184829495E-3</v>
+        <v>-1.6204670912951086E-3</v>
       </c>
       <c r="S31" s="1">
         <v>2</v>
@@ -15967,7 +15971,7 @@
         <v>1.4589059353748777</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31">
       <c r="S32" s="1">
         <v>3</v>
       </c>
@@ -15999,7 +16003,7 @@
         <v>23.588162023184807</v>
       </c>
     </row>
-    <row r="33" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="19:24">
       <c r="S33" s="1">
         <v>4</v>
       </c>
@@ -16017,7 +16021,7 @@
         <v>0.69922129383209608</v>
       </c>
     </row>
-    <row r="34" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="19:24">
       <c r="S34" s="1">
         <v>5</v>
       </c>
@@ -16035,7 +16039,7 @@
         <v>0.80993384737238472</v>
       </c>
     </row>
-    <row r="35" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="19:24">
       <c r="S35" s="1">
         <v>6</v>
       </c>
@@ -16053,7 +16057,7 @@
         <v>0.32675268400698876</v>
       </c>
     </row>
-    <row r="36" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="19:24">
       <c r="S36" s="1">
         <v>1</v>
       </c>
@@ -16071,7 +16075,7 @@
         <v>-8.2850647939563586</v>
       </c>
     </row>
-    <row r="37" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="19:24">
       <c r="S37" s="1">
         <v>2</v>
       </c>
@@ -16089,7 +16093,7 @@
         <v>2.3004960969402646</v>
       </c>
     </row>
-    <row r="38" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="19:24">
       <c r="S38" s="1">
         <v>3</v>
       </c>
@@ -16107,7 +16111,7 @@
         <v>-10.067110011531941</v>
       </c>
     </row>
-    <row r="39" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="19:24">
       <c r="S39" s="1">
         <v>4</v>
       </c>
@@ -16125,7 +16129,7 @@
         <v>4.973132320845508E-2</v>
       </c>
     </row>
-    <row r="40" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="19:24">
       <c r="S40" s="1">
         <v>5</v>
       </c>
@@ -16143,7 +16147,7 @@
         <v>0.11806283013723373</v>
       </c>
     </row>
-    <row r="41" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="19:24">
       <c r="S41" s="1">
         <v>6</v>
       </c>
@@ -16161,7 +16165,7 @@
         <v>1.4589059353748777</v>
       </c>
     </row>
-    <row r="42" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="19:24">
       <c r="S42" s="42">
         <v>1</v>
       </c>
@@ -16177,7 +16181,7 @@
         <v>6.4732370062486293</v>
       </c>
     </row>
-    <row r="43" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="19:24">
       <c r="S43" s="1">
         <v>2</v>
       </c>
@@ -16193,7 +16197,7 @@
         <v>14.899464757295986</v>
       </c>
     </row>
-    <row r="44" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="19:24">
       <c r="S44" s="1">
         <v>3</v>
       </c>
@@ -16209,7 +16213,7 @@
         <v>10.609299296662067</v>
       </c>
     </row>
-    <row r="45" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="19:24">
       <c r="S45" s="1">
         <v>4</v>
       </c>
@@ -16228,7 +16232,7 @@
         <v>9.9700000000000006</v>
       </c>
     </row>
-    <row r="46" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="19:24">
       <c r="S46" s="1">
         <v>5</v>
       </c>
@@ -16244,7 +16248,7 @@
         <v>51.15374766070407</v>
       </c>
     </row>
-    <row r="47" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="19:24">
       <c r="S47" s="42">
         <v>6</v>
       </c>
@@ -16284,7 +16288,7 @@
       <selection pane="bottomLeft" activeCell="J4" sqref="J4:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="25"/>
     <col min="2" max="2" width="11.85546875" style="25" bestFit="1" customWidth="1"/>
@@ -16295,7 +16299,7 @@
     <col min="7" max="7" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="13" customFormat="1" ht="31.5">
       <c r="A1" s="35" t="s">
         <v>32</v>
       </c>
@@ -16318,7 +16322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="13" customFormat="1" ht="15.75">
       <c r="A2" s="37" t="s">
         <v>46</v>
       </c>
@@ -16329,7 +16333,7 @@
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="24" customFormat="1">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -16337,7 +16341,7 @@
       <c r="E3" s="23"/>
       <c r="F3" s="25"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="26">
         <v>1</v>
       </c>
@@ -16369,7 +16373,7 @@
         <v>0.4702921739999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="26">
         <v>1</v>
       </c>
@@ -16401,7 +16405,7 @@
         <v>0.73397339399999995</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="26">
         <v>1</v>
       </c>
@@ -16433,7 +16437,7 @@
         <v>0.24717726000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="26">
         <v>1</v>
       </c>
@@ -16465,7 +16469,7 @@
         <v>0.17434296000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="26">
         <v>1</v>
       </c>
@@ -16497,7 +16501,7 @@
         <v>0.11686617800000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="26">
         <v>1</v>
       </c>
@@ -16522,7 +16526,7 @@
         <v>1.8823200000000001E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="26">
         <v>1</v>
       </c>
@@ -16547,7 +16551,7 @@
         <v>3.2631720000000004E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="26">
         <v>1</v>
       </c>
@@ -16572,7 +16576,7 @@
         <v>5.9251719999999994E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="23.25">
       <c r="A12" s="26"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -16586,14 +16590,14 @@
         <v>0.4702921739999999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="26"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="28"/>
       <c r="E13" s="31"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="26">
         <v>4</v>
       </c>
@@ -16618,7 +16622,7 @@
         <v>0.35174138999999988</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="26">
         <v>4</v>
       </c>
@@ -16643,7 +16647,7 @@
         <v>0.22258235999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="26">
         <v>4</v>
       </c>
@@ -16668,7 +16672,7 @@
         <v>1.8670079999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="26">
         <v>4</v>
       </c>
@@ -16693,7 +16697,7 @@
         <v>0.12107570199999999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="26">
         <v>4</v>
       </c>
@@ -16718,7 +16722,7 @@
         <v>1.4951639999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="26">
         <v>4</v>
       </c>
@@ -16743,7 +16747,7 @@
         <v>1.8920000000000002E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="26">
         <v>4</v>
       </c>
@@ -16768,7 +16772,7 @@
         <v>1.7537520000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="26">
         <v>4</v>
       </c>
@@ -16793,7 +16797,7 @@
         <v>3.1795500000000002E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="23.25">
       <c r="A22" s="26"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
@@ -16806,13 +16810,13 @@
         <v>0.73397339399999995</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="26"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="26">
         <v>6</v>
       </c>
@@ -16837,7 +16841,7 @@
         <v>9.2851000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="26">
         <v>6</v>
       </c>
@@ -16862,7 +16866,7 @@
         <v>6.8790479999999987E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="26">
         <v>6</v>
       </c>
@@ -16887,7 +16891,7 @@
         <v>8.3969600000000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="26">
         <v>6</v>
       </c>
@@ -16912,7 +16916,7 @@
         <v>3.6941212000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="26">
         <v>6</v>
       </c>
@@ -16937,7 +16941,7 @@
         <v>4.4366079999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="26">
         <v>6</v>
       </c>
@@ -16962,7 +16966,7 @@
         <v>2.2528000000000002E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="26">
         <v>6</v>
       </c>
@@ -16987,7 +16991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="26">
         <v>6</v>
       </c>
@@ -17012,7 +17016,7 @@
         <v>3.5738472E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="23.25">
       <c r="A32" s="26"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -17025,13 +17029,13 @@
         <v>0.24717726000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="26"/>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
       <c r="D33" s="28"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="26">
         <v>11</v>
       </c>
@@ -17056,7 +17060,7 @@
         <v>8.3948281999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="26">
         <v>11</v>
       </c>
@@ -17081,7 +17085,7 @@
         <v>4.6054184000000005E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="26">
         <v>11</v>
       </c>
@@ -17106,7 +17110,7 @@
         <v>2.4592040000000004E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="26">
         <v>11</v>
       </c>
@@ -17131,7 +17135,7 @@
         <v>2.7221347999999996E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="26">
         <v>11</v>
       </c>
@@ -17156,7 +17160,7 @@
         <v>6.9272060000000017E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="26">
         <v>11</v>
       </c>
@@ -17181,7 +17185,7 @@
         <v>4.9808000000000008E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="26">
         <v>11</v>
       </c>
@@ -17206,7 +17210,7 @@
         <v>4.07088E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="26">
         <v>11</v>
       </c>
@@ -17231,7 +17235,7 @@
         <v>7.2758400000000004E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="23.25">
       <c r="A42" s="26"/>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
@@ -17245,14 +17249,14 @@
         <v>0.17434296000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
       <c r="D43" s="28"/>
       <c r="E43" s="31"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="26">
         <v>12</v>
       </c>
@@ -17277,7 +17281,7 @@
         <v>4.7149344000000003E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="26">
         <v>12</v>
       </c>
@@ -17302,7 +17306,7 @@
         <v>1.8833760000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="26">
         <v>12</v>
       </c>
@@ -17327,7 +17331,7 @@
         <v>4.1131199999999996E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="26">
         <v>12</v>
       </c>
@@ -17352,7 +17356,7 @@
         <v>3.5445410000000011E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="26">
         <v>12</v>
       </c>
@@ -17377,7 +17381,7 @@
         <v>3.1132200000000005E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="26">
         <v>12</v>
       </c>
@@ -17402,7 +17406,7 @@
         <v>8.4282000000000004E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="26">
         <v>12</v>
       </c>
@@ -17427,7 +17431,7 @@
         <v>5.8660800000000007E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="26">
         <v>12</v>
       </c>
@@ -17452,7 +17456,7 @@
         <v>1.0342331999999999E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="24" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" s="24" customFormat="1" ht="23.25">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
@@ -17467,7 +17471,7 @@
         <v>0.11686617800000001</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="23.25">
       <c r="C54" s="34" t="s">
         <v>45</v>
       </c>
@@ -17490,13 +17494,13 @@
       <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="54.28515625" customWidth="1"/>
     <col min="4" max="8" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="13" customFormat="1">
       <c r="B1" s="13" t="s">
         <v>210</v>
       </c>
@@ -17519,7 +17523,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -17545,7 +17549,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1">
       <c r="B3" t="s">
         <v>201</v>
       </c>
@@ -17568,7 +17572,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1">
       <c r="B4" t="s">
         <v>199</v>
       </c>
@@ -17591,7 +17595,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1">
       <c r="B5" t="s">
         <v>197</v>
       </c>
@@ -17614,7 +17618,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1">
       <c r="B6" t="s">
         <v>195</v>
       </c>
@@ -17637,7 +17641,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1">
       <c r="B7" t="s">
         <v>193</v>
       </c>
@@ -17660,7 +17664,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -17686,7 +17690,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -17712,7 +17716,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -17738,7 +17742,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -17764,7 +17768,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -17790,7 +17794,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1">
       <c r="B13" t="s">
         <v>178</v>
       </c>
@@ -17813,7 +17817,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -17839,7 +17843,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1">
       <c r="B15" t="s">
         <v>174</v>
       </c>
@@ -17862,7 +17866,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1">
       <c r="B16" t="s">
         <v>172</v>
       </c>
@@ -17885,7 +17889,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1">
       <c r="B17" t="s">
         <v>170</v>
       </c>
@@ -17908,7 +17912,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1">
       <c r="B18" t="s">
         <v>168</v>
       </c>
@@ -17931,7 +17935,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1">
       <c r="B19" t="s">
         <v>166</v>
       </c>
@@ -17954,7 +17958,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1">
       <c r="B20" t="s">
         <v>164</v>
       </c>
@@ -17977,7 +17981,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1">
       <c r="B21" t="s">
         <v>162</v>
       </c>
@@ -18000,7 +18004,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1">
       <c r="B22" t="s">
         <v>160</v>
       </c>
@@ -18023,7 +18027,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1">
       <c r="B23" t="s">
         <v>158</v>
       </c>
@@ -18046,7 +18050,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1">
       <c r="B24" t="s">
         <v>156</v>
       </c>
@@ -18069,7 +18073,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1">
       <c r="B25" t="s">
         <v>154</v>
       </c>
@@ -18092,7 +18096,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1">
       <c r="B26" t="s">
         <v>152</v>
       </c>
@@ -18115,7 +18119,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1">
       <c r="B27" t="s">
         <v>150</v>
       </c>
@@ -18138,7 +18142,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1">
       <c r="B28" t="s">
         <v>148</v>
       </c>
@@ -18161,7 +18165,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1">
       <c r="B29" t="s">
         <v>146</v>
       </c>
@@ -18184,7 +18188,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1">
       <c r="B30" t="s">
         <v>144</v>
       </c>
@@ -18207,7 +18211,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -18233,7 +18237,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -18259,7 +18263,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -18285,7 +18289,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1">
       <c r="B34" t="s">
         <v>135</v>
       </c>
@@ -18308,7 +18312,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -18334,7 +18338,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1">
       <c r="B36" t="s">
         <v>131</v>
       </c>
@@ -18357,7 +18361,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -18383,7 +18387,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1">
       <c r="B38" t="s">
         <v>127</v>
       </c>
@@ -18406,7 +18410,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1">
       <c r="B39" t="s">
         <v>125</v>
       </c>
@@ -18429,7 +18433,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1">
       <c r="B40" t="s">
         <v>123</v>
       </c>
@@ -18452,7 +18456,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1">
       <c r="B41" t="s">
         <v>121</v>
       </c>
@@ -18475,7 +18479,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1">
       <c r="B42" t="s">
         <v>119</v>
       </c>
@@ -18498,7 +18502,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1">
       <c r="B43" t="s">
         <v>117</v>
       </c>
@@ -18521,7 +18525,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1">
       <c r="B44" t="s">
         <v>115</v>
       </c>
@@ -18544,7 +18548,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1">
       <c r="B45" t="s">
         <v>113</v>
       </c>
@@ -18567,7 +18571,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -18593,7 +18597,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1">
       <c r="B47" t="s">
         <v>107</v>
       </c>
@@ -18616,7 +18620,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1">
       <c r="B48" t="s">
         <v>104</v>
       </c>
@@ -18639,7 +18643,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1">
       <c r="B49" t="s">
         <v>101</v>
       </c>
@@ -18662,7 +18666,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1">
       <c r="B50" t="s">
         <v>99</v>
       </c>
@@ -18685,7 +18689,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -18711,7 +18715,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -18737,7 +18741,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -18763,7 +18767,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -18789,7 +18793,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -18815,7 +18819,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -18841,7 +18845,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1">
       <c r="B57" t="s">
         <v>83</v>
       </c>
@@ -18864,7 +18868,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1">
       <c r="B58" t="s">
         <v>80</v>
       </c>
@@ -18887,7 +18891,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1">
       <c r="B59" t="s">
         <v>78</v>
       </c>
@@ -18910,7 +18914,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1">
       <c r="B60" t="s">
         <v>75</v>
       </c>
@@ -18933,7 +18937,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1">
       <c r="B61" t="s">
         <v>73</v>
       </c>
@@ -18956,7 +18960,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1">
       <c r="B62" t="s">
         <v>70</v>
       </c>
@@ -18979,7 +18983,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>68</v>
       </c>

--- a/Data/flow/NO3-N Loss.xlsx
+++ b/Data/flow/NO3-N Loss.xlsx
@@ -8652,7 +8652,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B250" sqref="B250"/>
+      <selection pane="bottomLeft" activeCell="H183" sqref="H183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/flow/NO3-N Loss.xlsx
+++ b/Data/flow/NO3-N Loss.xlsx
@@ -20,14 +20,14 @@
     <sheet name="rotations" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$A$1:$L$1023</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">rotations!$A$1:$H$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SERF!$S$16:$W$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sites!$A$2:$D$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2128,7 +2128,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AG1:AJ8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="F2">
         <f>Data!F2</f>
-        <v>29.855460999999998</v>
+        <v>9.1024758000000006</v>
       </c>
       <c r="G2" s="24">
         <f>Data!K2</f>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="F8">
         <f>Data!F8</f>
-        <v>11.148345000000001</v>
+        <v>14.461128199999999</v>
       </c>
       <c r="G8" s="24">
         <f>Data!K8</f>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="F14">
         <f>Data!F14</f>
-        <v>20.605730000000001</v>
+        <v>23.890933</v>
       </c>
       <c r="G14" s="24">
         <f>Data!K14</f>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="F20">
         <f>Data!F20</f>
-        <v>21.997187</v>
+        <v>37.126836699999998</v>
       </c>
       <c r="G20" s="24">
         <f>Data!K20</f>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="F26">
         <f>Data!F26</f>
-        <v>6.4732370000000001</v>
+        <v>10.623893900000001</v>
       </c>
       <c r="G26" s="24">
         <f>Data!K26</f>
@@ -40663,11 +40663,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L1023"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H249" sqref="H249"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40737,8 +40738,8 @@
       <c r="E2">
         <v>2011</v>
       </c>
-      <c r="F2" s="49">
-        <v>29.855460999999998</v>
+      <c r="F2" s="56">
+        <v>9.1024758000000006</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -40966,7 +40967,7 @@
         <v>2012</v>
       </c>
       <c r="F8" s="56">
-        <v>11.148345000000001</v>
+        <v>14.461128199999999</v>
       </c>
       <c r="K8">
         <v>41.193800000000003</v>
@@ -41122,7 +41123,7 @@
         <v>2013</v>
       </c>
       <c r="F14" s="56">
-        <v>20.605730000000001</v>
+        <v>23.890933</v>
       </c>
       <c r="K14">
         <v>41.193800000000003</v>
@@ -41278,7 +41279,7 @@
         <v>2014</v>
       </c>
       <c r="F20" s="56">
-        <v>21.997187</v>
+        <v>37.126836699999998</v>
       </c>
       <c r="K20">
         <v>41.193800000000003</v>
@@ -41434,7 +41435,7 @@
         <v>2015</v>
       </c>
       <c r="F26" s="56">
-        <v>6.4732370000000001</v>
+        <v>10.623893900000001</v>
       </c>
       <c r="K26">
         <v>41.193800000000003</v>
@@ -47605,7 +47606,7 @@
         <v>-95.538300000000007</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>231</v>
       </c>
@@ -47631,7 +47632,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>231</v>
       </c>
@@ -47657,7 +47658,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>231</v>
       </c>
@@ -47683,7 +47684,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>231</v>
       </c>
@@ -47709,7 +47710,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>231</v>
       </c>
@@ -47735,7 +47736,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>231</v>
       </c>
@@ -47761,7 +47762,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>231</v>
       </c>
@@ -47787,7 +47788,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>231</v>
       </c>
@@ -47813,7 +47814,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>231</v>
       </c>
@@ -47839,7 +47840,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>231</v>
       </c>
@@ -47865,7 +47866,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>231</v>
       </c>
@@ -47891,7 +47892,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>231</v>
       </c>
@@ -47917,7 +47918,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>231</v>
       </c>
@@ -47943,7 +47944,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>231</v>
       </c>
@@ -47969,7 +47970,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>231</v>
       </c>
@@ -47995,7 +47996,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>231</v>
       </c>
@@ -48021,7 +48022,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>231</v>
       </c>
@@ -48047,7 +48048,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>231</v>
       </c>
@@ -48073,7 +48074,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>231</v>
       </c>
@@ -48099,7 +48100,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>231</v>
       </c>
@@ -48125,7 +48126,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>231</v>
       </c>
@@ -48151,7 +48152,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>231</v>
       </c>
@@ -48177,7 +48178,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>231</v>
       </c>
@@ -48203,7 +48204,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>231</v>
       </c>
@@ -48229,7 +48230,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>231</v>
       </c>
@@ -48255,7 +48256,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>231</v>
       </c>
@@ -48281,7 +48282,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>231</v>
       </c>
@@ -48307,7 +48308,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>231</v>
       </c>
@@ -48333,7 +48334,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>231</v>
       </c>
@@ -48359,7 +48360,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>231</v>
       </c>
@@ -48385,7 +48386,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>231</v>
       </c>
@@ -48411,7 +48412,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>231</v>
       </c>
@@ -48437,7 +48438,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>231</v>
       </c>
@@ -48463,7 +48464,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>231</v>
       </c>
@@ -48489,7 +48490,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>231</v>
       </c>
@@ -48515,7 +48516,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>231</v>
       </c>
@@ -48541,7 +48542,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>231</v>
       </c>
@@ -48567,7 +48568,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>231</v>
       </c>
@@ -48593,7 +48594,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>231</v>
       </c>
@@ -48619,7 +48620,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>231</v>
       </c>
@@ -48645,7 +48646,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>231</v>
       </c>
@@ -48671,7 +48672,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>231</v>
       </c>
@@ -48697,7 +48698,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>231</v>
       </c>
@@ -48723,7 +48724,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>231</v>
       </c>
@@ -48749,7 +48750,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>231</v>
       </c>
@@ -48775,7 +48776,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>231</v>
       </c>
@@ -48801,7 +48802,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>231</v>
       </c>
@@ -48827,7 +48828,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>231</v>
       </c>
@@ -48853,7 +48854,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>231</v>
       </c>
@@ -48879,7 +48880,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>231</v>
       </c>
@@ -48905,7 +48906,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>231</v>
       </c>
@@ -48931,7 +48932,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>231</v>
       </c>
@@ -48957,7 +48958,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>231</v>
       </c>
@@ -48983,7 +48984,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>231</v>
       </c>
@@ -49009,7 +49010,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>231</v>
       </c>
@@ -49035,7 +49036,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>231</v>
       </c>
@@ -49061,7 +49062,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>231</v>
       </c>
@@ -49087,7 +49088,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>231</v>
       </c>
@@ -49113,7 +49114,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>231</v>
       </c>
@@ -49139,7 +49140,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>231</v>
       </c>
@@ -49165,7 +49166,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>231</v>
       </c>
@@ -49191,7 +49192,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>231</v>
       </c>
@@ -49217,7 +49218,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>231</v>
       </c>
@@ -49243,7 +49244,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>231</v>
       </c>
@@ -49269,7 +49270,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>231</v>
       </c>
@@ -49295,7 +49296,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>231</v>
       </c>
@@ -49321,7 +49322,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>231</v>
       </c>
@@ -49347,7 +49348,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>231</v>
       </c>
@@ -49373,7 +49374,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>231</v>
       </c>
@@ -49399,7 +49400,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>231</v>
       </c>
@@ -49425,7 +49426,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>231</v>
       </c>
@@ -49451,7 +49452,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>231</v>
       </c>
@@ -49477,7 +49478,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>231</v>
       </c>
@@ -49503,7 +49504,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>231</v>
       </c>
@@ -49529,7 +49530,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>231</v>
       </c>
@@ -49555,7 +49556,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>231</v>
       </c>
@@ -49581,7 +49582,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>231</v>
       </c>
@@ -49607,7 +49608,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>231</v>
       </c>
@@ -49633,7 +49634,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>231</v>
       </c>
@@ -49659,7 +49660,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>231</v>
       </c>
@@ -49685,7 +49686,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>231</v>
       </c>
@@ -49711,7 +49712,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>231</v>
       </c>
@@ -49737,7 +49738,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>231</v>
       </c>
@@ -49763,7 +49764,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>231</v>
       </c>
@@ -49789,7 +49790,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>231</v>
       </c>
@@ -49815,7 +49816,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>231</v>
       </c>
@@ -49841,7 +49842,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>231</v>
       </c>
@@ -49867,7 +49868,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>231</v>
       </c>
@@ -49893,7 +49894,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>231</v>
       </c>
@@ -49919,7 +49920,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>231</v>
       </c>
@@ -49945,7 +49946,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>231</v>
       </c>
@@ -49971,7 +49972,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>231</v>
       </c>
@@ -49997,7 +49998,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>231</v>
       </c>
@@ -50023,7 +50024,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>231</v>
       </c>
@@ -50049,7 +50050,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>231</v>
       </c>
@@ -50075,7 +50076,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>231</v>
       </c>
@@ -50101,7 +50102,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>231</v>
       </c>
@@ -50127,7 +50128,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>231</v>
       </c>
@@ -50153,7 +50154,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>231</v>
       </c>
@@ -50179,7 +50180,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>231</v>
       </c>
@@ -50205,7 +50206,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>231</v>
       </c>
@@ -50231,7 +50232,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>231</v>
       </c>
@@ -50257,7 +50258,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>231</v>
       </c>
@@ -50283,7 +50284,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>231</v>
       </c>
@@ -50309,7 +50310,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>231</v>
       </c>
@@ -50335,7 +50336,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>231</v>
       </c>
@@ -50361,7 +50362,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>231</v>
       </c>
@@ -50387,7 +50388,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>231</v>
       </c>
@@ -50413,7 +50414,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>231</v>
       </c>
@@ -50439,7 +50440,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>231</v>
       </c>
@@ -50465,7 +50466,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>231</v>
       </c>
@@ -50491,7 +50492,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>231</v>
       </c>
@@ -50517,7 +50518,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>231</v>
       </c>
@@ -50543,7 +50544,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>231</v>
       </c>
@@ -50569,7 +50570,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>231</v>
       </c>
@@ -50595,7 +50596,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>231</v>
       </c>
@@ -50621,7 +50622,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>231</v>
       </c>
@@ -50647,7 +50648,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>231</v>
       </c>
@@ -50673,7 +50674,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>231</v>
       </c>
@@ -50699,7 +50700,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>231</v>
       </c>
@@ -50725,7 +50726,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>231</v>
       </c>
@@ -50751,7 +50752,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>231</v>
       </c>
@@ -50777,7 +50778,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>231</v>
       </c>
@@ -50803,7 +50804,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>231</v>
       </c>
@@ -50829,7 +50830,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>231</v>
       </c>
@@ -50855,7 +50856,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>231</v>
       </c>
@@ -50881,7 +50882,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>231</v>
       </c>
@@ -50907,7 +50908,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>231</v>
       </c>
@@ -50933,7 +50934,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>231</v>
       </c>
@@ -50959,7 +50960,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>231</v>
       </c>
@@ -50985,7 +50986,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>231</v>
       </c>
@@ -51011,7 +51012,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>231</v>
       </c>
@@ -51037,7 +51038,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>231</v>
       </c>
@@ -51063,7 +51064,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>231</v>
       </c>
@@ -51089,7 +51090,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>231</v>
       </c>
@@ -51115,7 +51116,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>231</v>
       </c>
@@ -51141,7 +51142,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>231</v>
       </c>
@@ -51167,7 +51168,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>231</v>
       </c>
@@ -51193,7 +51194,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>231</v>
       </c>
@@ -51219,7 +51220,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>231</v>
       </c>
@@ -51245,7 +51246,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>231</v>
       </c>
@@ -51271,7 +51272,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>231</v>
       </c>
@@ -51297,7 +51298,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>231</v>
       </c>
@@ -51323,7 +51324,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>231</v>
       </c>
@@ -51349,7 +51350,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>231</v>
       </c>
@@ -51375,7 +51376,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>231</v>
       </c>
@@ -51401,7 +51402,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>231</v>
       </c>
@@ -51427,7 +51428,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>231</v>
       </c>
@@ -51453,7 +51454,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>231</v>
       </c>
@@ -51479,7 +51480,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>231</v>
       </c>
@@ -51505,7 +51506,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>231</v>
       </c>
@@ -51531,7 +51532,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>231</v>
       </c>
@@ -51557,7 +51558,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>231</v>
       </c>
@@ -51583,7 +51584,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>231</v>
       </c>
@@ -51609,7 +51610,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>231</v>
       </c>
@@ -51635,7 +51636,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>231</v>
       </c>
@@ -51661,7 +51662,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>231</v>
       </c>
@@ -51687,7 +51688,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>231</v>
       </c>
@@ -51713,7 +51714,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>231</v>
       </c>
@@ -51739,7 +51740,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>231</v>
       </c>
@@ -51765,7 +51766,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>231</v>
       </c>
@@ -51791,7 +51792,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>231</v>
       </c>
@@ -51817,7 +51818,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>231</v>
       </c>
@@ -51843,7 +51844,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>231</v>
       </c>
@@ -51869,7 +51870,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>231</v>
       </c>
@@ -51895,7 +51896,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>231</v>
       </c>
@@ -51921,7 +51922,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>231</v>
       </c>
@@ -51947,7 +51948,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>231</v>
       </c>
@@ -51973,7 +51974,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>231</v>
       </c>
@@ -51999,7 +52000,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>231</v>
       </c>
@@ -52025,7 +52026,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>231</v>
       </c>
@@ -52051,7 +52052,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>231</v>
       </c>
@@ -52077,7 +52078,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>231</v>
       </c>
@@ -52103,7 +52104,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>231</v>
       </c>
@@ -52129,7 +52130,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>231</v>
       </c>
@@ -52155,7 +52156,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>231</v>
       </c>
@@ -52181,7 +52182,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>231</v>
       </c>
@@ -52207,7 +52208,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>231</v>
       </c>
@@ -52233,7 +52234,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>231</v>
       </c>
@@ -52259,7 +52260,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>231</v>
       </c>
@@ -52285,7 +52286,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>231</v>
       </c>
@@ -52311,7 +52312,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>231</v>
       </c>
@@ -52337,7 +52338,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>231</v>
       </c>
@@ -52363,7 +52364,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>231</v>
       </c>
@@ -52389,7 +52390,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>231</v>
       </c>
@@ -52415,7 +52416,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>231</v>
       </c>
@@ -52441,7 +52442,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>231</v>
       </c>
@@ -52464,7 +52465,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>231</v>
       </c>
@@ -52487,7 +52488,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>231</v>
       </c>
@@ -52510,7 +52511,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>231</v>
       </c>
@@ -52533,7 +52534,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>231</v>
       </c>
@@ -52556,7 +52557,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>231</v>
       </c>
@@ -52579,7 +52580,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>231</v>
       </c>
@@ -52602,7 +52603,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>231</v>
       </c>
@@ -52625,7 +52626,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>231</v>
       </c>
@@ -52648,7 +52649,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>231</v>
       </c>
@@ -52671,7 +52672,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>231</v>
       </c>
@@ -52694,7 +52695,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>231</v>
       </c>
@@ -52717,7 +52718,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>231</v>
       </c>
@@ -52740,7 +52741,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>231</v>
       </c>
@@ -52763,7 +52764,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>231</v>
       </c>
@@ -52786,7 +52787,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>231</v>
       </c>
@@ -52809,7 +52810,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>231</v>
       </c>
@@ -52832,7 +52833,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>231</v>
       </c>
@@ -52855,7 +52856,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>231</v>
       </c>
@@ -52878,7 +52879,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>231</v>
       </c>
@@ -52901,7 +52902,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>231</v>
       </c>
@@ -52924,7 +52925,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>231</v>
       </c>
@@ -52947,7 +52948,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>231</v>
       </c>
@@ -52970,7 +52971,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>231</v>
       </c>
@@ -52993,7 +52994,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>231</v>
       </c>
@@ -53016,7 +53017,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>231</v>
       </c>
@@ -53039,7 +53040,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>231</v>
       </c>
@@ -53062,7 +53063,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>231</v>
       </c>
@@ -53085,7 +53086,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>231</v>
       </c>
@@ -53108,7 +53109,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>231</v>
       </c>
@@ -53131,7 +53132,7 @@
         <v>-95.61</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>231</v>
       </c>
@@ -53157,7 +53158,7 @@
         <v>-95.54</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>231</v>
       </c>
@@ -53183,7 +53184,7 @@
         <v>-95.54</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>231</v>
       </c>
@@ -53209,7 +53210,7 @@
         <v>-93.66</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>231</v>
       </c>
@@ -53235,7 +53236,7 @@
         <v>-93.66</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>231</v>
       </c>
@@ -53261,7 +53262,7 @@
         <v>-93.66</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>231</v>
       </c>
@@ -53287,7 +53288,7 @@
         <v>-93.66</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>241</v>
       </c>
@@ -53313,7 +53314,7 @@
         <v>-88.186000000000007</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>241</v>
       </c>
@@ -53339,7 +53340,7 @@
         <v>-88.186000000000007</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>241</v>
       </c>
@@ -53365,7 +53366,7 @@
         <v>-88.186000000000007</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>241</v>
       </c>
@@ -53391,7 +53392,7 @@
         <v>-88.186000000000007</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>234</v>
       </c>
@@ -53417,7 +53418,7 @@
         <v>-84.974999999999994</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>234</v>
       </c>
@@ -53443,7 +53444,7 @@
         <v>-84.974999999999994</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>234</v>
       </c>
@@ -53469,7 +53470,7 @@
         <v>-84.974999999999994</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>234</v>
       </c>
@@ -53495,7 +53496,7 @@
         <v>-84.974999999999994</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>235</v>
       </c>
@@ -53521,7 +53522,7 @@
         <v>-95.26</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>235</v>
       </c>
@@ -53547,7 +53548,7 @@
         <v>-95.26</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>235</v>
       </c>
@@ -53573,7 +53574,7 @@
         <v>-95.26</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>235</v>
       </c>
@@ -53599,7 +53600,7 @@
         <v>-95.26</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>235</v>
       </c>
@@ -53625,7 +53626,7 @@
         <v>-95.26</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>235</v>
       </c>
@@ -53651,7 +53652,7 @@
         <v>-95.26</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>235</v>
       </c>
@@ -53677,7 +53678,7 @@
         <v>-95.26</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>235</v>
       </c>
@@ -53703,7 +53704,7 @@
         <v>-95.26</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>235</v>
       </c>
@@ -53729,7 +53730,7 @@
         <v>-95.26</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>235</v>
       </c>
@@ -53755,7 +53756,7 @@
         <v>-95.26</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>235</v>
       </c>
@@ -53781,7 +53782,7 @@
         <v>-95.26</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>235</v>
       </c>
@@ -53807,7 +53808,7 @@
         <v>-95.26</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>241</v>
       </c>
@@ -53833,7 +53834,7 @@
         <v>-88.2</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>241</v>
       </c>
@@ -53859,7 +53860,7 @@
         <v>-88.2</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>241</v>
       </c>
@@ -53885,7 +53886,7 @@
         <v>-88.2</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>241</v>
       </c>
@@ -53911,7 +53912,7 @@
         <v>-88.2</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>241</v>
       </c>
@@ -53937,7 +53938,7 @@
         <v>-88.2</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>241</v>
       </c>
@@ -53963,7 +53964,7 @@
         <v>-88.2</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>241</v>
       </c>
@@ -53989,7 +53990,7 @@
         <v>-88.2</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>241</v>
       </c>
@@ -54015,7 +54016,7 @@
         <v>-88.2</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>241</v>
       </c>
@@ -54041,7 +54042,7 @@
         <v>-88.2</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>231</v>
       </c>
@@ -54067,7 +54068,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>231</v>
       </c>
@@ -54093,7 +54094,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>231</v>
       </c>
@@ -54119,7 +54120,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>231</v>
       </c>
@@ -54145,7 +54146,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>231</v>
       </c>
@@ -54171,7 +54172,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>231</v>
       </c>
@@ -54197,7 +54198,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>231</v>
       </c>
@@ -54223,7 +54224,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>231</v>
       </c>
@@ -54249,7 +54250,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>231</v>
       </c>
@@ -54275,7 +54276,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>231</v>
       </c>
@@ -54301,7 +54302,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>231</v>
       </c>
@@ -54327,7 +54328,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>231</v>
       </c>
@@ -54353,7 +54354,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>231</v>
       </c>
@@ -54379,7 +54380,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>231</v>
       </c>
@@ -54405,7 +54406,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>231</v>
       </c>
@@ -54431,7 +54432,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>231</v>
       </c>
@@ -54457,7 +54458,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>231</v>
       </c>
@@ -54483,7 +54484,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>231</v>
       </c>
@@ -54509,7 +54510,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>231</v>
       </c>
@@ -54535,7 +54536,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>231</v>
       </c>
@@ -54561,7 +54562,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>231</v>
       </c>
@@ -54587,7 +54588,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>231</v>
       </c>
@@ -54613,7 +54614,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>231</v>
       </c>
@@ -54639,7 +54640,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>231</v>
       </c>
@@ -54665,7 +54666,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>231</v>
       </c>
@@ -54691,7 +54692,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>231</v>
       </c>
@@ -54717,7 +54718,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>231</v>
       </c>
@@ -54743,7 +54744,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>231</v>
       </c>
@@ -54769,7 +54770,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>231</v>
       </c>
@@ -54795,7 +54796,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>231</v>
       </c>
@@ -54821,7 +54822,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>231</v>
       </c>
@@ -54847,7 +54848,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>231</v>
       </c>
@@ -54873,7 +54874,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>231</v>
       </c>
@@ -54899,7 +54900,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>231</v>
       </c>
@@ -54925,7 +54926,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>231</v>
       </c>
@@ -54951,7 +54952,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>231</v>
       </c>
@@ -54977,7 +54978,7 @@
         <v>-93.6</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>231</v>
       </c>
@@ -55003,7 +55004,7 @@
         <v>-93.6</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>231</v>
       </c>
@@ -55029,7 +55030,7 @@
         <v>-93.6</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>231</v>
       </c>
@@ -55055,7 +55056,7 @@
         <v>-93.6</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>231</v>
       </c>
@@ -55081,7 +55082,7 @@
         <v>-93.6</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>231</v>
       </c>
@@ -55107,7 +55108,7 @@
         <v>-93.6</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>231</v>
       </c>
@@ -55133,7 +55134,7 @@
         <v>-93.6</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>231</v>
       </c>
@@ -55159,7 +55160,7 @@
         <v>-93.6</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>231</v>
       </c>
@@ -55185,7 +55186,7 @@
         <v>-93.6</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>231</v>
       </c>
@@ -55211,7 +55212,7 @@
         <v>-93.6</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>231</v>
       </c>
@@ -55237,7 +55238,7 @@
         <v>-93.6</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>231</v>
       </c>
@@ -55263,7 +55264,7 @@
         <v>-93.6</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>231</v>
       </c>
@@ -55289,7 +55290,7 @@
         <v>-93.6</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>231</v>
       </c>
@@ -55315,7 +55316,7 @@
         <v>-93.6</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>231</v>
       </c>
@@ -55341,7 +55342,7 @@
         <v>-93.6</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>231</v>
       </c>
@@ -55367,7 +55368,7 @@
         <v>-93.6</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>231</v>
       </c>
@@ -55393,7 +55394,7 @@
         <v>-93.6</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>231</v>
       </c>
@@ -55419,7 +55420,7 @@
         <v>-93.6</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>231</v>
       </c>
@@ -55445,7 +55446,7 @@
         <v>-93.6</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>231</v>
       </c>
@@ -55471,7 +55472,7 @@
         <v>-93.6</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>231</v>
       </c>
@@ -55497,7 +55498,7 @@
         <v>-93.6</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>231</v>
       </c>
@@ -55523,7 +55524,7 @@
         <v>-93.6</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>231</v>
       </c>
@@ -55549,7 +55550,7 @@
         <v>-93.6</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>231</v>
       </c>
@@ -55575,7 +55576,7 @@
         <v>-93.6</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>241</v>
       </c>
@@ -55601,7 +55602,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>241</v>
       </c>
@@ -55627,7 +55628,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>241</v>
       </c>
@@ -55653,7 +55654,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>241</v>
       </c>
@@ -55679,7 +55680,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>241</v>
       </c>
@@ -55705,7 +55706,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>241</v>
       </c>
@@ -55731,7 +55732,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>241</v>
       </c>
@@ -55757,7 +55758,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>241</v>
       </c>
@@ -55783,7 +55784,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>241</v>
       </c>
@@ -55809,7 +55810,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>241</v>
       </c>
@@ -55835,7 +55836,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>241</v>
       </c>
@@ -55861,7 +55862,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>241</v>
       </c>
@@ -55887,7 +55888,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>241</v>
       </c>
@@ -55913,7 +55914,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>241</v>
       </c>
@@ -55939,7 +55940,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>241</v>
       </c>
@@ -55965,7 +55966,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>241</v>
       </c>
@@ -55991,7 +55992,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>241</v>
       </c>
@@ -56017,7 +56018,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>241</v>
       </c>
@@ -56043,7 +56044,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>241</v>
       </c>
@@ -56069,7 +56070,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>241</v>
       </c>
@@ -56095,7 +56096,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>241</v>
       </c>
@@ -56121,7 +56122,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>241</v>
       </c>
@@ -56147,7 +56148,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>241</v>
       </c>
@@ -56173,7 +56174,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>241</v>
       </c>
@@ -56199,7 +56200,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>241</v>
       </c>
@@ -56225,7 +56226,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>241</v>
       </c>
@@ -56251,7 +56252,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>241</v>
       </c>
@@ -56277,7 +56278,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>241</v>
       </c>
@@ -56303,7 +56304,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>241</v>
       </c>
@@ -56329,7 +56330,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>241</v>
       </c>
@@ -56355,7 +56356,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>241</v>
       </c>
@@ -56381,7 +56382,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>241</v>
       </c>
@@ -56407,7 +56408,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>241</v>
       </c>
@@ -56433,7 +56434,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>241</v>
       </c>
@@ -56459,7 +56460,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>231</v>
       </c>
@@ -56485,7 +56486,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>231</v>
       </c>
@@ -56511,7 +56512,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>231</v>
       </c>
@@ -56537,7 +56538,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>231</v>
       </c>
@@ -56563,7 +56564,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>231</v>
       </c>
@@ -56589,7 +56590,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>231</v>
       </c>
@@ -56615,7 +56616,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>231</v>
       </c>
@@ -56641,7 +56642,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>231</v>
       </c>
@@ -56667,7 +56668,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>231</v>
       </c>
@@ -56693,7 +56694,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>231</v>
       </c>
@@ -56719,7 +56720,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>231</v>
       </c>
@@ -56745,7 +56746,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>231</v>
       </c>
@@ -56771,7 +56772,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>231</v>
       </c>
@@ -56797,7 +56798,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>231</v>
       </c>
@@ -56823,7 +56824,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>231</v>
       </c>
@@ -56849,7 +56850,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>231</v>
       </c>
@@ -56875,7 +56876,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>231</v>
       </c>
@@ -56901,7 +56902,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>231</v>
       </c>
@@ -56927,7 +56928,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>231</v>
       </c>
@@ -56953,7 +56954,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>231</v>
       </c>
@@ -56979,7 +56980,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>231</v>
       </c>
@@ -57005,7 +57006,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>231</v>
       </c>
@@ -57031,7 +57032,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>231</v>
       </c>
@@ -57057,7 +57058,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>231</v>
       </c>
@@ -57083,7 +57084,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>231</v>
       </c>
@@ -57109,7 +57110,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>231</v>
       </c>
@@ -57135,7 +57136,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>231</v>
       </c>
@@ -57161,7 +57162,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>231</v>
       </c>
@@ -57187,7 +57188,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>231</v>
       </c>
@@ -57213,7 +57214,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>231</v>
       </c>
@@ -57239,7 +57240,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>231</v>
       </c>
@@ -57265,7 +57266,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>231</v>
       </c>
@@ -57291,7 +57292,7 @@
         <v>-92.54</v>
       </c>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>234</v>
       </c>
@@ -57317,7 +57318,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>234</v>
       </c>
@@ -57343,7 +57344,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>234</v>
       </c>
@@ -57369,7 +57370,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>234</v>
       </c>
@@ -57395,7 +57396,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>234</v>
       </c>
@@ -57421,7 +57422,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>234</v>
       </c>
@@ -57447,7 +57448,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>234</v>
       </c>
@@ -57473,7 +57474,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>234</v>
       </c>
@@ -57499,7 +57500,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>234</v>
       </c>
@@ -57525,7 +57526,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>234</v>
       </c>
@@ -57551,7 +57552,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>234</v>
       </c>
@@ -57577,7 +57578,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>234</v>
       </c>
@@ -57603,7 +57604,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>234</v>
       </c>
@@ -57629,7 +57630,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>234</v>
       </c>
@@ -57655,7 +57656,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>234</v>
       </c>
@@ -57681,7 +57682,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>234</v>
       </c>
@@ -57707,7 +57708,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>234</v>
       </c>
@@ -57733,7 +57734,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>234</v>
       </c>
@@ -57759,7 +57760,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>234</v>
       </c>
@@ -57785,7 +57786,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>234</v>
       </c>
@@ -57811,7 +57812,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>234</v>
       </c>
@@ -57837,7 +57838,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>234</v>
       </c>
@@ -57863,7 +57864,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>234</v>
       </c>
@@ -57889,7 +57890,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>234</v>
       </c>
@@ -57915,7 +57916,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>234</v>
       </c>
@@ -57941,7 +57942,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>234</v>
       </c>
@@ -57967,7 +57968,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>234</v>
       </c>
@@ -57993,7 +57994,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>234</v>
       </c>
@@ -58019,7 +58020,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>234</v>
       </c>
@@ -58045,7 +58046,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>234</v>
       </c>
@@ -58071,7 +58072,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>234</v>
       </c>
@@ -58097,7 +58098,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>234</v>
       </c>
@@ -58123,7 +58124,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>234</v>
       </c>
@@ -58149,7 +58150,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>234</v>
       </c>
@@ -58175,7 +58176,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>234</v>
       </c>
@@ -58201,7 +58202,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>234</v>
       </c>
@@ -58227,7 +58228,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>234</v>
       </c>
@@ -58253,7 +58254,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>234</v>
       </c>
@@ -58279,7 +58280,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>234</v>
       </c>
@@ -58305,7 +58306,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>234</v>
       </c>
@@ -58331,7 +58332,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>234</v>
       </c>
@@ -58357,7 +58358,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>234</v>
       </c>
@@ -58383,7 +58384,7 @@
         <v>-85.54</v>
       </c>
     </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>231</v>
       </c>
@@ -58409,7 +58410,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>231</v>
       </c>
@@ -58435,7 +58436,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>231</v>
       </c>
@@ -58461,7 +58462,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>231</v>
       </c>
@@ -58487,7 +58488,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>231</v>
       </c>
@@ -58513,7 +58514,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>231</v>
       </c>
@@ -58539,7 +58540,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>231</v>
       </c>
@@ -58565,7 +58566,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="674" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>231</v>
       </c>
@@ -58591,7 +58592,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="675" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>231</v>
       </c>
@@ -58617,7 +58618,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="676" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>231</v>
       </c>
@@ -58643,7 +58644,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="677" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>231</v>
       </c>
@@ -58669,7 +58670,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="678" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>231</v>
       </c>
@@ -58695,7 +58696,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="679" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>231</v>
       </c>
@@ -58721,7 +58722,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="680" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>231</v>
       </c>
@@ -58747,7 +58748,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="681" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>231</v>
       </c>
@@ -58773,7 +58774,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="682" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>231</v>
       </c>
@@ -58799,7 +58800,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="683" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>231</v>
       </c>
@@ -58825,7 +58826,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="684" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>231</v>
       </c>
@@ -58851,7 +58852,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="685" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>231</v>
       </c>
@@ -58877,7 +58878,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="686" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>231</v>
       </c>
@@ -58903,7 +58904,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="687" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>231</v>
       </c>
@@ -58929,7 +58930,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="688" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>231</v>
       </c>
@@ -58955,7 +58956,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="689" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>231</v>
       </c>
@@ -58981,7 +58982,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="690" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>231</v>
       </c>
@@ -59007,7 +59008,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>231</v>
       </c>
@@ -59033,7 +59034,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>231</v>
       </c>
@@ -59059,7 +59060,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="693" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>231</v>
       </c>
@@ -59085,7 +59086,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="694" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>231</v>
       </c>
@@ -59111,7 +59112,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="695" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>231</v>
       </c>
@@ -59137,7 +59138,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="696" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>231</v>
       </c>
@@ -59163,7 +59164,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="697" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>231</v>
       </c>
@@ -59189,7 +59190,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="698" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>231</v>
       </c>
@@ -59215,7 +59216,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="699" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>231</v>
       </c>
@@ -59241,7 +59242,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="700" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>231</v>
       </c>
@@ -59267,7 +59268,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="701" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>231</v>
       </c>
@@ -59293,7 +59294,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="702" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>231</v>
       </c>
@@ -59319,7 +59320,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="703" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>231</v>
       </c>
@@ -59345,7 +59346,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="704" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>231</v>
       </c>
@@ -59371,7 +59372,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="705" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>231</v>
       </c>
@@ -59397,7 +59398,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="706" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>231</v>
       </c>
@@ -59423,7 +59424,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="707" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>231</v>
       </c>
@@ -59449,7 +59450,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="708" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>231</v>
       </c>
@@ -59475,7 +59476,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="709" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>231</v>
       </c>
@@ -59501,7 +59502,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="710" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>231</v>
       </c>
@@ -59527,7 +59528,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="711" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>231</v>
       </c>
@@ -59553,7 +59554,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="712" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>231</v>
       </c>
@@ -59579,7 +59580,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="713" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>231</v>
       </c>
@@ -59605,7 +59606,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="714" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>231</v>
       </c>
@@ -59631,7 +59632,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="715" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>231</v>
       </c>
@@ -59657,7 +59658,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="716" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>231</v>
       </c>
@@ -59683,7 +59684,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="717" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>231</v>
       </c>
@@ -59709,7 +59710,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="718" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>231</v>
       </c>
@@ -59735,7 +59736,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="719" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>231</v>
       </c>
@@ -59761,7 +59762,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="720" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>231</v>
       </c>
@@ -59787,7 +59788,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="721" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>231</v>
       </c>
@@ -59813,7 +59814,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="722" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>231</v>
       </c>
@@ -59839,7 +59840,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="723" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>231</v>
       </c>
@@ -59865,7 +59866,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="724" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>231</v>
       </c>
@@ -59891,7 +59892,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="725" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>231</v>
       </c>
@@ -59917,7 +59918,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="726" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>231</v>
       </c>
@@ -59943,7 +59944,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="727" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>231</v>
       </c>
@@ -59969,7 +59970,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="728" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>231</v>
       </c>
@@ -59995,7 +59996,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="729" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>231</v>
       </c>
@@ -60021,7 +60022,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="730" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>231</v>
       </c>
@@ -60047,7 +60048,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="731" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>231</v>
       </c>
@@ -60073,7 +60074,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="732" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>231</v>
       </c>
@@ -60099,7 +60100,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="733" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>231</v>
       </c>
@@ -60125,7 +60126,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="734" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>231</v>
       </c>
@@ -60151,7 +60152,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="735" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>231</v>
       </c>
@@ -60177,7 +60178,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="736" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>231</v>
       </c>
@@ -60203,7 +60204,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="737" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>231</v>
       </c>
@@ -60229,7 +60230,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="738" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>231</v>
       </c>
@@ -60255,7 +60256,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="739" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>231</v>
       </c>
@@ -60281,7 +60282,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="740" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>231</v>
       </c>
@@ -60307,7 +60308,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="741" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>231</v>
       </c>
@@ -60333,7 +60334,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="742" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>231</v>
       </c>
@@ -60359,7 +60360,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="743" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>231</v>
       </c>
@@ -60385,7 +60386,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="744" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>231</v>
       </c>
@@ -60411,7 +60412,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="745" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>231</v>
       </c>
@@ -60437,7 +60438,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="746" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>231</v>
       </c>
@@ -60463,7 +60464,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="747" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>231</v>
       </c>
@@ -60489,7 +60490,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="748" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>231</v>
       </c>
@@ -60515,7 +60516,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="749" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>231</v>
       </c>
@@ -60541,7 +60542,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="750" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>231</v>
       </c>
@@ -60567,7 +60568,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="751" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>231</v>
       </c>
@@ -60593,7 +60594,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="752" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>231</v>
       </c>
@@ -60619,7 +60620,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="753" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>231</v>
       </c>
@@ -60645,7 +60646,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="754" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>231</v>
       </c>
@@ -60671,7 +60672,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="755" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>231</v>
       </c>
@@ -60697,7 +60698,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="756" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>231</v>
       </c>
@@ -60723,7 +60724,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="757" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>231</v>
       </c>
@@ -60749,7 +60750,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="758" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>231</v>
       </c>
@@ -60775,7 +60776,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="759" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>231</v>
       </c>
@@ -60801,7 +60802,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="760" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>233</v>
       </c>
@@ -60827,7 +60828,7 @@
         <v>-83.760999999999996</v>
       </c>
     </row>
-    <row r="761" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>233</v>
       </c>
@@ -60853,7 +60854,7 @@
         <v>-83.760999999999996</v>
       </c>
     </row>
-    <row r="762" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>233</v>
       </c>
@@ -60879,7 +60880,7 @@
         <v>-83.760999999999996</v>
       </c>
     </row>
-    <row r="763" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>233</v>
       </c>
@@ -60905,7 +60906,7 @@
         <v>-83.760999999999996</v>
       </c>
     </row>
-    <row r="764" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>233</v>
       </c>
@@ -60931,7 +60932,7 @@
         <v>-83.760999999999996</v>
       </c>
     </row>
-    <row r="765" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>233</v>
       </c>
@@ -60957,7 +60958,7 @@
         <v>-83.760999999999996</v>
       </c>
     </row>
-    <row r="766" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>233</v>
       </c>
@@ -60983,7 +60984,7 @@
         <v>-83.760999999999996</v>
       </c>
     </row>
-    <row r="767" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>233</v>
       </c>
@@ -61009,7 +61010,7 @@
         <v>-83.760999999999996</v>
       </c>
     </row>
-    <row r="768" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>233</v>
       </c>
@@ -61035,7 +61036,7 @@
         <v>-83.760999999999996</v>
       </c>
     </row>
-    <row r="769" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>233</v>
       </c>
@@ -61061,7 +61062,7 @@
         <v>-83.760999999999996</v>
       </c>
     </row>
-    <row r="770" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>233</v>
       </c>
@@ -61087,7 +61088,7 @@
         <v>-83.760999999999996</v>
       </c>
     </row>
-    <row r="771" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>233</v>
       </c>
@@ -61113,7 +61114,7 @@
         <v>-83.760999999999996</v>
       </c>
     </row>
-    <row r="772" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>233</v>
       </c>
@@ -61139,7 +61140,7 @@
         <v>-83.760999999999996</v>
       </c>
     </row>
-    <row r="773" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>233</v>
       </c>
@@ -61165,7 +61166,7 @@
         <v>-83.760999999999996</v>
       </c>
     </row>
-    <row r="774" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>233</v>
       </c>
@@ -61191,7 +61192,7 @@
         <v>-83.760999999999996</v>
       </c>
     </row>
-    <row r="775" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>233</v>
       </c>
@@ -61217,7 +61218,7 @@
         <v>-83.760999999999996</v>
       </c>
     </row>
-    <row r="776" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>241</v>
       </c>
@@ -61240,7 +61241,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="777" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>241</v>
       </c>
@@ -61263,7 +61264,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="778" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>241</v>
       </c>
@@ -61286,7 +61287,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="779" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>241</v>
       </c>
@@ -61309,7 +61310,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="780" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>241</v>
       </c>
@@ -61332,7 +61333,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="781" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>241</v>
       </c>
@@ -61355,7 +61356,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="782" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>241</v>
       </c>
@@ -61378,7 +61379,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="783" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>241</v>
       </c>
@@ -61401,7 +61402,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="784" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>241</v>
       </c>
@@ -61424,7 +61425,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="785" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>241</v>
       </c>
@@ -61447,7 +61448,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="786" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>241</v>
       </c>
@@ -61470,7 +61471,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="787" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>241</v>
       </c>
@@ -61493,7 +61494,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="788" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>241</v>
       </c>
@@ -61516,7 +61517,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="789" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>241</v>
       </c>
@@ -61539,7 +61540,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="790" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>241</v>
       </c>
@@ -61562,7 +61563,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="791" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>241</v>
       </c>
@@ -61585,7 +61586,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="792" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>241</v>
       </c>
@@ -61608,7 +61609,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="793" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>241</v>
       </c>
@@ -61631,7 +61632,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="794" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>241</v>
       </c>
@@ -61654,7 +61655,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="795" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>241</v>
       </c>
@@ -61677,7 +61678,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="796" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>241</v>
       </c>
@@ -61700,7 +61701,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="797" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>241</v>
       </c>
@@ -61723,7 +61724,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="798" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>241</v>
       </c>
@@ -61746,7 +61747,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="799" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>241</v>
       </c>
@@ -61769,7 +61770,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="800" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>241</v>
       </c>
@@ -61792,7 +61793,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="801" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>241</v>
       </c>
@@ -61815,7 +61816,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="802" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>241</v>
       </c>
@@ -61838,7 +61839,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="803" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>241</v>
       </c>
@@ -61861,7 +61862,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="804" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>241</v>
       </c>
@@ -61884,7 +61885,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="805" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>241</v>
       </c>
@@ -61907,7 +61908,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="806" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>241</v>
       </c>
@@ -61930,7 +61931,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="807" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>241</v>
       </c>
@@ -61953,7 +61954,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="808" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>241</v>
       </c>
@@ -61976,7 +61977,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="809" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>241</v>
       </c>
@@ -61999,7 +62000,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="810" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>241</v>
       </c>
@@ -62022,7 +62023,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="811" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>241</v>
       </c>
@@ -62045,7 +62046,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="812" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>241</v>
       </c>
@@ -62068,7 +62069,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="813" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>241</v>
       </c>
@@ -62091,7 +62092,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="814" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>241</v>
       </c>
@@ -62114,7 +62115,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="815" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>241</v>
       </c>
@@ -62137,7 +62138,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="816" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>241</v>
       </c>
@@ -62160,7 +62161,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="817" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>241</v>
       </c>
@@ -62183,7 +62184,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="818" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>241</v>
       </c>
@@ -62206,7 +62207,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="819" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>241</v>
       </c>
@@ -62229,7 +62230,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="820" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>241</v>
       </c>
@@ -62252,7 +62253,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="821" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>241</v>
       </c>
@@ -62275,7 +62276,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="822" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>241</v>
       </c>
@@ -62298,7 +62299,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="823" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>241</v>
       </c>
@@ -62321,7 +62322,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="824" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>241</v>
       </c>
@@ -62344,7 +62345,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="825" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>241</v>
       </c>
@@ -62367,7 +62368,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="826" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>241</v>
       </c>
@@ -62390,7 +62391,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="827" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>241</v>
       </c>
@@ -62413,7 +62414,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="828" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>241</v>
       </c>
@@ -62436,7 +62437,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="829" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>241</v>
       </c>
@@ -62459,7 +62460,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="830" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>241</v>
       </c>
@@ -62482,7 +62483,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="831" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>241</v>
       </c>
@@ -62505,7 +62506,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="832" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>241</v>
       </c>
@@ -62528,7 +62529,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="833" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>241</v>
       </c>
@@ -62551,7 +62552,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="834" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>241</v>
       </c>
@@ -62574,7 +62575,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="835" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>241</v>
       </c>
@@ -62597,7 +62598,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="836" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>241</v>
       </c>
@@ -62620,7 +62621,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="837" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>241</v>
       </c>
@@ -62643,7 +62644,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="838" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>241</v>
       </c>
@@ -62666,7 +62667,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="839" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>241</v>
       </c>
@@ -62689,7 +62690,7 @@
         <v>-87.76</v>
       </c>
     </row>
-    <row r="840" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>235</v>
       </c>
@@ -62715,7 +62716,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="841" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>235</v>
       </c>
@@ -62741,7 +62742,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="842" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>235</v>
       </c>
@@ -62767,7 +62768,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="843" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>235</v>
       </c>
@@ -62793,7 +62794,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="844" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>235</v>
       </c>
@@ -62819,7 +62820,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="845" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>235</v>
       </c>
@@ -62845,7 +62846,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="846" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>235</v>
       </c>
@@ -62871,7 +62872,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="847" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>235</v>
       </c>
@@ -62897,7 +62898,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="848" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>235</v>
       </c>
@@ -62923,7 +62924,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="849" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>235</v>
       </c>
@@ -62949,7 +62950,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="850" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>235</v>
       </c>
@@ -62975,7 +62976,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="851" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>235</v>
       </c>
@@ -63001,7 +63002,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="852" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>235</v>
       </c>
@@ -63027,7 +63028,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="853" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>235</v>
       </c>
@@ -63053,7 +63054,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="854" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>235</v>
       </c>
@@ -63079,7 +63080,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="855" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>235</v>
       </c>
@@ -63105,7 +63106,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="856" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>235</v>
       </c>
@@ -63131,7 +63132,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="857" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>235</v>
       </c>
@@ -63157,7 +63158,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="858" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>235</v>
       </c>
@@ -63183,7 +63184,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="859" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>235</v>
       </c>
@@ -63209,7 +63210,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="860" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>235</v>
       </c>
@@ -63235,7 +63236,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="861" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>235</v>
       </c>
@@ -63261,7 +63262,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="862" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>235</v>
       </c>
@@ -63287,7 +63288,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="863" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>235</v>
       </c>
@@ -63313,7 +63314,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="864" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>235</v>
       </c>
@@ -63339,7 +63340,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="865" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>235</v>
       </c>
@@ -63365,7 +63366,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="866" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>235</v>
       </c>
@@ -63391,7 +63392,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="867" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>235</v>
       </c>
@@ -63417,7 +63418,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="868" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>235</v>
       </c>
@@ -63443,7 +63444,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="869" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>235</v>
       </c>
@@ -63469,7 +63470,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="870" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>235</v>
       </c>
@@ -63495,7 +63496,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="871" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>235</v>
       </c>
@@ -63521,7 +63522,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="872" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>235</v>
       </c>
@@ -63547,7 +63548,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="873" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>235</v>
       </c>
@@ -63573,7 +63574,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="874" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>235</v>
       </c>
@@ -63599,7 +63600,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="875" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>235</v>
       </c>
@@ -63625,7 +63626,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="876" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>235</v>
       </c>
@@ -63651,7 +63652,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="877" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>235</v>
       </c>
@@ -63677,7 +63678,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="878" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>235</v>
       </c>
@@ -63703,7 +63704,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="879" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>235</v>
       </c>
@@ -63729,7 +63730,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="880" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>235</v>
       </c>
@@ -63755,7 +63756,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="881" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>235</v>
       </c>
@@ -63781,7 +63782,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="882" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>235</v>
       </c>
@@ -63807,7 +63808,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="883" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>235</v>
       </c>
@@ -63833,7 +63834,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="884" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>235</v>
       </c>
@@ -63859,7 +63860,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="885" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>235</v>
       </c>
@@ -63885,7 +63886,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="886" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>235</v>
       </c>
@@ -63911,7 +63912,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="887" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>235</v>
       </c>
@@ -63937,7 +63938,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="888" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>235</v>
       </c>
@@ -63963,7 +63964,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="889" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>235</v>
       </c>
@@ -63989,7 +63990,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="890" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>235</v>
       </c>
@@ -64015,7 +64016,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="891" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>235</v>
       </c>
@@ -64041,7 +64042,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="892" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>235</v>
       </c>
@@ -64067,7 +64068,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="893" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>235</v>
       </c>
@@ -64093,7 +64094,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="894" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>235</v>
       </c>
@@ -64119,7 +64120,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="895" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>235</v>
       </c>
@@ -64145,7 +64146,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="896" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>235</v>
       </c>
@@ -64171,7 +64172,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="897" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>235</v>
       </c>
@@ -64197,7 +64198,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="898" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>235</v>
       </c>
@@ -64223,7 +64224,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="899" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
         <v>235</v>
       </c>
@@ -64249,7 +64250,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="900" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>233</v>
       </c>
@@ -64269,7 +64270,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="901" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>233</v>
       </c>
@@ -64289,7 +64290,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="902" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>233</v>
       </c>
@@ -64309,7 +64310,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="903" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>233</v>
       </c>
@@ -64329,7 +64330,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="904" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>233</v>
       </c>
@@ -64349,7 +64350,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="905" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>233</v>
       </c>
@@ -64369,7 +64370,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="906" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
         <v>233</v>
       </c>
@@ -64389,7 +64390,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="907" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>233</v>
       </c>
@@ -64409,7 +64410,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="908" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>233</v>
       </c>
@@ -64429,7 +64430,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="909" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
         <v>233</v>
       </c>
@@ -64449,7 +64450,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="910" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>233</v>
       </c>
@@ -64469,7 +64470,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="911" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>233</v>
       </c>
@@ -64489,7 +64490,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="912" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
         <v>233</v>
       </c>
@@ -64509,7 +64510,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="913" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
         <v>233</v>
       </c>
@@ -64529,7 +64530,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="914" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>233</v>
       </c>
@@ -64549,7 +64550,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="915" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
         <v>235</v>
       </c>
@@ -64575,7 +64576,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="916" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
         <v>235</v>
       </c>
@@ -64601,7 +64602,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="917" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
         <v>235</v>
       </c>
@@ -64627,7 +64628,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="918" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
         <v>235</v>
       </c>
@@ -64653,7 +64654,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="919" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>235</v>
       </c>
@@ -64679,7 +64680,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="920" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>235</v>
       </c>
@@ -64705,7 +64706,7 @@
         <v>-95.308000000000007</v>
       </c>
     </row>
-    <row r="921" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>235</v>
       </c>
@@ -64731,7 +64732,7 @@
         <v>-95.3</v>
       </c>
     </row>
-    <row r="922" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
         <v>235</v>
       </c>
@@ -64757,7 +64758,7 @@
         <v>-95.3</v>
       </c>
     </row>
-    <row r="923" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
         <v>235</v>
       </c>
@@ -64783,7 +64784,7 @@
         <v>-95.3</v>
       </c>
     </row>
-    <row r="924" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
         <v>235</v>
       </c>
@@ -64809,7 +64810,7 @@
         <v>-95.3</v>
       </c>
     </row>
-    <row r="925" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
         <v>235</v>
       </c>
@@ -64835,7 +64836,7 @@
         <v>-95.3</v>
       </c>
     </row>
-    <row r="926" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
         <v>235</v>
       </c>
@@ -64861,7 +64862,7 @@
         <v>-95.3</v>
       </c>
     </row>
-    <row r="927" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>235</v>
       </c>
@@ -64887,7 +64888,7 @@
         <v>-95.3</v>
       </c>
     </row>
-    <row r="928" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
         <v>235</v>
       </c>
@@ -64913,7 +64914,7 @@
         <v>-95.3</v>
       </c>
     </row>
-    <row r="929" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>234</v>
       </c>
@@ -64939,7 +64940,7 @@
         <v>-86.92</v>
       </c>
     </row>
-    <row r="930" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>234</v>
       </c>
@@ -64965,7 +64966,7 @@
         <v>-86.92</v>
       </c>
     </row>
-    <row r="931" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>234</v>
       </c>
@@ -64991,7 +64992,7 @@
         <v>-86.92</v>
       </c>
     </row>
-    <row r="932" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
         <v>234</v>
       </c>
@@ -65017,7 +65018,7 @@
         <v>-86.92</v>
       </c>
     </row>
-    <row r="933" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>231</v>
       </c>
@@ -65043,7 +65044,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="934" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
         <v>231</v>
       </c>
@@ -65069,7 +65070,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="935" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>231</v>
       </c>
@@ -65095,7 +65096,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="936" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>231</v>
       </c>
@@ -65121,7 +65122,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="937" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
         <v>231</v>
       </c>
@@ -65147,7 +65148,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="938" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>231</v>
       </c>
@@ -65173,7 +65174,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="939" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>231</v>
       </c>
@@ -65199,7 +65200,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="940" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>231</v>
       </c>
@@ -65225,7 +65226,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="941" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
         <v>231</v>
       </c>
@@ -65251,7 +65252,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="942" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>231</v>
       </c>
@@ -65277,7 +65278,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="943" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
         <v>231</v>
       </c>
@@ -65303,7 +65304,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="944" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>231</v>
       </c>
@@ -65329,7 +65330,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="945" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>231</v>
       </c>
@@ -65355,7 +65356,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="946" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
         <v>231</v>
       </c>
@@ -65381,7 +65382,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="947" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
         <v>231</v>
       </c>
@@ -65407,7 +65408,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="948" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>231</v>
       </c>
@@ -65433,7 +65434,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="949" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
         <v>231</v>
       </c>
@@ -65459,7 +65460,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="950" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
         <v>231</v>
       </c>
@@ -65485,7 +65486,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="951" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>231</v>
       </c>
@@ -65511,7 +65512,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="952" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
         <v>231</v>
       </c>
@@ -65537,7 +65538,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="953" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
         <v>231</v>
       </c>
@@ -65563,7 +65564,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="954" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
         <v>231</v>
       </c>
@@ -65589,7 +65590,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="955" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
         <v>231</v>
       </c>
@@ -65615,7 +65616,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="956" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
         <v>231</v>
       </c>
@@ -65641,7 +65642,7 @@
         <v>-94.495999999999995</v>
       </c>
     </row>
-    <row r="957" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
         <v>231</v>
       </c>
@@ -65667,7 +65668,7 @@
         <v>-91.48</v>
       </c>
     </row>
-    <row r="958" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
         <v>231</v>
       </c>
@@ -65693,7 +65694,7 @@
         <v>-91.48</v>
       </c>
     </row>
-    <row r="959" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
         <v>231</v>
       </c>
@@ -65719,7 +65720,7 @@
         <v>-91.48</v>
       </c>
     </row>
-    <row r="960" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
         <v>231</v>
       </c>
@@ -65745,7 +65746,7 @@
         <v>-91.48</v>
       </c>
     </row>
-    <row r="961" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
         <v>231</v>
       </c>
@@ -65771,7 +65772,7 @@
         <v>-91.48</v>
       </c>
     </row>
-    <row r="962" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
         <v>231</v>
       </c>
@@ -65797,7 +65798,7 @@
         <v>-91.48</v>
       </c>
     </row>
-    <row r="963" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
         <v>231</v>
       </c>
@@ -65823,7 +65824,7 @@
         <v>-91.48</v>
       </c>
     </row>
-    <row r="964" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
         <v>231</v>
       </c>
@@ -65849,7 +65850,7 @@
         <v>-91.48</v>
       </c>
     </row>
-    <row r="965" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
         <v>235</v>
       </c>
@@ -65875,7 +65876,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="966" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
         <v>235</v>
       </c>
@@ -65901,7 +65902,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="967" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
         <v>235</v>
       </c>
@@ -65927,7 +65928,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="968" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
         <v>235</v>
       </c>
@@ -65953,7 +65954,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="969" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
         <v>235</v>
       </c>
@@ -65979,7 +65980,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="970" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
         <v>235</v>
       </c>
@@ -66005,7 +66006,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="971" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
         <v>235</v>
       </c>
@@ -66031,7 +66032,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="972" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
         <v>235</v>
       </c>
@@ -66057,7 +66058,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="973" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
         <v>235</v>
       </c>
@@ -66083,7 +66084,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="974" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
         <v>235</v>
       </c>
@@ -66109,7 +66110,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="975" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
         <v>235</v>
       </c>
@@ -66135,7 +66136,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="976" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
         <v>235</v>
       </c>
@@ -66161,7 +66162,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="977" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
         <v>235</v>
       </c>
@@ -66187,7 +66188,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="978" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
         <v>235</v>
       </c>
@@ -66213,7 +66214,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="979" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
         <v>235</v>
       </c>
@@ -66239,7 +66240,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="980" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
         <v>235</v>
       </c>
@@ -66265,7 +66266,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="981" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
         <v>235</v>
       </c>
@@ -66291,7 +66292,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="982" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
         <v>235</v>
       </c>
@@ -66317,7 +66318,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="983" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
         <v>235</v>
       </c>
@@ -66343,7 +66344,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="984" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
         <v>235</v>
       </c>
@@ -66369,7 +66370,7 @@
         <v>-93.52</v>
       </c>
     </row>
-    <row r="985" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
         <v>232</v>
       </c>
@@ -66395,7 +66396,7 @@
         <v>-92.072999999999993</v>
       </c>
     </row>
-    <row r="986" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
         <v>232</v>
       </c>
@@ -66421,7 +66422,7 @@
         <v>-92.072999999999993</v>
       </c>
     </row>
-    <row r="987" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
         <v>232</v>
       </c>
@@ -66447,7 +66448,7 @@
         <v>-92.072999999999993</v>
       </c>
     </row>
-    <row r="988" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
         <v>231</v>
       </c>
@@ -66473,7 +66474,7 @@
         <v>-93.71</v>
       </c>
     </row>
-    <row r="989" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
         <v>231</v>
       </c>
@@ -66499,7 +66500,7 @@
         <v>-93.71</v>
       </c>
     </row>
-    <row r="990" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
         <v>231</v>
       </c>
@@ -66525,7 +66526,7 @@
         <v>-93.71</v>
       </c>
     </row>
-    <row r="991" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
         <v>231</v>
       </c>
@@ -66551,7 +66552,7 @@
         <v>-93.71</v>
       </c>
     </row>
-    <row r="992" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
         <v>231</v>
       </c>
@@ -66577,7 +66578,7 @@
         <v>-93.71</v>
       </c>
     </row>
-    <row r="993" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
         <v>231</v>
       </c>
@@ -66603,7 +66604,7 @@
         <v>-93.71</v>
       </c>
     </row>
-    <row r="994" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
         <v>231</v>
       </c>
@@ -66629,7 +66630,7 @@
         <v>-93.71</v>
       </c>
     </row>
-    <row r="995" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
         <v>231</v>
       </c>
@@ -66655,7 +66656,7 @@
         <v>-93.71</v>
       </c>
     </row>
-    <row r="996" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
         <v>231</v>
       </c>
@@ -66678,7 +66679,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="997" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
         <v>231</v>
       </c>
@@ -66701,7 +66702,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="998" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
         <v>231</v>
       </c>
@@ -66724,7 +66725,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="999" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
         <v>231</v>
       </c>
@@ -66747,7 +66748,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="1000" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
         <v>231</v>
       </c>
@@ -66770,7 +66771,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="1001" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
         <v>231</v>
       </c>
@@ -66793,7 +66794,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="1002" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
         <v>231</v>
       </c>
@@ -66816,7 +66817,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="1003" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
         <v>231</v>
       </c>
@@ -66839,7 +66840,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="1004" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
         <v>231</v>
       </c>
@@ -66862,7 +66863,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="1005" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
         <v>231</v>
       </c>
@@ -66885,7 +66886,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="1006" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
         <v>231</v>
       </c>
@@ -66908,7 +66909,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="1007" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
         <v>231</v>
       </c>
@@ -66931,7 +66932,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="1008" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
         <v>231</v>
       </c>
@@ -66954,7 +66955,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="1009" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
         <v>231</v>
       </c>
@@ -66977,7 +66978,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="1010" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
         <v>231</v>
       </c>
@@ -67000,7 +67001,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="1011" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
         <v>231</v>
       </c>
@@ -67023,7 +67024,7 @@
         <v>-93.78</v>
       </c>
     </row>
-    <row r="1012" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
         <v>241</v>
       </c>
@@ -67049,7 +67050,7 @@
         <v>-88.2</v>
       </c>
     </row>
-    <row r="1013" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
         <v>241</v>
       </c>
@@ -67075,7 +67076,7 @@
         <v>-88.2</v>
       </c>
     </row>
-    <row r="1014" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
         <v>241</v>
       </c>
@@ -67101,7 +67102,7 @@
         <v>-88.2</v>
       </c>
     </row>
-    <row r="1015" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
         <v>241</v>
       </c>
@@ -67127,7 +67128,7 @@
         <v>-88.2</v>
       </c>
     </row>
-    <row r="1016" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
         <v>241</v>
       </c>
@@ -67153,7 +67154,7 @@
         <v>-88.2</v>
       </c>
     </row>
-    <row r="1017" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
         <v>241</v>
       </c>
@@ -67179,7 +67180,7 @@
         <v>-88.2</v>
       </c>
     </row>
-    <row r="1018" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
         <v>241</v>
       </c>
@@ -67205,7 +67206,7 @@
         <v>-88.2</v>
       </c>
     </row>
-    <row r="1019" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
         <v>241</v>
       </c>
@@ -67231,7 +67232,7 @@
         <v>-88.2</v>
       </c>
     </row>
-    <row r="1020" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
         <v>241</v>
       </c>
@@ -67257,7 +67258,7 @@
         <v>-88.2</v>
       </c>
     </row>
-    <row r="1021" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
         <v>241</v>
       </c>
@@ -67283,7 +67284,7 @@
         <v>-88.2</v>
       </c>
     </row>
-    <row r="1022" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
         <v>241</v>
       </c>
@@ -67309,7 +67310,7 @@
         <v>-88.2</v>
       </c>
     </row>
-    <row r="1023" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
         <v>241</v>
       </c>
@@ -67336,7 +67337,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:L1023">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="cont. drainage"/>
+        <filter val="free drainage"/>
+        <filter val="shallow drainage"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -67347,13 +67356,14 @@
   <dimension ref="A1:AJ47"/>
   <sheetViews>
     <sheetView zoomScale="101" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="22.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="15" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="24.5703125" style="15" customWidth="1"/>
     <col min="6" max="7" width="9.140625" style="60"/>
     <col min="8" max="8" width="14.28515625" style="60" bestFit="1" customWidth="1"/>

--- a/Data/flow/NO3-N Loss.xlsx
+++ b/Data/flow/NO3-N Loss.xlsx
@@ -24,6 +24,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">rotations!$A$1:$H$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SERF!$S$16:$W$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sites!$A$2:$D$2</definedName>
+    <definedName name="N_Load_yearly_SERF_IA" localSheetId="3">SERF!$J$1:$P$11</definedName>
+    <definedName name="N_Load_yearly_SERF_IA_1" localSheetId="3">SERF!$A$35:$G$45</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
@@ -37,8 +39,52 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="N_Load_yearly_SERF_IA" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\gio\Google Drive\MODELLING\SERF_IA\N_Load_yearly_SERF_IA.prn">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="N_Load_yearly_SERF_IA1" type="6" refreshedVersion="5" background="1">
+    <textPr codePage="437" sourceFile="C:\Users\gio\Google Drive\MODELLING\SERF_IA\N_Load_yearly_SERF_IA.prn">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="N_Load_yearly_SERF_IA2" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\gio\Google Drive\MODELLING\SERF_IA\N_Load_yearly_SERF_IA.prn">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4737" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4751" uniqueCount="447">
   <si>
     <t>Key</t>
   </si>
@@ -1359,6 +1405,27 @@
   <si>
     <t>MANAGE</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
 </sst>
 </file>
 
@@ -1670,7 +1737,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1855,6 +1922,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2201,6 +2284,14 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="N_Load_yearly_SERF_IA_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="N_Load_yearly_SERF_IA" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2467,8 +2558,8 @@
   <dimension ref="A1:I1023"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2538,9 +2629,9 @@
         <f>Data!E2</f>
         <v>2011</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="56">
         <f>Data!F2</f>
-        <v>9.1024758000000006</v>
+        <v>9.1025996493385506</v>
       </c>
       <c r="G2" s="24">
         <f>Data!K2</f>
@@ -2575,9 +2666,9 @@
         <f>Data!E3</f>
         <v>2011</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="56">
         <f>Data!F3</f>
-        <v>42.465522999999997</v>
+        <v>30.2445924049733</v>
       </c>
       <c r="G3" s="24">
         <f>Data!K3</f>
@@ -2612,9 +2703,9 @@
         <f>Data!E4</f>
         <v>2011</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="56">
         <f>Data!F4</f>
-        <v>11.357567</v>
+        <v>9.7001828208000003</v>
       </c>
       <c r="G4" s="24">
         <f>Data!K4</f>
@@ -2649,9 +2740,9 @@
         <f>Data!E5</f>
         <v>2011</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="56">
         <f>Data!F5</f>
-        <v>10.164596</v>
+        <v>9.5913074339377609</v>
       </c>
       <c r="G5" s="24">
         <f>Data!K5</f>
@@ -2686,9 +2777,9 @@
         <f>Data!E6</f>
         <v>2011</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="56">
         <f>Data!F6</f>
-        <v>24.493995999999999</v>
+        <v>19.05049434675</v>
       </c>
       <c r="G6" s="24">
         <f>Data!K6</f>
@@ -2723,9 +2814,9 @@
         <f>Data!E7</f>
         <v>2011</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="56">
         <f>Data!F7</f>
-        <v>5.7327260000000004</v>
+        <v>5.5771901070694296</v>
       </c>
       <c r="G7" s="24">
         <f>Data!K7</f>
@@ -2760,9 +2851,9 @@
         <f>Data!E8</f>
         <v>2012</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="56">
         <f>Data!F8</f>
-        <v>14.461128199999999</v>
+        <v>14.461191714423901</v>
       </c>
       <c r="G8" s="24">
         <f>Data!K8</f>
@@ -2797,9 +2888,9 @@
         <f>Data!E9</f>
         <v>2012</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="56">
         <f>Data!F9</f>
-        <v>12.322573999999999</v>
+        <v>12.322867652470499</v>
       </c>
       <c r="G9" s="24">
         <f>Data!K9</f>
@@ -2834,9 +2925,9 @@
         <f>Data!E10</f>
         <v>2012</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="56">
         <f>Data!F10</f>
-        <v>4.2925409999999999</v>
+        <v>4.2925759112617303</v>
       </c>
       <c r="G10" s="24">
         <f>Data!K10</f>
@@ -2871,9 +2962,9 @@
         <f>Data!E11</f>
         <v>2012</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="56">
         <f>Data!F11</f>
-        <v>5.9977010000000002</v>
+        <v>5.9977010626825402</v>
       </c>
       <c r="G11" s="24">
         <f>Data!K11</f>
@@ -2908,9 +2999,9 @@
         <f>Data!E12</f>
         <v>2012</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="56">
         <f>Data!F12</f>
-        <v>7.7289409999999998</v>
+        <v>7.7289606995984901</v>
       </c>
       <c r="G12" s="24">
         <f>Data!K12</f>
@@ -2945,9 +3036,9 @@
         <f>Data!E13</f>
         <v>2012</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="56">
         <f>Data!F13</f>
-        <v>3.6994479999999998</v>
+        <v>3.6994482564836701</v>
       </c>
       <c r="G13" s="24">
         <f>Data!K13</f>
@@ -2982,9 +3073,9 @@
         <f>Data!E14</f>
         <v>2013</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="56">
         <f>Data!F14</f>
-        <v>23.890933</v>
+        <v>23.8985946874608</v>
       </c>
       <c r="G14" s="24">
         <f>Data!K14</f>
@@ -3019,9 +3110,9 @@
         <f>Data!E15</f>
         <v>2013</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="56">
         <f>Data!F15</f>
-        <v>32.226100000000002</v>
+        <v>32.235161800374001</v>
       </c>
       <c r="G15" s="24">
         <f>Data!K15</f>
@@ -3056,9 +3147,9 @@
         <f>Data!E16</f>
         <v>2013</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="56">
         <f>Data!F16</f>
-        <v>19.107279999999999</v>
+        <v>19.1132729249378</v>
       </c>
       <c r="G16" s="24">
         <f>Data!K16</f>
@@ -3093,9 +3184,9 @@
         <f>Data!E17</f>
         <v>2013</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="56">
         <f>Data!F17</f>
-        <v>20.81466</v>
+        <v>20.819684091088099</v>
       </c>
       <c r="G17" s="24">
         <f>Data!K17</f>
@@ -3130,9 +3221,9 @@
         <f>Data!E18</f>
         <v>2013</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="56">
         <f>Data!F18</f>
-        <v>36.2149</v>
+        <v>36.226840773504399</v>
       </c>
       <c r="G18" s="24">
         <f>Data!K18</f>
@@ -3167,9 +3258,9 @@
         <f>Data!E19</f>
         <v>2013</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="56">
         <f>Data!F19</f>
-        <v>16.269770000000001</v>
+        <v>16.271459630304602</v>
       </c>
       <c r="G19" s="24">
         <f>Data!K19</f>
@@ -3204,9 +3295,9 @@
         <f>Data!E20</f>
         <v>2014</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="56">
         <f>Data!F20</f>
-        <v>37.126836699999998</v>
+        <v>37.154274293639098</v>
       </c>
       <c r="G20" s="24">
         <f>Data!K20</f>
@@ -3241,9 +3332,9 @@
         <f>Data!E21</f>
         <v>2014</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="56">
         <f>Data!F21</f>
-        <v>59.143658000000002</v>
+        <v>59.172386135875797</v>
       </c>
       <c r="G21" s="24">
         <f>Data!K21</f>
@@ -3278,9 +3369,9 @@
         <f>Data!E22</f>
         <v>2014</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="56">
         <f>Data!F22</f>
-        <v>6.4460639999999998</v>
+        <v>6.4707712039542704</v>
       </c>
       <c r="G22" s="24">
         <f>Data!K22</f>
@@ -3315,9 +3406,9 @@
         <f>Data!E23</f>
         <v>2014</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="56">
         <f>Data!F23</f>
-        <v>15.617248999999999</v>
+        <v>15.6447669866408</v>
       </c>
       <c r="G23" s="24">
         <f>Data!K23</f>
@@ -3352,9 +3443,9 @@
         <f>Data!E24</f>
         <v>2014</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="56">
         <f>Data!F24</f>
-        <v>55.974493000000002</v>
+        <v>56.005994075571202</v>
       </c>
       <c r="G24" s="24">
         <f>Data!K24</f>
@@ -3389,9 +3480,9 @@
         <f>Data!E25</f>
         <v>2014</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="56">
         <f>Data!F25</f>
-        <v>13.206845</v>
+        <v>13.224573919535301</v>
       </c>
       <c r="G25" s="24">
         <f>Data!K25</f>
@@ -3426,9 +3517,9 @@
         <f>Data!E26</f>
         <v>2015</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="56">
         <f>Data!F26</f>
-        <v>10.623893900000001</v>
+        <v>10.6238939286857</v>
       </c>
       <c r="G26" s="24">
         <f>Data!K26</f>
@@ -3463,9 +3554,9 @@
         <f>Data!E27</f>
         <v>2015</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="56">
         <f>Data!F27</f>
-        <v>14.899558000000001</v>
+        <v>14.9004345219195</v>
       </c>
       <c r="G27" s="24">
         <f>Data!K27</f>
@@ -3500,9 +3591,9 @@
         <f>Data!E28</f>
         <v>2015</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="56">
         <f>Data!F28</f>
-        <v>10.612791</v>
+        <v>10.6102212874851</v>
       </c>
       <c r="G28" s="24">
         <f>Data!K28</f>
@@ -3537,9 +3628,9 @@
         <f>Data!E29</f>
         <v>2015</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="56">
         <f>Data!F29</f>
-        <v>9.9698910000000005</v>
+        <v>9.9696464002593608</v>
       </c>
       <c r="G29" s="24">
         <f>Data!K29</f>
@@ -3574,9 +3665,9 @@
         <f>Data!E30</f>
         <v>2015</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="56">
         <f>Data!F30</f>
-        <v>51.153748</v>
+        <v>51.166072198054799</v>
       </c>
       <c r="G30" s="24">
         <f>Data!K30</f>
@@ -3611,9 +3702,9 @@
         <f>Data!E31</f>
         <v>2015</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="56">
         <f>Data!F31</f>
-        <v>23.588162000000001</v>
+        <v>23.589501119907499</v>
       </c>
       <c r="G31" s="24">
         <f>Data!K31</f>
@@ -40664,11 +40755,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L1023"/>
+  <dimension ref="A1:N1023"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40684,7 +40775,7 @@
     <col min="15" max="17" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>230</v>
       </c>
@@ -40722,7 +40813,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>231</v>
       </c>
@@ -40739,7 +40830,7 @@
         <v>2011</v>
       </c>
       <c r="F2" s="56">
-        <v>9.1024758000000006</v>
+        <v>9.1025996493385506</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -40759,8 +40850,14 @@
       <c r="L2">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="83">
+        <v>9.1025996493385506</v>
+      </c>
+      <c r="N2" s="56">
+        <v>9.1024758000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>231</v>
       </c>
@@ -40777,7 +40874,7 @@
         <v>2011</v>
       </c>
       <c r="F3" s="49">
-        <v>42.465522999999997</v>
+        <v>30.2445924049733</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -40797,8 +40894,14 @@
       <c r="L3">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="83">
+        <v>30.2445924049733</v>
+      </c>
+      <c r="N3" s="49">
+        <v>42.465522999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -40815,7 +40918,7 @@
         <v>2011</v>
       </c>
       <c r="F4" s="49">
-        <v>11.357567</v>
+        <v>9.7001828208000003</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -40835,8 +40938,14 @@
       <c r="L4">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="83">
+        <v>9.7001828208000003</v>
+      </c>
+      <c r="N4" s="49">
+        <v>11.357567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>231</v>
       </c>
@@ -40853,7 +40962,7 @@
         <v>2011</v>
       </c>
       <c r="F5" s="49">
-        <v>10.164596</v>
+        <v>9.5913074339377609</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -40873,8 +40982,14 @@
       <c r="L5">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="83">
+        <v>9.5913074339377609</v>
+      </c>
+      <c r="N5" s="49">
+        <v>10.164596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>231</v>
       </c>
@@ -40891,7 +41006,7 @@
         <v>2011</v>
       </c>
       <c r="F6" s="49">
-        <v>24.493995999999999</v>
+        <v>19.05049434675</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -40911,8 +41026,14 @@
       <c r="L6">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="84">
+        <v>19.05049434675</v>
+      </c>
+      <c r="N6" s="49">
+        <v>24.493995999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>231</v>
       </c>
@@ -40929,7 +41050,7 @@
         <v>2011</v>
       </c>
       <c r="F7" s="49">
-        <v>5.7327260000000004</v>
+        <v>5.5771901070694296</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -40949,8 +41070,14 @@
       <c r="L7">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="84">
+        <v>5.5771901070694296</v>
+      </c>
+      <c r="N7" s="49">
+        <v>5.7327260000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>231</v>
       </c>
@@ -40967,7 +41094,7 @@
         <v>2012</v>
       </c>
       <c r="F8" s="56">
-        <v>14.461128199999999</v>
+        <v>14.461191714423901</v>
       </c>
       <c r="K8">
         <v>41.193800000000003</v>
@@ -40975,8 +41102,14 @@
       <c r="L8">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="83">
+        <v>14.461191714423901</v>
+      </c>
+      <c r="N8" s="56">
+        <v>14.461128199999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>231</v>
       </c>
@@ -40993,7 +41126,7 @@
         <v>2012</v>
       </c>
       <c r="F9" s="56">
-        <v>12.322573999999999</v>
+        <v>12.322867652470499</v>
       </c>
       <c r="K9">
         <v>41.193800000000003</v>
@@ -41001,8 +41134,14 @@
       <c r="L9">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="83">
+        <v>12.322867652470499</v>
+      </c>
+      <c r="N9" s="56">
+        <v>12.322573999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>231</v>
       </c>
@@ -41019,7 +41158,7 @@
         <v>2012</v>
       </c>
       <c r="F10" s="56">
-        <v>4.2925409999999999</v>
+        <v>4.2925759112617303</v>
       </c>
       <c r="K10">
         <v>41.193800000000003</v>
@@ -41027,8 +41166,14 @@
       <c r="L10">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="83">
+        <v>4.2925759112617303</v>
+      </c>
+      <c r="N10" s="56">
+        <v>4.2925409999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>231</v>
       </c>
@@ -41045,7 +41190,7 @@
         <v>2012</v>
       </c>
       <c r="F11" s="56">
-        <v>5.9977010000000002</v>
+        <v>5.9977010626825402</v>
       </c>
       <c r="K11">
         <v>41.193800000000003</v>
@@ -41053,8 +41198,14 @@
       <c r="L11">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="83">
+        <v>5.9977010626825402</v>
+      </c>
+      <c r="N11" s="56">
+        <v>5.9977010000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>231</v>
       </c>
@@ -41071,7 +41222,7 @@
         <v>2012</v>
       </c>
       <c r="F12" s="56">
-        <v>7.7289409999999998</v>
+        <v>7.7289606995984901</v>
       </c>
       <c r="K12">
         <v>41.193800000000003</v>
@@ -41079,8 +41230,14 @@
       <c r="L12">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="84">
+        <v>7.7289606995984901</v>
+      </c>
+      <c r="N12" s="56">
+        <v>7.7289409999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>231</v>
       </c>
@@ -41097,7 +41254,7 @@
         <v>2012</v>
       </c>
       <c r="F13" s="56">
-        <v>3.6994479999999998</v>
+        <v>3.6994482564836701</v>
       </c>
       <c r="K13">
         <v>41.193800000000003</v>
@@ -41105,8 +41262,14 @@
       <c r="L13">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="84">
+        <v>3.6994482564836701</v>
+      </c>
+      <c r="N13" s="56">
+        <v>3.6994479999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>231</v>
       </c>
@@ -41123,7 +41286,7 @@
         <v>2013</v>
       </c>
       <c r="F14" s="56">
-        <v>23.890933</v>
+        <v>23.8985946874608</v>
       </c>
       <c r="K14">
         <v>41.193800000000003</v>
@@ -41131,8 +41294,14 @@
       <c r="L14">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="83">
+        <v>23.8985946874608</v>
+      </c>
+      <c r="N14" s="56">
+        <v>23.890933</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>231</v>
       </c>
@@ -41149,7 +41318,7 @@
         <v>2013</v>
       </c>
       <c r="F15" s="56">
-        <v>32.226100000000002</v>
+        <v>32.235161800374001</v>
       </c>
       <c r="K15">
         <v>41.193800000000003</v>
@@ -41157,8 +41326,14 @@
       <c r="L15">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="83">
+        <v>32.235161800374001</v>
+      </c>
+      <c r="N15" s="56">
+        <v>32.226100000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>231</v>
       </c>
@@ -41175,7 +41350,7 @@
         <v>2013</v>
       </c>
       <c r="F16" s="56">
-        <v>19.107279999999999</v>
+        <v>19.1132729249378</v>
       </c>
       <c r="K16">
         <v>41.193800000000003</v>
@@ -41183,8 +41358,14 @@
       <c r="L16">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="83">
+        <v>19.1132729249378</v>
+      </c>
+      <c r="N16" s="56">
+        <v>19.107279999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>231</v>
       </c>
@@ -41201,7 +41382,7 @@
         <v>2013</v>
       </c>
       <c r="F17" s="56">
-        <v>20.81466</v>
+        <v>20.819684091088099</v>
       </c>
       <c r="K17">
         <v>41.193800000000003</v>
@@ -41209,8 +41390,14 @@
       <c r="L17">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="83">
+        <v>20.819684091088099</v>
+      </c>
+      <c r="N17" s="56">
+        <v>20.81466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>231</v>
       </c>
@@ -41227,7 +41414,7 @@
         <v>2013</v>
       </c>
       <c r="F18" s="56">
-        <v>36.2149</v>
+        <v>36.226840773504399</v>
       </c>
       <c r="K18">
         <v>41.193800000000003</v>
@@ -41235,8 +41422,14 @@
       <c r="L18">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="84">
+        <v>36.226840773504399</v>
+      </c>
+      <c r="N18" s="56">
+        <v>36.2149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>231</v>
       </c>
@@ -41253,7 +41446,7 @@
         <v>2013</v>
       </c>
       <c r="F19" s="56">
-        <v>16.269770000000001</v>
+        <v>16.271459630304602</v>
       </c>
       <c r="K19">
         <v>41.193800000000003</v>
@@ -41261,8 +41454,14 @@
       <c r="L19">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="84">
+        <v>16.271459630304602</v>
+      </c>
+      <c r="N19" s="56">
+        <v>16.269770000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>231</v>
       </c>
@@ -41279,7 +41478,7 @@
         <v>2014</v>
       </c>
       <c r="F20" s="56">
-        <v>37.126836699999998</v>
+        <v>37.154274293639098</v>
       </c>
       <c r="K20">
         <v>41.193800000000003</v>
@@ -41287,8 +41486,14 @@
       <c r="L20">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="83">
+        <v>37.154274293639098</v>
+      </c>
+      <c r="N20" s="56">
+        <v>37.126836699999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>231</v>
       </c>
@@ -41305,7 +41510,7 @@
         <v>2014</v>
       </c>
       <c r="F21" s="56">
-        <v>59.143658000000002</v>
+        <v>59.172386135875797</v>
       </c>
       <c r="K21">
         <v>41.193800000000003</v>
@@ -41313,8 +41518,14 @@
       <c r="L21">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="83">
+        <v>59.172386135875797</v>
+      </c>
+      <c r="N21" s="56">
+        <v>59.143658000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>231</v>
       </c>
@@ -41331,7 +41542,7 @@
         <v>2014</v>
       </c>
       <c r="F22" s="56">
-        <v>6.4460639999999998</v>
+        <v>6.4707712039542704</v>
       </c>
       <c r="K22">
         <v>41.193800000000003</v>
@@ -41339,8 +41550,14 @@
       <c r="L22">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="83">
+        <v>6.4707712039542704</v>
+      </c>
+      <c r="N22" s="56">
+        <v>6.4460639999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>231</v>
       </c>
@@ -41357,7 +41574,7 @@
         <v>2014</v>
       </c>
       <c r="F23" s="56">
-        <v>15.617248999999999</v>
+        <v>15.6447669866408</v>
       </c>
       <c r="K23">
         <v>41.193800000000003</v>
@@ -41365,8 +41582,14 @@
       <c r="L23">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="83">
+        <v>15.6447669866408</v>
+      </c>
+      <c r="N23" s="56">
+        <v>15.617248999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>231</v>
       </c>
@@ -41383,7 +41606,7 @@
         <v>2014</v>
       </c>
       <c r="F24" s="56">
-        <v>55.974493000000002</v>
+        <v>56.005994075571202</v>
       </c>
       <c r="K24">
         <v>41.193800000000003</v>
@@ -41391,8 +41614,14 @@
       <c r="L24">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="84">
+        <v>56.005994075571202</v>
+      </c>
+      <c r="N24" s="56">
+        <v>55.974493000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>231</v>
       </c>
@@ -41409,7 +41638,7 @@
         <v>2014</v>
       </c>
       <c r="F25" s="56">
-        <v>13.206845</v>
+        <v>13.224573919535301</v>
       </c>
       <c r="K25">
         <v>41.193800000000003</v>
@@ -41417,8 +41646,14 @@
       <c r="L25">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="84">
+        <v>13.224573919535301</v>
+      </c>
+      <c r="N25" s="56">
+        <v>13.206845</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>231</v>
       </c>
@@ -41435,7 +41670,7 @@
         <v>2015</v>
       </c>
       <c r="F26" s="56">
-        <v>10.623893900000001</v>
+        <v>10.6238939286857</v>
       </c>
       <c r="K26">
         <v>41.193800000000003</v>
@@ -41443,8 +41678,14 @@
       <c r="L26">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="83">
+        <v>10.6238939286857</v>
+      </c>
+      <c r="N26" s="56">
+        <v>10.623893900000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>231</v>
       </c>
@@ -41461,7 +41702,7 @@
         <v>2015</v>
       </c>
       <c r="F27" s="56">
-        <v>14.899558000000001</v>
+        <v>14.9004345219195</v>
       </c>
       <c r="K27">
         <v>41.193800000000003</v>
@@ -41469,8 +41710,14 @@
       <c r="L27">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="83">
+        <v>14.9004345219195</v>
+      </c>
+      <c r="N27" s="56">
+        <v>14.899558000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>231</v>
       </c>
@@ -41487,7 +41734,7 @@
         <v>2015</v>
       </c>
       <c r="F28" s="56">
-        <v>10.612791</v>
+        <v>10.6102212874851</v>
       </c>
       <c r="K28">
         <v>41.193800000000003</v>
@@ -41495,8 +41742,14 @@
       <c r="L28">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="83">
+        <v>10.6102212874851</v>
+      </c>
+      <c r="N28" s="56">
+        <v>10.612791</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>231</v>
       </c>
@@ -41513,7 +41766,7 @@
         <v>2015</v>
       </c>
       <c r="F29" s="56">
-        <v>9.9698910000000005</v>
+        <v>9.9696464002593608</v>
       </c>
       <c r="K29">
         <v>41.193800000000003</v>
@@ -41521,8 +41774,14 @@
       <c r="L29">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="83">
+        <v>9.9696464002593608</v>
+      </c>
+      <c r="N29" s="56">
+        <v>9.9698910000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>231</v>
       </c>
@@ -41539,7 +41798,7 @@
         <v>2015</v>
       </c>
       <c r="F30" s="56">
-        <v>51.153748</v>
+        <v>51.166072198054799</v>
       </c>
       <c r="K30">
         <v>41.193800000000003</v>
@@ -41547,8 +41806,14 @@
       <c r="L30">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="84">
+        <v>51.166072198054799</v>
+      </c>
+      <c r="N30" s="56">
+        <v>51.153748</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>231</v>
       </c>
@@ -41565,7 +41830,7 @@
         <v>2015</v>
       </c>
       <c r="F31" s="56">
-        <v>23.588162000000001</v>
+        <v>23.589501119907499</v>
       </c>
       <c r="K31">
         <v>41.193800000000003</v>
@@ -41573,8 +41838,14 @@
       <c r="L31">
         <v>-91.482900000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="84">
+        <v>23.589501119907499</v>
+      </c>
+      <c r="N31" s="56">
+        <v>23.588162000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>232</v>
       </c>
@@ -41605,8 +41876,11 @@
       <c r="L32">
         <v>-92.196700000000007</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="83">
+        <v>9.3818217310323497</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>232</v>
       </c>
@@ -41637,8 +41911,11 @@
       <c r="L33">
         <v>-92.196700000000007</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="83">
+        <v>14.7041876082792</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>232</v>
       </c>
@@ -41669,8 +41946,11 @@
       <c r="L34">
         <v>-92.196700000000007</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="83">
+        <v>3.3268933406616301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>232</v>
       </c>
@@ -41701,8 +41981,11 @@
       <c r="L35">
         <v>-92.196700000000007</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="83">
+        <v>1.3664545382970901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>232</v>
       </c>
@@ -41733,8 +42016,11 @@
       <c r="L36">
         <v>-92.196700000000007</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" s="84">
+        <v>20.138381222186901</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>232</v>
       </c>
@@ -41765,8 +42051,11 @@
       <c r="L37">
         <v>-92.196700000000007</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" s="84">
+        <v>4.3332229386391701</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>232</v>
       </c>
@@ -41798,7 +42087,7 @@
         <v>-92.196700000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>232</v>
       </c>
@@ -41830,7 +42119,7 @@
         <v>-92.196700000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>232</v>
       </c>
@@ -41862,7 +42151,7 @@
         <v>-92.196700000000007</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>232</v>
       </c>
@@ -41894,7 +42183,7 @@
         <v>-92.196700000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>232</v>
       </c>
@@ -41926,7 +42215,7 @@
         <v>-92.196700000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>232</v>
       </c>
@@ -41958,7 +42247,7 @@
         <v>-92.196700000000007</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>232</v>
       </c>
@@ -41990,7 +42279,7 @@
         <v>-92.196700000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>232</v>
       </c>
@@ -42022,7 +42311,7 @@
         <v>-92.196700000000007</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>232</v>
       </c>
@@ -42054,7 +42343,7 @@
         <v>-92.196700000000007</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>232</v>
       </c>
@@ -42086,7 +42375,7 @@
         <v>-92.196700000000007</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>232</v>
       </c>
@@ -67353,20 +67642,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ47"/>
+  <dimension ref="A1:AJ107"/>
   <sheetViews>
     <sheetView zoomScale="101" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="15" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" style="15" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="15" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="60"/>
-    <col min="8" max="8" width="14.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="15" customWidth="1"/>
+    <col min="6" max="7" width="12.5703125" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="12" style="17" bestFit="1" customWidth="1"/>
     <col min="19" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="30" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
@@ -67375,7 +67670,7 @@
     <col min="36" max="36" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>217</v>
       </c>
@@ -67394,6 +67689,27 @@
       <c r="F1" s="59"/>
       <c r="G1" s="59"/>
       <c r="H1" s="59"/>
+      <c r="J1" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="L1" s="79" t="s">
+        <v>442</v>
+      </c>
+      <c r="M1" s="79" t="s">
+        <v>443</v>
+      </c>
+      <c r="N1" s="79" t="s">
+        <v>444</v>
+      </c>
+      <c r="O1" s="80" t="s">
+        <v>445</v>
+      </c>
+      <c r="P1" s="80" t="s">
+        <v>446</v>
+      </c>
       <c r="T1">
         <v>1</v>
       </c>
@@ -67454,6 +67770,27 @@
         <f t="shared" ref="H2:H31" si="0">(E2-C2)/E2</f>
         <v>-1.570343343829357</v>
       </c>
+      <c r="J2" s="17">
+        <v>2007</v>
+      </c>
+      <c r="K2" s="17">
+        <v>32.525867683855601</v>
+      </c>
+      <c r="L2" s="79">
+        <v>43.715831081228103</v>
+      </c>
+      <c r="M2" s="79">
+        <v>19.095838707493002</v>
+      </c>
+      <c r="N2" s="79">
+        <v>27.370114686652201</v>
+      </c>
+      <c r="O2" s="80">
+        <v>37.154797204354303</v>
+      </c>
+      <c r="P2" s="80">
+        <v>19.512016956402899</v>
+      </c>
       <c r="S2">
         <v>2011</v>
       </c>
@@ -67527,6 +67864,27 @@
         <f t="shared" si="0"/>
         <v>0.22770471634197734</v>
       </c>
+      <c r="J3" s="17">
+        <v>2008</v>
+      </c>
+      <c r="K3" s="17">
+        <v>23.058711672222199</v>
+      </c>
+      <c r="L3" s="79">
+        <v>25.886014461666701</v>
+      </c>
+      <c r="M3" s="79">
+        <v>21.198533416210001</v>
+      </c>
+      <c r="N3" s="79">
+        <v>22.3685433553586</v>
+      </c>
+      <c r="O3" s="80">
+        <v>22.991812047709999</v>
+      </c>
+      <c r="P3" s="80">
+        <v>18.1524880755853</v>
+      </c>
       <c r="S3">
         <v>2012</v>
       </c>
@@ -67601,6 +67959,27 @@
         <f t="shared" si="0"/>
         <v>0.13596782836876695</v>
       </c>
+      <c r="J4" s="17">
+        <v>2009</v>
+      </c>
+      <c r="K4" s="17">
+        <v>31.0960956387378</v>
+      </c>
+      <c r="L4" s="79">
+        <v>0</v>
+      </c>
+      <c r="M4" s="79">
+        <v>14.33156483408</v>
+      </c>
+      <c r="N4" s="79">
+        <v>24.972719571799999</v>
+      </c>
+      <c r="O4" s="80">
+        <v>47.726308199400002</v>
+      </c>
+      <c r="P4" s="80">
+        <v>19.0556452217537</v>
+      </c>
       <c r="S4">
         <v>2013</v>
       </c>
@@ -67675,6 +68054,27 @@
         <f t="shared" si="0"/>
         <v>0.40645420586368719</v>
       </c>
+      <c r="J5" s="17">
+        <v>2010</v>
+      </c>
+      <c r="K5" s="17">
+        <v>28.144987626739901</v>
+      </c>
+      <c r="L5" s="79">
+        <v>0</v>
+      </c>
+      <c r="M5" s="79">
+        <v>17.389732712366701</v>
+      </c>
+      <c r="N5" s="79">
+        <v>21.8253746110333</v>
+      </c>
+      <c r="O5" s="80">
+        <v>29.455664928803898</v>
+      </c>
+      <c r="P5" s="80">
+        <v>21.009354907007499</v>
+      </c>
       <c r="S5">
         <v>2014</v>
       </c>
@@ -67749,6 +68149,27 @@
         <f t="shared" si="0"/>
         <v>0.38960230835600357</v>
       </c>
+      <c r="J6" s="17">
+        <v>2011</v>
+      </c>
+      <c r="K6" s="17">
+        <v>9.1025996493385506</v>
+      </c>
+      <c r="L6" s="79">
+        <v>30.2445924049733</v>
+      </c>
+      <c r="M6" s="79">
+        <v>9.7001828208000003</v>
+      </c>
+      <c r="N6" s="79">
+        <v>9.5913074339377609</v>
+      </c>
+      <c r="O6" s="80">
+        <v>19.05049434675</v>
+      </c>
+      <c r="P6" s="80">
+        <v>5.5771901070694296</v>
+      </c>
       <c r="S6">
         <v>2015</v>
       </c>
@@ -67823,6 +68244,27 @@
         <f t="shared" si="0"/>
         <v>-1.7851572277004391E-3</v>
       </c>
+      <c r="J7" s="17">
+        <v>2012</v>
+      </c>
+      <c r="K7" s="17">
+        <v>14.461191714423901</v>
+      </c>
+      <c r="L7" s="79">
+        <v>12.322867652470499</v>
+      </c>
+      <c r="M7" s="79">
+        <v>4.2925759112617303</v>
+      </c>
+      <c r="N7" s="79">
+        <v>5.9977010626825402</v>
+      </c>
+      <c r="O7" s="80">
+        <v>7.7289606995984901</v>
+      </c>
+      <c r="P7" s="80">
+        <v>3.6994482564836701</v>
+      </c>
       <c r="AA7" s="42">
         <v>1</v>
       </c>
@@ -67874,6 +68316,27 @@
         <f t="shared" si="0"/>
         <v>-1.7864169227517488E-3</v>
       </c>
+      <c r="J8" s="17">
+        <v>2013</v>
+      </c>
+      <c r="K8" s="17">
+        <v>23.8985946874608</v>
+      </c>
+      <c r="L8" s="79">
+        <v>32.235161800374001</v>
+      </c>
+      <c r="M8" s="79">
+        <v>19.1132729249378</v>
+      </c>
+      <c r="N8" s="79">
+        <v>20.819684091088099</v>
+      </c>
+      <c r="O8" s="80">
+        <v>36.226840773504399</v>
+      </c>
+      <c r="P8" s="80">
+        <v>16.271459630304602</v>
+      </c>
       <c r="T8">
         <v>2011</v>
       </c>
@@ -67942,6 +68405,27 @@
         <f t="shared" si="0"/>
         <v>-1.7863049230554503E-3</v>
       </c>
+      <c r="J9" s="17">
+        <v>2014</v>
+      </c>
+      <c r="K9" s="17">
+        <v>37.154274293639098</v>
+      </c>
+      <c r="L9" s="79">
+        <v>59.172386135875797</v>
+      </c>
+      <c r="M9" s="79">
+        <v>6.4707712039542704</v>
+      </c>
+      <c r="N9" s="79">
+        <v>15.6447669866408</v>
+      </c>
+      <c r="O9" s="80">
+        <v>56.005994075571202</v>
+      </c>
+      <c r="P9" s="80">
+        <v>13.224573919535301</v>
+      </c>
       <c r="S9">
         <v>1</v>
       </c>
@@ -68001,6 +68485,27 @@
         <f t="shared" si="0"/>
         <v>-1.7860975121028E-3</v>
       </c>
+      <c r="J10" s="17">
+        <v>2015</v>
+      </c>
+      <c r="K10" s="17">
+        <v>10.6238939286857</v>
+      </c>
+      <c r="L10" s="79">
+        <v>14.9004345219195</v>
+      </c>
+      <c r="M10" s="79">
+        <v>10.6102212874851</v>
+      </c>
+      <c r="N10" s="79">
+        <v>9.9696464002593608</v>
+      </c>
+      <c r="O10" s="80">
+        <v>51.166072198054799</v>
+      </c>
+      <c r="P10" s="80">
+        <v>23.589501119907499</v>
+      </c>
       <c r="S10">
         <v>2</v>
       </c>
@@ -68060,6 +68565,27 @@
         <f t="shared" si="0"/>
         <v>-1.7861345131077145E-3</v>
       </c>
+      <c r="J11" s="17">
+        <v>2016</v>
+      </c>
+      <c r="K11" s="17">
+        <v>9.3818217310323497</v>
+      </c>
+      <c r="L11" s="79">
+        <v>14.7041876082792</v>
+      </c>
+      <c r="M11" s="79">
+        <v>3.3268933406616301</v>
+      </c>
+      <c r="N11" s="79">
+        <v>1.3664545382970901</v>
+      </c>
+      <c r="O11" s="80">
+        <v>20.138381222186901</v>
+      </c>
+      <c r="P11" s="80">
+        <v>4.3332229386391701</v>
+      </c>
       <c r="S11">
         <v>3</v>
       </c>
@@ -68119,6 +68645,11 @@
         <f t="shared" si="0"/>
         <v>-1.7862331148862398E-3</v>
       </c>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
       <c r="S12">
         <v>4</v>
       </c>
@@ -68176,6 +68707,11 @@
         <f t="shared" si="0"/>
         <v>-1.7860443493506375E-3</v>
       </c>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
       <c r="S13">
         <v>5</v>
       </c>
@@ -68235,6 +68771,11 @@
         <f t="shared" si="0"/>
         <v>-1.7864323834320156E-3</v>
       </c>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
       <c r="S14">
         <v>6</v>
       </c>
@@ -68294,6 +68835,11 @@
         <f t="shared" si="0"/>
         <v>-1.7861330615513845E-3</v>
       </c>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
       <c r="AA15" s="1">
         <v>3</v>
       </c>
@@ -68335,6 +68881,11 @@
         <f t="shared" si="0"/>
         <v>-1.7864325925982215E-3</v>
       </c>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
       <c r="S16" s="77" t="s">
         <v>49</v>
       </c>
@@ -68387,6 +68938,11 @@
         <f t="shared" si="0"/>
         <v>-1.7862775505954004E-3</v>
       </c>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
       <c r="S17" s="78"/>
       <c r="T17" s="78"/>
       <c r="U17" s="44" t="s">
@@ -68437,6 +68993,11 @@
         <f t="shared" si="0"/>
         <v>-1.7862013523618698E-3</v>
       </c>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
       <c r="S18" s="1">
         <v>1</v>
       </c>
@@ -68494,6 +69055,11 @@
         <f t="shared" si="0"/>
         <v>-1.7862067471861674E-3</v>
       </c>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
       <c r="S19" s="1">
         <v>2</v>
       </c>
@@ -68551,6 +69117,11 @@
         <f t="shared" si="0"/>
         <v>-1.7864061477670592E-3</v>
       </c>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
       <c r="S20" s="1">
         <v>3</v>
       </c>
@@ -68611,6 +69182,11 @@
         <f t="shared" si="0"/>
         <v>-1.7861987608346148E-3</v>
       </c>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
       <c r="S21" s="1">
         <v>4</v>
       </c>
@@ -68668,6 +69244,11 @@
         <f t="shared" si="0"/>
         <v>-1.7859491099447981E-3</v>
       </c>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
       <c r="S22" s="1">
         <v>5</v>
       </c>
@@ -68723,6 +69304,11 @@
         <f t="shared" si="0"/>
         <v>-152681.14136708158</v>
       </c>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
       <c r="S23" s="1">
         <v>6</v>
       </c>
@@ -68780,6 +69366,11 @@
         <f t="shared" si="0"/>
         <v>-1.7860694494352838E-3</v>
       </c>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
       <c r="S24" s="1">
         <v>1</v>
       </c>
@@ -68837,6 +69428,11 @@
         <f t="shared" si="0"/>
         <v>-1.7861933551667386E-3</v>
       </c>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
       <c r="S25" s="1">
         <v>2</v>
       </c>
@@ -68894,6 +69490,11 @@
         <f t="shared" si="0"/>
         <v>-1.78620178314674E-3</v>
       </c>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="80"/>
       <c r="S26" s="1">
         <v>3</v>
       </c>
@@ -68951,6 +69552,11 @@
         <f t="shared" si="0"/>
         <v>-1.7863423217456852E-3</v>
       </c>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
       <c r="S27" s="1">
         <v>4</v>
       </c>
@@ -69006,6 +69612,11 @@
         <f t="shared" si="0"/>
         <v>-1.7861533578925034E-3</v>
       </c>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="80"/>
       <c r="S28" s="1">
         <v>5</v>
       </c>
@@ -69063,6 +69674,11 @@
         <f t="shared" si="0"/>
         <v>-1.7863696033928237E-3</v>
       </c>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
       <c r="S29" s="1">
         <v>6</v>
       </c>
@@ -69120,6 +69736,11 @@
         <f t="shared" si="0"/>
         <v>-1.7859716459460357E-3</v>
       </c>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
       <c r="S30" s="1">
         <v>1</v>
       </c>
@@ -69177,6 +69798,11 @@
         <f t="shared" si="0"/>
         <v>-1.7863680184829495E-3</v>
       </c>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="80"/>
       <c r="S31" s="1">
         <v>2</v>
       </c>
@@ -69211,6 +69837,11 @@
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="80"/>
       <c r="S32" s="1">
         <v>3</v>
       </c>
@@ -69242,7 +69873,12 @@
         <v>23.588162023184807</v>
       </c>
     </row>
-    <row r="33" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="80"/>
       <c r="S33" s="1">
         <v>4</v>
       </c>
@@ -69260,7 +69896,12 @@
         <v>0.69922129383209608</v>
       </c>
     </row>
-    <row r="34" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="80"/>
       <c r="S34" s="1">
         <v>5</v>
       </c>
@@ -69278,7 +69919,35 @@
         <v>0.80993384737238472</v>
       </c>
     </row>
-    <row r="35" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="81" t="s">
+        <v>440</v>
+      </c>
+      <c r="B35" s="81">
+        <v>2007</v>
+      </c>
+      <c r="C35" s="81">
+        <v>2008</v>
+      </c>
+      <c r="D35" s="81">
+        <v>2009</v>
+      </c>
+      <c r="E35" s="81">
+        <v>2010</v>
+      </c>
+      <c r="F35" s="81">
+        <v>2011</v>
+      </c>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="80"/>
       <c r="S35" s="1">
         <v>6</v>
       </c>
@@ -69296,7 +69965,30 @@
         <v>0.32675268400698876</v>
       </c>
     </row>
-    <row r="36" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="B36" s="83">
+        <v>32.525867683855601</v>
+      </c>
+      <c r="C36" s="83">
+        <v>23.058711672222199</v>
+      </c>
+      <c r="D36" s="83">
+        <v>31.0960956387378</v>
+      </c>
+      <c r="E36" s="83">
+        <v>28.144987626739901</v>
+      </c>
+      <c r="F36" s="83">
+        <v>9.1025996493385506</v>
+      </c>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="80"/>
       <c r="S36" s="1">
         <v>1</v>
       </c>
@@ -69314,7 +70006,30 @@
         <v>-8.2850647939563586</v>
       </c>
     </row>
-    <row r="37" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="81" t="s">
+        <v>442</v>
+      </c>
+      <c r="B37" s="83">
+        <v>43.715831081228103</v>
+      </c>
+      <c r="C37" s="83">
+        <v>25.886014461666701</v>
+      </c>
+      <c r="D37" s="83">
+        <v>0</v>
+      </c>
+      <c r="E37" s="83">
+        <v>0</v>
+      </c>
+      <c r="F37" s="83">
+        <v>30.2445924049733</v>
+      </c>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="80"/>
       <c r="S37" s="1">
         <v>2</v>
       </c>
@@ -69332,7 +70047,30 @@
         <v>2.3004960969402646</v>
       </c>
     </row>
-    <row r="38" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="81" t="s">
+        <v>443</v>
+      </c>
+      <c r="B38" s="83">
+        <v>19.095838707493002</v>
+      </c>
+      <c r="C38" s="83">
+        <v>21.198533416210001</v>
+      </c>
+      <c r="D38" s="83">
+        <v>14.33156483408</v>
+      </c>
+      <c r="E38" s="83">
+        <v>17.389732712366701</v>
+      </c>
+      <c r="F38" s="83">
+        <v>9.7001828208000003</v>
+      </c>
+      <c r="L38" s="79"/>
+      <c r="M38" s="79"/>
+      <c r="N38" s="79"/>
+      <c r="O38" s="80"/>
+      <c r="P38" s="80"/>
       <c r="S38" s="1">
         <v>3</v>
       </c>
@@ -69350,7 +70088,30 @@
         <v>-10.067110011531941</v>
       </c>
     </row>
-    <row r="39" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="81" t="s">
+        <v>444</v>
+      </c>
+      <c r="B39" s="83">
+        <v>27.370114686652201</v>
+      </c>
+      <c r="C39" s="83">
+        <v>22.3685433553586</v>
+      </c>
+      <c r="D39" s="83">
+        <v>24.972719571799999</v>
+      </c>
+      <c r="E39" s="83">
+        <v>21.8253746110333</v>
+      </c>
+      <c r="F39" s="83">
+        <v>9.5913074339377609</v>
+      </c>
+      <c r="L39" s="79"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="79"/>
+      <c r="O39" s="80"/>
+      <c r="P39" s="80"/>
       <c r="S39" s="1">
         <v>4</v>
       </c>
@@ -69368,7 +70129,30 @@
         <v>4.973132320845508E-2</v>
       </c>
     </row>
-    <row r="40" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="82" t="s">
+        <v>445</v>
+      </c>
+      <c r="B40" s="84">
+        <v>37.154797204354303</v>
+      </c>
+      <c r="C40" s="84">
+        <v>22.991812047709999</v>
+      </c>
+      <c r="D40" s="84">
+        <v>47.726308199400002</v>
+      </c>
+      <c r="E40" s="84">
+        <v>29.455664928803898</v>
+      </c>
+      <c r="F40" s="84">
+        <v>19.05049434675</v>
+      </c>
+      <c r="L40" s="79"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="79"/>
+      <c r="O40" s="80"/>
+      <c r="P40" s="80"/>
       <c r="S40" s="1">
         <v>5</v>
       </c>
@@ -69386,7 +70170,30 @@
         <v>0.11806283013723373</v>
       </c>
     </row>
-    <row r="41" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="82" t="s">
+        <v>446</v>
+      </c>
+      <c r="B41" s="84">
+        <v>19.512016956402899</v>
+      </c>
+      <c r="C41" s="84">
+        <v>18.1524880755853</v>
+      </c>
+      <c r="D41" s="84">
+        <v>19.0556452217537</v>
+      </c>
+      <c r="E41" s="84">
+        <v>21.009354907007499</v>
+      </c>
+      <c r="F41" s="84">
+        <v>5.5771901070694296</v>
+      </c>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="80"/>
+      <c r="P41" s="80"/>
       <c r="S41" s="1">
         <v>6</v>
       </c>
@@ -69404,7 +70211,15 @@
         <v>1.4589059353748777</v>
       </c>
     </row>
-    <row r="42" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F42" s="83">
+        <v>14.461191714423901</v>
+      </c>
+      <c r="L42" s="79"/>
+      <c r="M42" s="79"/>
+      <c r="N42" s="79"/>
+      <c r="O42" s="80"/>
+      <c r="P42" s="80"/>
       <c r="S42" s="42">
         <v>1</v>
       </c>
@@ -69420,7 +70235,15 @@
         <v>6.4732370062486293</v>
       </c>
     </row>
-    <row r="43" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F43" s="83">
+        <v>12.322867652470499</v>
+      </c>
+      <c r="L43" s="79"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="79"/>
+      <c r="O43" s="80"/>
+      <c r="P43" s="80"/>
       <c r="S43" s="1">
         <v>2</v>
       </c>
@@ -69436,7 +70259,15 @@
         <v>14.899464757295986</v>
       </c>
     </row>
-    <row r="44" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F44" s="83">
+        <v>4.2925759112617303</v>
+      </c>
+      <c r="L44" s="79"/>
+      <c r="M44" s="79"/>
+      <c r="N44" s="79"/>
+      <c r="O44" s="80"/>
+      <c r="P44" s="80"/>
       <c r="S44" s="1">
         <v>3</v>
       </c>
@@ -69452,7 +70283,15 @@
         <v>10.609299296662067</v>
       </c>
     </row>
-    <row r="45" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F45" s="83">
+        <v>5.9977010626825402</v>
+      </c>
+      <c r="L45" s="79"/>
+      <c r="M45" s="79"/>
+      <c r="N45" s="79"/>
+      <c r="O45" s="80"/>
+      <c r="P45" s="80"/>
       <c r="S45" s="1">
         <v>4</v>
       </c>
@@ -69471,7 +70310,15 @@
         <v>9.9700000000000006</v>
       </c>
     </row>
-    <row r="46" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F46" s="84">
+        <v>7.7289606995984901</v>
+      </c>
+      <c r="L46" s="79"/>
+      <c r="M46" s="79"/>
+      <c r="N46" s="79"/>
+      <c r="O46" s="80"/>
+      <c r="P46" s="80"/>
       <c r="S46" s="1">
         <v>5</v>
       </c>
@@ -69487,7 +70334,15 @@
         <v>51.15374766070407</v>
       </c>
     </row>
-    <row r="47" spans="19:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F47" s="84">
+        <v>3.6994482564836701</v>
+      </c>
+      <c r="L47" s="79"/>
+      <c r="M47" s="79"/>
+      <c r="N47" s="79"/>
+      <c r="O47" s="80"/>
+      <c r="P47" s="80"/>
       <c r="S47" s="42">
         <v>6</v>
       </c>
@@ -69502,6 +70357,498 @@
         <f t="shared" si="2"/>
         <v>23.588162023184807</v>
       </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F48" s="83">
+        <v>23.8985946874608</v>
+      </c>
+      <c r="L48" s="79"/>
+      <c r="M48" s="79"/>
+      <c r="N48" s="79"/>
+      <c r="O48" s="80"/>
+      <c r="P48" s="80"/>
+    </row>
+    <row r="49" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F49" s="83">
+        <v>32.235161800374001</v>
+      </c>
+      <c r="L49" s="79"/>
+      <c r="M49" s="79"/>
+      <c r="N49" s="79"/>
+      <c r="O49" s="80"/>
+      <c r="P49" s="80"/>
+    </row>
+    <row r="50" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F50" s="83">
+        <v>19.1132729249378</v>
+      </c>
+      <c r="L50" s="79"/>
+      <c r="M50" s="79"/>
+      <c r="N50" s="79"/>
+      <c r="O50" s="80"/>
+      <c r="P50" s="80"/>
+    </row>
+    <row r="51" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F51" s="83">
+        <v>20.819684091088099</v>
+      </c>
+      <c r="L51" s="79"/>
+      <c r="M51" s="79"/>
+      <c r="N51" s="79"/>
+      <c r="O51" s="80"/>
+      <c r="P51" s="80"/>
+    </row>
+    <row r="52" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F52" s="84">
+        <v>36.226840773504399</v>
+      </c>
+      <c r="L52" s="79"/>
+      <c r="M52" s="79"/>
+      <c r="N52" s="79"/>
+      <c r="O52" s="80"/>
+      <c r="P52" s="80"/>
+    </row>
+    <row r="53" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F53" s="84">
+        <v>16.271459630304602</v>
+      </c>
+      <c r="L53" s="79"/>
+      <c r="M53" s="79"/>
+      <c r="N53" s="79"/>
+      <c r="O53" s="80"/>
+      <c r="P53" s="80"/>
+    </row>
+    <row r="54" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F54" s="83">
+        <v>37.154274293639098</v>
+      </c>
+      <c r="L54" s="79"/>
+      <c r="M54" s="79"/>
+      <c r="N54" s="79"/>
+      <c r="O54" s="80"/>
+      <c r="P54" s="80"/>
+    </row>
+    <row r="55" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F55" s="83">
+        <v>59.172386135875797</v>
+      </c>
+      <c r="L55" s="79"/>
+      <c r="M55" s="79"/>
+      <c r="N55" s="79"/>
+      <c r="O55" s="80"/>
+      <c r="P55" s="80"/>
+    </row>
+    <row r="56" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F56" s="83">
+        <v>6.4707712039542704</v>
+      </c>
+      <c r="L56" s="79"/>
+      <c r="M56" s="79"/>
+      <c r="N56" s="79"/>
+      <c r="O56" s="80"/>
+      <c r="P56" s="80"/>
+    </row>
+    <row r="57" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F57" s="83">
+        <v>15.6447669866408</v>
+      </c>
+      <c r="L57" s="79"/>
+      <c r="M57" s="79"/>
+      <c r="N57" s="79"/>
+      <c r="O57" s="80"/>
+      <c r="P57" s="80"/>
+    </row>
+    <row r="58" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F58" s="84">
+        <v>56.005994075571202</v>
+      </c>
+      <c r="L58" s="79"/>
+      <c r="M58" s="79"/>
+      <c r="N58" s="79"/>
+      <c r="O58" s="80"/>
+      <c r="P58" s="80"/>
+    </row>
+    <row r="59" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F59" s="84">
+        <v>13.224573919535301</v>
+      </c>
+      <c r="L59" s="79"/>
+      <c r="M59" s="79"/>
+      <c r="N59" s="79"/>
+      <c r="O59" s="80"/>
+      <c r="P59" s="80"/>
+    </row>
+    <row r="60" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F60" s="83">
+        <v>10.6238939286857</v>
+      </c>
+      <c r="L60" s="79"/>
+      <c r="M60" s="79"/>
+      <c r="N60" s="79"/>
+      <c r="O60" s="80"/>
+      <c r="P60" s="80"/>
+    </row>
+    <row r="61" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F61" s="83">
+        <v>14.9004345219195</v>
+      </c>
+      <c r="L61" s="79"/>
+      <c r="M61" s="79"/>
+      <c r="N61" s="79"/>
+      <c r="O61" s="80"/>
+      <c r="P61" s="80"/>
+    </row>
+    <row r="62" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F62" s="83">
+        <v>10.6102212874851</v>
+      </c>
+      <c r="L62" s="79"/>
+      <c r="M62" s="79"/>
+      <c r="N62" s="79"/>
+      <c r="O62" s="80"/>
+      <c r="P62" s="80"/>
+    </row>
+    <row r="63" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F63" s="83">
+        <v>9.9696464002593608</v>
+      </c>
+      <c r="L63" s="79"/>
+      <c r="M63" s="79"/>
+      <c r="N63" s="79"/>
+      <c r="O63" s="80"/>
+      <c r="P63" s="80"/>
+    </row>
+    <row r="64" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F64" s="84">
+        <v>51.166072198054799</v>
+      </c>
+      <c r="L64" s="79"/>
+      <c r="M64" s="79"/>
+      <c r="N64" s="79"/>
+      <c r="O64" s="80"/>
+      <c r="P64" s="80"/>
+    </row>
+    <row r="65" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F65" s="84">
+        <v>23.589501119907499</v>
+      </c>
+      <c r="L65" s="79"/>
+      <c r="M65" s="79"/>
+      <c r="N65" s="79"/>
+      <c r="O65" s="80"/>
+      <c r="P65" s="80"/>
+    </row>
+    <row r="66" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F66" s="83">
+        <v>9.3818217310323497</v>
+      </c>
+      <c r="L66" s="79"/>
+      <c r="M66" s="79"/>
+      <c r="N66" s="79"/>
+      <c r="O66" s="80"/>
+      <c r="P66" s="80"/>
+    </row>
+    <row r="67" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F67" s="83">
+        <v>14.7041876082792</v>
+      </c>
+      <c r="L67" s="79"/>
+      <c r="M67" s="79"/>
+      <c r="N67" s="79"/>
+      <c r="O67" s="80"/>
+      <c r="P67" s="80"/>
+    </row>
+    <row r="68" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F68" s="83">
+        <v>3.3268933406616301</v>
+      </c>
+      <c r="L68" s="79"/>
+      <c r="M68" s="79"/>
+      <c r="N68" s="79"/>
+      <c r="O68" s="80"/>
+      <c r="P68" s="80"/>
+    </row>
+    <row r="69" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F69" s="83">
+        <v>1.3664545382970901</v>
+      </c>
+      <c r="L69" s="79"/>
+      <c r="M69" s="79"/>
+      <c r="N69" s="79"/>
+      <c r="O69" s="80"/>
+      <c r="P69" s="80"/>
+    </row>
+    <row r="70" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F70" s="84">
+        <v>20.138381222186901</v>
+      </c>
+      <c r="L70" s="79"/>
+      <c r="M70" s="79"/>
+      <c r="N70" s="79"/>
+      <c r="O70" s="80"/>
+      <c r="P70" s="80"/>
+    </row>
+    <row r="71" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F71" s="84">
+        <v>4.3332229386391701</v>
+      </c>
+      <c r="L71" s="79"/>
+      <c r="M71" s="79"/>
+      <c r="N71" s="79"/>
+      <c r="O71" s="80"/>
+      <c r="P71" s="80"/>
+    </row>
+    <row r="72" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="L72" s="79"/>
+      <c r="M72" s="79"/>
+      <c r="N72" s="79"/>
+      <c r="O72" s="80"/>
+      <c r="P72" s="80"/>
+    </row>
+    <row r="73" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="L73" s="79"/>
+      <c r="M73" s="79"/>
+      <c r="N73" s="79"/>
+      <c r="O73" s="80"/>
+      <c r="P73" s="80"/>
+    </row>
+    <row r="74" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="L74" s="79"/>
+      <c r="M74" s="79"/>
+      <c r="N74" s="79"/>
+      <c r="O74" s="80"/>
+      <c r="P74" s="80"/>
+    </row>
+    <row r="75" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="L75" s="79"/>
+      <c r="M75" s="79"/>
+      <c r="N75" s="79"/>
+      <c r="O75" s="80"/>
+      <c r="P75" s="80"/>
+    </row>
+    <row r="76" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="L76" s="79"/>
+      <c r="M76" s="79"/>
+      <c r="N76" s="79"/>
+      <c r="O76" s="80"/>
+      <c r="P76" s="80"/>
+    </row>
+    <row r="77" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="L77" s="79"/>
+      <c r="M77" s="79"/>
+      <c r="N77" s="79"/>
+      <c r="O77" s="80"/>
+      <c r="P77" s="80"/>
+    </row>
+    <row r="78" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="L78" s="79"/>
+      <c r="M78" s="79"/>
+      <c r="N78" s="79"/>
+      <c r="O78" s="80"/>
+      <c r="P78" s="80"/>
+    </row>
+    <row r="79" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="L79" s="79"/>
+      <c r="M79" s="79"/>
+      <c r="N79" s="79"/>
+      <c r="O79" s="80"/>
+      <c r="P79" s="80"/>
+    </row>
+    <row r="80" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="L80" s="79"/>
+      <c r="M80" s="79"/>
+      <c r="N80" s="79"/>
+      <c r="O80" s="80"/>
+      <c r="P80" s="80"/>
+    </row>
+    <row r="81" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L81" s="79"/>
+      <c r="M81" s="79"/>
+      <c r="N81" s="79"/>
+      <c r="O81" s="80"/>
+      <c r="P81" s="80"/>
+    </row>
+    <row r="82" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L82" s="79"/>
+      <c r="M82" s="79"/>
+      <c r="N82" s="79"/>
+      <c r="O82" s="80"/>
+      <c r="P82" s="80"/>
+    </row>
+    <row r="83" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L83" s="79"/>
+      <c r="M83" s="79"/>
+      <c r="N83" s="79"/>
+      <c r="O83" s="80"/>
+      <c r="P83" s="80"/>
+    </row>
+    <row r="84" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L84" s="79"/>
+      <c r="M84" s="79"/>
+      <c r="N84" s="79"/>
+      <c r="O84" s="80"/>
+      <c r="P84" s="80"/>
+    </row>
+    <row r="85" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L85" s="79"/>
+      <c r="M85" s="79"/>
+      <c r="N85" s="79"/>
+      <c r="O85" s="80"/>
+      <c r="P85" s="80"/>
+    </row>
+    <row r="86" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L86" s="79"/>
+      <c r="M86" s="79"/>
+      <c r="N86" s="79"/>
+      <c r="O86" s="80"/>
+      <c r="P86" s="80"/>
+    </row>
+    <row r="87" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L87" s="79"/>
+      <c r="M87" s="79"/>
+      <c r="N87" s="79"/>
+      <c r="O87" s="80"/>
+      <c r="P87" s="80"/>
+    </row>
+    <row r="88" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L88" s="79"/>
+      <c r="M88" s="79"/>
+      <c r="N88" s="79"/>
+      <c r="O88" s="80"/>
+      <c r="P88" s="80"/>
+    </row>
+    <row r="89" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L89" s="79"/>
+      <c r="M89" s="79"/>
+      <c r="N89" s="79"/>
+      <c r="O89" s="80"/>
+      <c r="P89" s="80"/>
+    </row>
+    <row r="90" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L90" s="79"/>
+      <c r="M90" s="79"/>
+      <c r="N90" s="79"/>
+      <c r="O90" s="80"/>
+      <c r="P90" s="80"/>
+    </row>
+    <row r="91" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L91" s="79"/>
+      <c r="M91" s="79"/>
+      <c r="N91" s="79"/>
+      <c r="O91" s="80"/>
+      <c r="P91" s="80"/>
+    </row>
+    <row r="92" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L92" s="79"/>
+      <c r="M92" s="79"/>
+      <c r="N92" s="79"/>
+      <c r="O92" s="80"/>
+      <c r="P92" s="80"/>
+    </row>
+    <row r="93" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L93" s="79"/>
+      <c r="M93" s="79"/>
+      <c r="N93" s="79"/>
+      <c r="O93" s="80"/>
+      <c r="P93" s="80"/>
+    </row>
+    <row r="94" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L94" s="79"/>
+      <c r="M94" s="79"/>
+      <c r="N94" s="79"/>
+      <c r="O94" s="80"/>
+      <c r="P94" s="80"/>
+    </row>
+    <row r="95" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L95" s="79"/>
+      <c r="M95" s="79"/>
+      <c r="N95" s="79"/>
+      <c r="O95" s="80"/>
+      <c r="P95" s="80"/>
+    </row>
+    <row r="96" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L96" s="79"/>
+      <c r="M96" s="79"/>
+      <c r="N96" s="79"/>
+      <c r="O96" s="80"/>
+      <c r="P96" s="80"/>
+    </row>
+    <row r="97" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L97" s="79"/>
+      <c r="M97" s="79"/>
+      <c r="N97" s="79"/>
+      <c r="O97" s="80"/>
+      <c r="P97" s="80"/>
+    </row>
+    <row r="98" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L98" s="79"/>
+      <c r="M98" s="79"/>
+      <c r="N98" s="79"/>
+      <c r="O98" s="80"/>
+      <c r="P98" s="80"/>
+    </row>
+    <row r="99" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L99" s="79"/>
+      <c r="M99" s="79"/>
+      <c r="N99" s="79"/>
+      <c r="O99" s="80"/>
+      <c r="P99" s="80"/>
+    </row>
+    <row r="100" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L100" s="79"/>
+      <c r="M100" s="79"/>
+      <c r="N100" s="79"/>
+      <c r="O100" s="80"/>
+      <c r="P100" s="80"/>
+    </row>
+    <row r="101" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L101" s="79"/>
+      <c r="M101" s="79"/>
+      <c r="N101" s="79"/>
+      <c r="O101" s="80"/>
+      <c r="P101" s="80"/>
+    </row>
+    <row r="102" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L102" s="79"/>
+      <c r="M102" s="79"/>
+      <c r="N102" s="79"/>
+      <c r="O102" s="80"/>
+      <c r="P102" s="80"/>
+    </row>
+    <row r="103" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L103" s="79"/>
+      <c r="M103" s="79"/>
+      <c r="N103" s="79"/>
+      <c r="O103" s="80"/>
+      <c r="P103" s="80"/>
+    </row>
+    <row r="104" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L104" s="79"/>
+      <c r="M104" s="79"/>
+      <c r="N104" s="79"/>
+      <c r="O104" s="80"/>
+      <c r="P104" s="80"/>
+    </row>
+    <row r="105" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L105" s="79"/>
+      <c r="M105" s="79"/>
+      <c r="N105" s="79"/>
+      <c r="O105" s="80"/>
+      <c r="P105" s="80"/>
+    </row>
+    <row r="106" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L106" s="79"/>
+      <c r="M106" s="79"/>
+      <c r="N106" s="79"/>
+      <c r="O106" s="80"/>
+      <c r="P106" s="80"/>
+    </row>
+    <row r="107" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L107" s="79"/>
+      <c r="M107" s="79"/>
+      <c r="N107" s="79"/>
+      <c r="O107" s="80"/>
+      <c r="P107" s="80"/>
     </row>
   </sheetData>
   <autoFilter ref="S16:W47">
